--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="897">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,2416 +208,2473 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2024-12-26</t>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>315665.14</t>
+  </si>
+  <si>
+    <t>72275.00</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>-48.00</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068.00</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635.00</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309.00</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250.00</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900.00</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630.00</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550.00</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330.00</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118.00</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646.00</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232.00</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575.00</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821.00</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730.00</t>
+  </si>
+  <si>
+    <t>43652.00</t>
+  </si>
+  <si>
+    <t>65785.00</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984.00</t>
+  </si>
+  <si>
+    <t>21739.00</t>
+  </si>
+  <si>
+    <t>17620.00</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917.00</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420.00</t>
+  </si>
+  <si>
+    <t>40875.00</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311.00</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880.00</t>
+  </si>
+  <si>
+    <t>17750.00</t>
+  </si>
+  <si>
+    <t>42278.00</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450.00</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465.00</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742.00</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>33390.00</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>34780.00</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664.00</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373.00</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>3820.00</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768.00</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634.00</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960.00</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511.00</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598.00</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010.00</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474.00</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498.00</t>
+  </si>
+  <si>
+    <t>39550.00</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333.00</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460.00</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811.00</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260.00</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548.00</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414.00</t>
+  </si>
+  <si>
+    <t>85205.00</t>
+  </si>
+  <si>
+    <t>22948.00</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752.00</t>
+  </si>
+  <si>
+    <t>105819.00</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618.00</t>
+  </si>
+  <si>
+    <t>107210.00</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700.00</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360.00</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194.00</t>
+  </si>
+  <si>
+    <t>64450.00</t>
+  </si>
+  <si>
+    <t>46525.00</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>48657.00</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860.00</t>
+  </si>
+  <si>
+    <t>32810.00</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254.00</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431.00</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974.00</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533.00</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771.00</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550.00</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136.00</t>
+  </si>
+  <si>
+    <t>58500.00</t>
+  </si>
+  <si>
+    <t>64880.00</t>
+  </si>
+  <si>
+    <t>28560.00</t>
+  </si>
+  <si>
+    <t>49800.00</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215.00</t>
+  </si>
+  <si>
+    <t>194205.00</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050.00</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607.00</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752.00</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920.00</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122.00</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750.00</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710.00</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350.00</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250.00</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250.00</t>
+  </si>
+  <si>
+    <t>34020.00</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050.00</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150.00</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880.00</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201.00</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550.00</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536.00</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201.00</t>
+  </si>
+  <si>
+    <t>77606.00</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880.00</t>
+  </si>
+  <si>
+    <t>10030.00</t>
+  </si>
+  <si>
+    <t>5434.00</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571.00</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474.00</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119.00</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246.00</t>
+  </si>
+  <si>
+    <t>35767.00</t>
+  </si>
+  <si>
+    <t>17714.00</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266.00</t>
+  </si>
+  <si>
+    <t>39178.00</t>
+  </si>
+  <si>
+    <t>25316.00</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987.00</t>
+  </si>
+  <si>
+    <t>21147.00</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900.00</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970.00</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990.00</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>47870.00</t>
+  </si>
+  <si>
+    <t>5670.00</t>
+  </si>
+  <si>
+    <t>15335.00</t>
+  </si>
+  <si>
+    <t>91440.00</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040.00</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510.00</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350.00</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430.00</t>
+  </si>
+  <si>
+    <t>39740.00</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310.00</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>31200.00</t>
+  </si>
+  <si>
+    <t>34240.00</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264.00</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700.00</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540.00</t>
+  </si>
+  <si>
+    <t>41060.00</t>
+  </si>
+  <si>
+    <t>49156.00</t>
+  </si>
+  <si>
+    <t>48114.00</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250.00</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950.00</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>118530.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076.00</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364.00</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172.00</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982.00</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905.00</t>
+  </si>
+  <si>
+    <t>121062.00</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358.00</t>
+  </si>
+  <si>
+    <t>117540.00</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935.00</t>
+  </si>
+  <si>
+    <t>96721.00</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244.00</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401.00</t>
+  </si>
+  <si>
+    <t>19234.00</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311.00</t>
+  </si>
+  <si>
+    <t>26391.00</t>
+  </si>
+  <si>
+    <t>15155.00</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045.00</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762.00</t>
+  </si>
+  <si>
+    <t>5692.00</t>
+  </si>
+  <si>
+    <t>9280.00</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999.00</t>
+  </si>
+  <si>
+    <t>3665.00</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320.00</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370.00</t>
+  </si>
+  <si>
+    <t>31531.00</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975.00</t>
+  </si>
+  <si>
+    <t>13039.00</t>
+  </si>
+  <si>
+    <t>13717.00</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203.00</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894.00</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649.00</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079.00</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2124.00</t>
+  </si>
+  <si>
+    <t>-132119.00</t>
+  </si>
+  <si>
+    <t>-173419.00</t>
+  </si>
+  <si>
+    <t>-202929.00</t>
+  </si>
+  <si>
+    <t>-216929.00</t>
+  </si>
+  <si>
+    <t>-241279.00</t>
+  </si>
+  <si>
+    <t>-244709.00</t>
+  </si>
+  <si>
+    <t>-284449.00</t>
+  </si>
+  <si>
+    <t>-344449.00</t>
+  </si>
+  <si>
+    <t>-382759.00</t>
+  </si>
+  <si>
+    <t>-407959.00</t>
+  </si>
+  <si>
+    <t>-441959.00</t>
+  </si>
+  <si>
+    <t>-476159.00</t>
+  </si>
+  <si>
+    <t>-509759.00</t>
+  </si>
+  <si>
+    <t>-540959.00</t>
+  </si>
+  <si>
+    <t>-564959.00</t>
+  </si>
+  <si>
+    <t>-599199.00</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749.00</t>
+  </si>
+  <si>
+    <t>-686289.00</t>
+  </si>
+  <si>
+    <t>-727349.00</t>
+  </si>
+  <si>
+    <t>-776505.00</t>
+  </si>
+  <si>
+    <t>-824619.00</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569.00</t>
+  </si>
+  <si>
+    <t>-982569.00</t>
+  </si>
+  <si>
+    <t>-1034569.00</t>
+  </si>
+  <si>
+    <t>-1153099.00</t>
+  </si>
+  <si>
+    <t>-1143899.00</t>
+  </si>
+  <si>
+    <t>-1069823.00</t>
+  </si>
+  <si>
+    <t>-1036459.00</t>
+  </si>
+  <si>
+    <t>-949287.00</t>
+  </si>
+  <si>
+    <t>-908305.00</t>
+  </si>
+  <si>
+    <t>-808305.00</t>
+  </si>
+  <si>
+    <t>-787400.00</t>
+  </si>
+  <si>
+    <t>-666338.00</t>
+  </si>
+  <si>
+    <t>-487980.00</t>
+  </si>
+  <si>
+    <t>-370440.00</t>
+  </si>
+  <si>
+    <t>-211505.00</t>
+  </si>
+  <si>
+    <t>-114784.00</t>
+  </si>
+  <si>
+    <t>-92540.00</t>
+  </si>
+  <si>
+    <t>-67139.00</t>
+  </si>
+  <si>
+    <t>-47905.00</t>
+  </si>
+  <si>
+    <t>-23594.00</t>
+  </si>
+  <si>
+    <t>2797.00</t>
+  </si>
+  <si>
+    <t>17952.00</t>
+  </si>
+  <si>
+    <t>41291.00</t>
+  </si>
+  <si>
+    <t>71791.00</t>
+  </si>
+  <si>
+    <t>87836.00</t>
+  </si>
+  <si>
+    <t>108598.00</t>
+  </si>
+  <si>
+    <t>114290.00</t>
+  </si>
+  <si>
+    <t>123570.00</t>
+  </si>
+  <si>
+    <t>135569.00</t>
+  </si>
+  <si>
+    <t>139234.00</t>
+  </si>
+  <si>
+    <t>147554.00</t>
+  </si>
+  <si>
+    <t>157924.00</t>
+  </si>
+  <si>
+    <t>189455.00</t>
+  </si>
+  <si>
+    <t>196430.00</t>
+  </si>
+  <si>
+    <t>209469.00</t>
+  </si>
+  <si>
+    <t>223186.00</t>
+  </si>
+  <si>
+    <t>237389.00</t>
+  </si>
+  <si>
+    <t>247283.00</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080.00</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942.00</t>
+  </si>
+  <si>
+    <t>218942.00</t>
+  </si>
+  <si>
+    <t>218895.00</t>
+  </si>
+  <si>
+    <t>195775.00</t>
+  </si>
+  <si>
+    <t>176775.00</t>
+  </si>
+  <si>
+    <t>126775.00</t>
+  </si>
+  <si>
+    <t>125775.00</t>
+  </si>
+  <si>
+    <t>105775.00</t>
+  </si>
+  <si>
+    <t>104775.00</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>4725.00</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>1953.00</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>1323.00</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>1302.00</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>1000.76</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>5209.00</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>4082.40</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>3045.00</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>3675.00</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>6574.40</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>12210.00</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>1900.30</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>682.50</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>1496.25</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>708.75</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>5220.00</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>10657.50</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>745.50</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>892.50</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>446.25</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>672.00</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>2352.00</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>2478.00</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>3074.40</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2940.00</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>1701.00</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>1023.75</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>12390.00</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>724.50</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>341.25</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2280.60</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>1297.80</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>3049.20</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>441.00</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>266336.30</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>268436.30</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>268676.30</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>271526.30</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>284231.30</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>289691.30</t>
+  </si>
+  <si>
+    <t>5460.00</t>
+  </si>
+  <si>
+    <t>293208.80</t>
+  </si>
+  <si>
+    <t>3517.50</t>
+  </si>
+  <si>
+    <t>295098.80</t>
+  </si>
+  <si>
+    <t>296610.80</t>
+  </si>
+  <si>
+    <t>1512.00</t>
+  </si>
+  <si>
+    <t>297925.70</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>1314.88</t>
+  </si>
+  <si>
+    <t>298597.70</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>716.02</t>
+  </si>
+  <si>
+    <t>299681.70</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>300681.70</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.70</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>309331.70</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>305731.70</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>7724.98</t>
+  </si>
+  <si>
+    <t>304006.70</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.70</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>307706.70</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.70</t>
+  </si>
+  <si>
+    <t>311996.70</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>313296.70</t>
+  </si>
+  <si>
+    <t>314146.70</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>1800.04</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2749.60</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>10237.50</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>10815.00</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>4011.00</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>6804.00</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>122.50</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>960.12</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>3550.40</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>7500.00</t>
   </si>
   <si>
     <t>294630.44</t>
   </si>
   <si>
-    <t>72275.00</t>
-  </si>
-  <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>-48.00</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068.00</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635.00</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309.00</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000.00</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250.00</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900.00</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630.00</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550.00</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330.00</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118.00</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900.00</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646.00</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232.00</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575.00</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821.00</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730.00</t>
-  </si>
-  <si>
-    <t>43652.00</t>
-  </si>
-  <si>
-    <t>65785.00</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984.00</t>
-  </si>
-  <si>
-    <t>21739.00</t>
-  </si>
-  <si>
-    <t>17620.00</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917.00</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420.00</t>
-  </si>
-  <si>
-    <t>40875.00</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311.00</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880.00</t>
-  </si>
-  <si>
-    <t>17750.00</t>
-  </si>
-  <si>
-    <t>42278.00</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450.00</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465.00</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742.00</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>33390.00</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000.00</t>
-  </si>
-  <si>
-    <t>34780.00</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664.00</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373.00</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>3820.00</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630.00</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000.00</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768.00</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634.00</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960.00</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511.00</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598.00</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010.00</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474.00</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498.00</t>
-  </si>
-  <si>
-    <t>39550.00</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333.00</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460.00</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945.00</t>
-  </si>
-  <si>
-    <t>35000.00</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811.00</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260.00</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000.00</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548.00</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414.00</t>
-  </si>
-  <si>
-    <t>85205.00</t>
-  </si>
-  <si>
-    <t>22948.00</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752.00</t>
-  </si>
-  <si>
-    <t>105819.00</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618.00</t>
-  </si>
-  <si>
-    <t>107210.00</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700.00</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360.00</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194.00</t>
-  </si>
-  <si>
-    <t>64450.00</t>
-  </si>
-  <si>
-    <t>46525.00</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704.00</t>
-  </si>
-  <si>
-    <t>25000.00</t>
-  </si>
-  <si>
-    <t>48657.00</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200.00</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860.00</t>
-  </si>
-  <si>
-    <t>32810.00</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254.00</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431.00</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974.00</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000.00</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533.00</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771.00</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955.00</t>
-  </si>
-  <si>
-    <t>80000.00</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550.00</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136.00</t>
-  </si>
-  <si>
-    <t>58500.00</t>
-  </si>
-  <si>
-    <t>64880.00</t>
-  </si>
-  <si>
-    <t>28560.00</t>
-  </si>
-  <si>
-    <t>49800.00</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215.00</t>
-  </si>
-  <si>
-    <t>194205.00</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050.00</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607.00</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752.00</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920.00</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122.00</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750.00</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600.00</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710.00</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350.00</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250.00</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500.00</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250.00</t>
-  </si>
-  <si>
-    <t>34020.00</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050.00</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150.00</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880.00</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201.00</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550.00</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536.00</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201.00</t>
-  </si>
-  <si>
-    <t>77606.00</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880.00</t>
-  </si>
-  <si>
-    <t>10030.00</t>
-  </si>
-  <si>
-    <t>5434.00</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525.00</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571.00</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474.00</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119.00</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246.00</t>
-  </si>
-  <si>
-    <t>35767.00</t>
-  </si>
-  <si>
-    <t>17714.00</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266.00</t>
-  </si>
-  <si>
-    <t>39178.00</t>
-  </si>
-  <si>
-    <t>25316.00</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987.00</t>
-  </si>
-  <si>
-    <t>21147.00</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900.00</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970.00</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990.00</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860.00</t>
-  </si>
-  <si>
-    <t>47870.00</t>
-  </si>
-  <si>
-    <t>5670.00</t>
-  </si>
-  <si>
-    <t>15335.00</t>
-  </si>
-  <si>
-    <t>91440.00</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040.00</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300.00</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510.00</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350.00</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430.00</t>
-  </si>
-  <si>
-    <t>39740.00</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310.00</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200.00</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200.00</t>
-  </si>
-  <si>
-    <t>33600.00</t>
-  </si>
-  <si>
-    <t>31200.00</t>
-  </si>
-  <si>
-    <t>34240.00</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264.00</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700.00</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540.00</t>
-  </si>
-  <si>
-    <t>41060.00</t>
-  </si>
-  <si>
-    <t>49156.00</t>
-  </si>
-  <si>
-    <t>48114.00</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250.00</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950.00</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000.00</t>
-  </si>
-  <si>
-    <t>118530.00</t>
-  </si>
-  <si>
-    <t>9200.00</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076.00</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364.00</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172.00</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982.00</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905.00</t>
-  </si>
-  <si>
-    <t>121062.00</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358.00</t>
-  </si>
-  <si>
-    <t>117540.00</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935.00</t>
-  </si>
-  <si>
-    <t>96721.00</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244.00</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401.00</t>
-  </si>
-  <si>
-    <t>19234.00</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311.00</t>
-  </si>
-  <si>
-    <t>26391.00</t>
-  </si>
-  <si>
-    <t>15155.00</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339.00</t>
-  </si>
-  <si>
-    <t>30500.00</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045.00</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762.00</t>
-  </si>
-  <si>
-    <t>5692.00</t>
-  </si>
-  <si>
-    <t>9280.00</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999.00</t>
-  </si>
-  <si>
-    <t>3665.00</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320.00</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370.00</t>
-  </si>
-  <si>
-    <t>31531.00</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975.00</t>
-  </si>
-  <si>
-    <t>13039.00</t>
-  </si>
-  <si>
-    <t>13717.00</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203.00</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894.00</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500.00</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649.00</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079.00</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>980.00</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>990.00</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>960.00</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>1520.00</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>2750.00</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>2124.00</t>
-  </si>
-  <si>
-    <t>-132119.00</t>
-  </si>
-  <si>
-    <t>-173419.00</t>
-  </si>
-  <si>
-    <t>-202929.00</t>
-  </si>
-  <si>
-    <t>-216929.00</t>
-  </si>
-  <si>
-    <t>-241279.00</t>
-  </si>
-  <si>
-    <t>-244709.00</t>
-  </si>
-  <si>
-    <t>-284449.00</t>
-  </si>
-  <si>
-    <t>-344449.00</t>
-  </si>
-  <si>
-    <t>-382759.00</t>
-  </si>
-  <si>
-    <t>-407959.00</t>
-  </si>
-  <si>
-    <t>-441959.00</t>
-  </si>
-  <si>
-    <t>-476159.00</t>
-  </si>
-  <si>
-    <t>-509759.00</t>
-  </si>
-  <si>
-    <t>-540959.00</t>
-  </si>
-  <si>
-    <t>-564959.00</t>
-  </si>
-  <si>
-    <t>-599199.00</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749.00</t>
-  </si>
-  <si>
-    <t>-686289.00</t>
-  </si>
-  <si>
-    <t>-727349.00</t>
-  </si>
-  <si>
-    <t>-776505.00</t>
-  </si>
-  <si>
-    <t>-824619.00</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569.00</t>
-  </si>
-  <si>
-    <t>-982569.00</t>
-  </si>
-  <si>
-    <t>-1034569.00</t>
-  </si>
-  <si>
-    <t>-1153099.00</t>
-  </si>
-  <si>
-    <t>-1143899.00</t>
-  </si>
-  <si>
-    <t>-1069823.00</t>
-  </si>
-  <si>
-    <t>-1036459.00</t>
-  </si>
-  <si>
-    <t>-949287.00</t>
-  </si>
-  <si>
-    <t>-908305.00</t>
-  </si>
-  <si>
-    <t>-808305.00</t>
-  </si>
-  <si>
-    <t>-787400.00</t>
-  </si>
-  <si>
-    <t>-666338.00</t>
-  </si>
-  <si>
-    <t>-487980.00</t>
-  </si>
-  <si>
-    <t>-370440.00</t>
-  </si>
-  <si>
-    <t>-211505.00</t>
-  </si>
-  <si>
-    <t>-114784.00</t>
-  </si>
-  <si>
-    <t>-92540.00</t>
-  </si>
-  <si>
-    <t>-67139.00</t>
-  </si>
-  <si>
-    <t>-47905.00</t>
-  </si>
-  <si>
-    <t>-23594.00</t>
-  </si>
-  <si>
-    <t>2797.00</t>
-  </si>
-  <si>
-    <t>17952.00</t>
-  </si>
-  <si>
-    <t>41291.00</t>
-  </si>
-  <si>
-    <t>71791.00</t>
-  </si>
-  <si>
-    <t>87836.00</t>
-  </si>
-  <si>
-    <t>108598.00</t>
-  </si>
-  <si>
-    <t>114290.00</t>
-  </si>
-  <si>
-    <t>123570.00</t>
-  </si>
-  <si>
-    <t>135569.00</t>
-  </si>
-  <si>
-    <t>139234.00</t>
-  </si>
-  <si>
-    <t>147554.00</t>
-  </si>
-  <si>
-    <t>157924.00</t>
-  </si>
-  <si>
-    <t>189455.00</t>
-  </si>
-  <si>
-    <t>196430.00</t>
-  </si>
-  <si>
-    <t>209469.00</t>
-  </si>
-  <si>
-    <t>223186.00</t>
-  </si>
-  <si>
-    <t>237389.00</t>
-  </si>
-  <si>
-    <t>247283.00</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080.00</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942.00</t>
-  </si>
-  <si>
-    <t>218942.00</t>
-  </si>
-  <si>
-    <t>218895.00</t>
-  </si>
-  <si>
-    <t>195775.00</t>
-  </si>
-  <si>
-    <t>176775.00</t>
-  </si>
-  <si>
-    <t>126775.00</t>
-  </si>
-  <si>
-    <t>125775.00</t>
-  </si>
-  <si>
-    <t>105775.00</t>
-  </si>
-  <si>
-    <t>104775.00</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>4725.00</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>4300.00</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>670.00</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>1440.00</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>2200.00</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>2250.00</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>2240.00</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>4200.00</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>1890.00</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>1953.00</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>1323.00</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>1302.00</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>1000.76</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>5250.00</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>5209.00</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>4082.40</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>5400.00</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>1650.00</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>1700.00</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>1040.00</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>3045.00</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>3675.00</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>6574.40</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>3450.00</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>3900.00</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>12210.00</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>1300.00</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>1460.00</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>1900.30</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>682.50</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>1496.25</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>708.75</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>840.00</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>1360.00</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>2300.00</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>2700.00</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>5220.00</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>440.00</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>2960.00</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>10657.50</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>1092.00</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>378.00</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>745.50</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>892.50</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>446.25</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>672.00</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>2352.00</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>1155.00</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>2478.00</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>3600.00</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>1750.00</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>1200.00</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>3074.40</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2940.00</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>1701.00</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>2310.00</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>3150.00</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>1023.75</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>12390.00</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>2205.00</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>724.50</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>341.25</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>2280.60</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>1297.80</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>3049.20</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>861.00</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>441.00</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>920.00</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>320.00</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>6400.00</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>7200.00</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>4800.00</t>
-  </si>
-  <si>
-    <t>266336.30</t>
-  </si>
-  <si>
-    <t>8400.00</t>
-  </si>
-  <si>
-    <t>268436.30</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>2100.00</t>
-  </si>
-  <si>
-    <t>268676.30</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>271526.30</t>
-  </si>
-  <si>
-    <t>2850.00</t>
-  </si>
-  <si>
-    <t>284231.30</t>
-  </si>
-  <si>
-    <t>12705.00</t>
-  </si>
-  <si>
-    <t>289691.30</t>
-  </si>
-  <si>
-    <t>5460.00</t>
-  </si>
-  <si>
-    <t>293208.80</t>
-  </si>
-  <si>
-    <t>3517.50</t>
-  </si>
-  <si>
-    <t>295098.80</t>
-  </si>
-  <si>
-    <t>296610.80</t>
-  </si>
-  <si>
-    <t>1512.00</t>
-  </si>
-  <si>
-    <t>297925.70</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>1314.88</t>
-  </si>
-  <si>
-    <t>298597.70</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>716.02</t>
-  </si>
-  <si>
-    <t>299681.70</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>1800.00</t>
-  </si>
-  <si>
-    <t>300681.70</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.70</t>
-  </si>
-  <si>
-    <t>2800.00</t>
-  </si>
-  <si>
-    <t>309331.70</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>5850.00</t>
-  </si>
-  <si>
-    <t>305731.70</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>7724.98</t>
-  </si>
-  <si>
-    <t>304006.70</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.70</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>307706.70</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.70</t>
-  </si>
-  <si>
-    <t>311996.70</t>
-  </si>
-  <si>
-    <t>2640.00</t>
-  </si>
-  <si>
-    <t>313296.70</t>
-  </si>
-  <si>
-    <t>314146.70</t>
-  </si>
-  <si>
-    <t>850.00</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>1800.04</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>2749.60</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>235.00</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>10237.50</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>10815.00</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>15120.00</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>4011.00</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>6804.00</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>122.50</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>960.12</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>245.00</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>3550.40</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
     <t>5000.10</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>1732.50</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>529.20</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>5604.90</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>5338.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6967,7 +7024,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11744,13 +11801,173 @@
         <v>64</v>
       </c>
       <c r="D239" t="s">
-        <v>63</v>
+        <v>865</v>
       </c>
       <c r="E239" t="s">
         <v>863</v>
       </c>
       <c r="F239" t="s">
-        <v>865</v>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>136</v>
+      </c>
+      <c r="B240" t="s">
+        <v>437</v>
+      </c>
+      <c r="C240" t="s">
+        <v>64</v>
+      </c>
+      <c r="D240" t="s">
+        <v>867</v>
+      </c>
+      <c r="E240" t="s">
+        <v>868</v>
+      </c>
+      <c r="F240" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>136</v>
+      </c>
+      <c r="B241" t="s">
+        <v>437</v>
+      </c>
+      <c r="C241" t="s">
+        <v>64</v>
+      </c>
+      <c r="D241" t="s">
+        <v>869</v>
+      </c>
+      <c r="E241" t="s">
+        <v>868</v>
+      </c>
+      <c r="F241" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>136</v>
+      </c>
+      <c r="B242" t="s">
+        <v>437</v>
+      </c>
+      <c r="C242" t="s">
+        <v>64</v>
+      </c>
+      <c r="D242" t="s">
+        <v>870</v>
+      </c>
+      <c r="E242" t="s">
+        <v>871</v>
+      </c>
+      <c r="F242" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>136</v>
+      </c>
+      <c r="B243" t="s">
+        <v>437</v>
+      </c>
+      <c r="C243" t="s">
+        <v>64</v>
+      </c>
+      <c r="D243" t="s">
+        <v>872</v>
+      </c>
+      <c r="E243" t="s">
+        <v>873</v>
+      </c>
+      <c r="F243" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>136</v>
+      </c>
+      <c r="B244" t="s">
+        <v>437</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="D244" t="s">
+        <v>875</v>
+      </c>
+      <c r="E244" t="s">
+        <v>876</v>
+      </c>
+      <c r="F244" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>136</v>
+      </c>
+      <c r="B245" t="s">
+        <v>437</v>
+      </c>
+      <c r="C245" t="s">
+        <v>64</v>
+      </c>
+      <c r="D245" t="s">
+        <v>878</v>
+      </c>
+      <c r="E245" t="s">
+        <v>876</v>
+      </c>
+      <c r="F245" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>136</v>
+      </c>
+      <c r="B246" t="s">
+        <v>437</v>
+      </c>
+      <c r="C246" t="s">
+        <v>64</v>
+      </c>
+      <c r="D246" t="s">
+        <v>880</v>
+      </c>
+      <c r="E246" t="s">
+        <v>881</v>
+      </c>
+      <c r="F246" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>136</v>
+      </c>
+      <c r="B247" t="s">
+        <v>437</v>
+      </c>
+      <c r="C247" t="s">
+        <v>64</v>
+      </c>
+      <c r="D247" t="s">
+        <v>883</v>
+      </c>
+      <c r="E247" t="s">
+        <v>881</v>
+      </c>
+      <c r="F247" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -11768,13 +11985,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -11785,13 +12002,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -11802,13 +12019,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -11819,13 +12036,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -11836,13 +12053,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -11853,13 +12070,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -11870,13 +12087,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -11887,13 +12104,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -11904,13 +12121,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -11934,13 +12151,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -11949,18 +12166,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -11969,18 +12186,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -11989,18 +12206,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12009,18 +12226,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12029,18 +12246,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12049,18 +12266,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -12069,18 +12286,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -12089,12 +12306,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -12109,7 +12326,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="931">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,10 +208,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
-    <t>315665.14</t>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>352747.04</t>
   </si>
   <si>
     <t>72275.00</t>
@@ -2675,6 +2675,108 @@
   </si>
   <si>
     <t>5338.00</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>1029.00</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>1764.00</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>3307.50</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2710.40</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>896.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7024,7 +7126,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11968,6 +12070,346 @@
       </c>
       <c r="F247" t="s">
         <v>884</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>106</v>
+      </c>
+      <c r="B248" t="s">
+        <v>437</v>
+      </c>
+      <c r="C248" t="s">
+        <v>64</v>
+      </c>
+      <c r="D248" t="s">
+        <v>885</v>
+      </c>
+      <c r="E248" t="s">
+        <v>886</v>
+      </c>
+      <c r="F248" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>106</v>
+      </c>
+      <c r="B249" t="s">
+        <v>437</v>
+      </c>
+      <c r="C249" t="s">
+        <v>64</v>
+      </c>
+      <c r="D249" t="s">
+        <v>888</v>
+      </c>
+      <c r="E249" t="s">
+        <v>886</v>
+      </c>
+      <c r="F249" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>106</v>
+      </c>
+      <c r="B250" t="s">
+        <v>437</v>
+      </c>
+      <c r="C250" t="s">
+        <v>64</v>
+      </c>
+      <c r="D250" t="s">
+        <v>890</v>
+      </c>
+      <c r="E250" t="s">
+        <v>886</v>
+      </c>
+      <c r="F250" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>106</v>
+      </c>
+      <c r="B251" t="s">
+        <v>437</v>
+      </c>
+      <c r="C251" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" t="s">
+        <v>892</v>
+      </c>
+      <c r="E251" t="s">
+        <v>886</v>
+      </c>
+      <c r="F251" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>136</v>
+      </c>
+      <c r="B252" t="s">
+        <v>437</v>
+      </c>
+      <c r="C252" t="s">
+        <v>64</v>
+      </c>
+      <c r="D252" t="s">
+        <v>893</v>
+      </c>
+      <c r="E252" t="s">
+        <v>894</v>
+      </c>
+      <c r="F252" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>136</v>
+      </c>
+      <c r="B253" t="s">
+        <v>437</v>
+      </c>
+      <c r="C253" t="s">
+        <v>64</v>
+      </c>
+      <c r="D253" t="s">
+        <v>896</v>
+      </c>
+      <c r="E253" t="s">
+        <v>897</v>
+      </c>
+      <c r="F253" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>136</v>
+      </c>
+      <c r="B254" t="s">
+        <v>437</v>
+      </c>
+      <c r="C254" t="s">
+        <v>64</v>
+      </c>
+      <c r="D254" t="s">
+        <v>899</v>
+      </c>
+      <c r="E254" t="s">
+        <v>900</v>
+      </c>
+      <c r="F254" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>136</v>
+      </c>
+      <c r="B255" t="s">
+        <v>437</v>
+      </c>
+      <c r="C255" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" t="s">
+        <v>901</v>
+      </c>
+      <c r="E255" t="s">
+        <v>900</v>
+      </c>
+      <c r="F255" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>136</v>
+      </c>
+      <c r="B256" t="s">
+        <v>437</v>
+      </c>
+      <c r="C256" t="s">
+        <v>64</v>
+      </c>
+      <c r="D256" t="s">
+        <v>902</v>
+      </c>
+      <c r="E256" t="s">
+        <v>900</v>
+      </c>
+      <c r="F256" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>136</v>
+      </c>
+      <c r="B257" t="s">
+        <v>437</v>
+      </c>
+      <c r="C257" t="s">
+        <v>64</v>
+      </c>
+      <c r="D257" t="s">
+        <v>903</v>
+      </c>
+      <c r="E257" t="s">
+        <v>900</v>
+      </c>
+      <c r="F257" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>136</v>
+      </c>
+      <c r="B258" t="s">
+        <v>437</v>
+      </c>
+      <c r="C258" t="s">
+        <v>64</v>
+      </c>
+      <c r="D258" t="s">
+        <v>904</v>
+      </c>
+      <c r="E258" t="s">
+        <v>900</v>
+      </c>
+      <c r="F258" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>136</v>
+      </c>
+      <c r="B259" t="s">
+        <v>437</v>
+      </c>
+      <c r="C259" t="s">
+        <v>64</v>
+      </c>
+      <c r="D259" t="s">
+        <v>905</v>
+      </c>
+      <c r="E259" t="s">
+        <v>906</v>
+      </c>
+      <c r="F259" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>136</v>
+      </c>
+      <c r="B260" t="s">
+        <v>437</v>
+      </c>
+      <c r="C260" t="s">
+        <v>64</v>
+      </c>
+      <c r="D260" t="s">
+        <v>908</v>
+      </c>
+      <c r="E260" t="s">
+        <v>906</v>
+      </c>
+      <c r="F260" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>136</v>
+      </c>
+      <c r="B261" t="s">
+        <v>437</v>
+      </c>
+      <c r="C261" t="s">
+        <v>64</v>
+      </c>
+      <c r="D261" t="s">
+        <v>910</v>
+      </c>
+      <c r="E261" t="s">
+        <v>911</v>
+      </c>
+      <c r="F261" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>136</v>
+      </c>
+      <c r="B262" t="s">
+        <v>437</v>
+      </c>
+      <c r="C262" t="s">
+        <v>64</v>
+      </c>
+      <c r="D262" t="s">
+        <v>913</v>
+      </c>
+      <c r="E262" t="s">
+        <v>911</v>
+      </c>
+      <c r="F262" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>136</v>
+      </c>
+      <c r="B263" t="s">
+        <v>437</v>
+      </c>
+      <c r="C263" t="s">
+        <v>64</v>
+      </c>
+      <c r="D263" t="s">
+        <v>914</v>
+      </c>
+      <c r="E263" t="s">
+        <v>915</v>
+      </c>
+      <c r="F263" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>136</v>
+      </c>
+      <c r="B264" t="s">
+        <v>437</v>
+      </c>
+      <c r="C264" t="s">
+        <v>64</v>
+      </c>
+      <c r="D264" t="s">
+        <v>917</v>
+      </c>
+      <c r="E264" t="s">
+        <v>915</v>
+      </c>
+      <c r="F264" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -11985,13 +12427,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -12002,13 +12444,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -12019,13 +12461,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -12036,13 +12478,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -12053,13 +12495,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -12070,13 +12512,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -12087,13 +12529,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -12104,13 +12546,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -12121,13 +12563,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>888</v>
+        <v>922</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -12151,13 +12593,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12166,18 +12608,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12186,18 +12628,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>891</v>
+        <v>925</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -12206,18 +12648,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>892</v>
+        <v>926</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12226,18 +12668,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>893</v>
+        <v>927</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12246,18 +12688,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>894</v>
+        <v>928</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12266,18 +12708,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -12286,18 +12728,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -12306,12 +12748,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -12326,7 +12768,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>888</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="985">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,10 +208,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>352747.04</t>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>436742.04</t>
   </si>
   <si>
     <t>72275.00</t>
@@ -2777,6 +2777,168 @@
   </si>
   <si>
     <t>896.00</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>882.00</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>1207.50</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>262.50</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>5550.00</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7126,7 +7288,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12410,6 +12572,546 @@
       </c>
       <c r="F264" t="s">
         <v>918</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>136</v>
+      </c>
+      <c r="B265" t="s">
+        <v>437</v>
+      </c>
+      <c r="C265" t="s">
+        <v>64</v>
+      </c>
+      <c r="D265" t="s">
+        <v>919</v>
+      </c>
+      <c r="E265" t="s">
+        <v>920</v>
+      </c>
+      <c r="F265" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>437</v>
+      </c>
+      <c r="C266" t="s">
+        <v>64</v>
+      </c>
+      <c r="D266" t="s">
+        <v>921</v>
+      </c>
+      <c r="E266" t="s">
+        <v>922</v>
+      </c>
+      <c r="F266" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>437</v>
+      </c>
+      <c r="C267" t="s">
+        <v>64</v>
+      </c>
+      <c r="D267" t="s">
+        <v>924</v>
+      </c>
+      <c r="E267" t="s">
+        <v>925</v>
+      </c>
+      <c r="F267" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>437</v>
+      </c>
+      <c r="C268" t="s">
+        <v>64</v>
+      </c>
+      <c r="D268" t="s">
+        <v>927</v>
+      </c>
+      <c r="E268" t="s">
+        <v>925</v>
+      </c>
+      <c r="F268" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>437</v>
+      </c>
+      <c r="C269" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269" t="s">
+        <v>928</v>
+      </c>
+      <c r="E269" t="s">
+        <v>925</v>
+      </c>
+      <c r="F269" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>136</v>
+      </c>
+      <c r="B270" t="s">
+        <v>437</v>
+      </c>
+      <c r="C270" t="s">
+        <v>64</v>
+      </c>
+      <c r="D270" t="s">
+        <v>930</v>
+      </c>
+      <c r="E270" t="s">
+        <v>931</v>
+      </c>
+      <c r="F270" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>136</v>
+      </c>
+      <c r="B271" t="s">
+        <v>437</v>
+      </c>
+      <c r="C271" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" t="s">
+        <v>932</v>
+      </c>
+      <c r="E271" t="s">
+        <v>931</v>
+      </c>
+      <c r="F271" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>136</v>
+      </c>
+      <c r="B272" t="s">
+        <v>437</v>
+      </c>
+      <c r="C272" t="s">
+        <v>64</v>
+      </c>
+      <c r="D272" t="s">
+        <v>933</v>
+      </c>
+      <c r="E272" t="s">
+        <v>931</v>
+      </c>
+      <c r="F272" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>136</v>
+      </c>
+      <c r="B273" t="s">
+        <v>437</v>
+      </c>
+      <c r="C273" t="s">
+        <v>64</v>
+      </c>
+      <c r="D273" t="s">
+        <v>935</v>
+      </c>
+      <c r="E273" t="s">
+        <v>936</v>
+      </c>
+      <c r="F273" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>136</v>
+      </c>
+      <c r="B274" t="s">
+        <v>437</v>
+      </c>
+      <c r="C274" t="s">
+        <v>64</v>
+      </c>
+      <c r="D274" t="s">
+        <v>938</v>
+      </c>
+      <c r="E274" t="s">
+        <v>936</v>
+      </c>
+      <c r="F274" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>106</v>
+      </c>
+      <c r="B275" t="s">
+        <v>437</v>
+      </c>
+      <c r="C275" t="s">
+        <v>64</v>
+      </c>
+      <c r="D275" t="s">
+        <v>939</v>
+      </c>
+      <c r="E275" t="s">
+        <v>940</v>
+      </c>
+      <c r="F275" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" t="s">
+        <v>437</v>
+      </c>
+      <c r="C276" t="s">
+        <v>64</v>
+      </c>
+      <c r="D276" t="s">
+        <v>941</v>
+      </c>
+      <c r="E276" t="s">
+        <v>942</v>
+      </c>
+      <c r="F276" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>136</v>
+      </c>
+      <c r="B277" t="s">
+        <v>437</v>
+      </c>
+      <c r="C277" t="s">
+        <v>64</v>
+      </c>
+      <c r="D277" t="s">
+        <v>944</v>
+      </c>
+      <c r="E277" t="s">
+        <v>945</v>
+      </c>
+      <c r="F277" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>136</v>
+      </c>
+      <c r="B278" t="s">
+        <v>437</v>
+      </c>
+      <c r="C278" t="s">
+        <v>64</v>
+      </c>
+      <c r="D278" t="s">
+        <v>947</v>
+      </c>
+      <c r="E278" t="s">
+        <v>945</v>
+      </c>
+      <c r="F278" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>136</v>
+      </c>
+      <c r="B279" t="s">
+        <v>437</v>
+      </c>
+      <c r="C279" t="s">
+        <v>64</v>
+      </c>
+      <c r="D279" t="s">
+        <v>949</v>
+      </c>
+      <c r="E279" t="s">
+        <v>950</v>
+      </c>
+      <c r="F279" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>136</v>
+      </c>
+      <c r="B280" t="s">
+        <v>437</v>
+      </c>
+      <c r="C280" t="s">
+        <v>64</v>
+      </c>
+      <c r="D280" t="s">
+        <v>951</v>
+      </c>
+      <c r="E280" t="s">
+        <v>950</v>
+      </c>
+      <c r="F280" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>136</v>
+      </c>
+      <c r="B281" t="s">
+        <v>437</v>
+      </c>
+      <c r="C281" t="s">
+        <v>64</v>
+      </c>
+      <c r="D281" t="s">
+        <v>952</v>
+      </c>
+      <c r="E281" t="s">
+        <v>953</v>
+      </c>
+      <c r="F281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>136</v>
+      </c>
+      <c r="B282" t="s">
+        <v>437</v>
+      </c>
+      <c r="C282" t="s">
+        <v>64</v>
+      </c>
+      <c r="D282" t="s">
+        <v>954</v>
+      </c>
+      <c r="E282" t="s">
+        <v>942</v>
+      </c>
+      <c r="F282" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>136</v>
+      </c>
+      <c r="B283" t="s">
+        <v>437</v>
+      </c>
+      <c r="C283" t="s">
+        <v>64</v>
+      </c>
+      <c r="D283" t="s">
+        <v>956</v>
+      </c>
+      <c r="E283" t="s">
+        <v>957</v>
+      </c>
+      <c r="F283" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>136</v>
+      </c>
+      <c r="B284" t="s">
+        <v>437</v>
+      </c>
+      <c r="C284" t="s">
+        <v>64</v>
+      </c>
+      <c r="D284" t="s">
+        <v>958</v>
+      </c>
+      <c r="E284" t="s">
+        <v>957</v>
+      </c>
+      <c r="F284" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>136</v>
+      </c>
+      <c r="B285" t="s">
+        <v>437</v>
+      </c>
+      <c r="C285" t="s">
+        <v>64</v>
+      </c>
+      <c r="D285" t="s">
+        <v>960</v>
+      </c>
+      <c r="E285" t="s">
+        <v>957</v>
+      </c>
+      <c r="F285" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>136</v>
+      </c>
+      <c r="B286" t="s">
+        <v>437</v>
+      </c>
+      <c r="C286" t="s">
+        <v>64</v>
+      </c>
+      <c r="D286" t="s">
+        <v>962</v>
+      </c>
+      <c r="E286" t="s">
+        <v>936</v>
+      </c>
+      <c r="F286" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>136</v>
+      </c>
+      <c r="B287" t="s">
+        <v>437</v>
+      </c>
+      <c r="C287" t="s">
+        <v>64</v>
+      </c>
+      <c r="D287" t="s">
+        <v>964</v>
+      </c>
+      <c r="E287" t="s">
+        <v>965</v>
+      </c>
+      <c r="F287" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>136</v>
+      </c>
+      <c r="B288" t="s">
+        <v>437</v>
+      </c>
+      <c r="C288" t="s">
+        <v>64</v>
+      </c>
+      <c r="D288" t="s">
+        <v>966</v>
+      </c>
+      <c r="E288" t="s">
+        <v>965</v>
+      </c>
+      <c r="F288" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>136</v>
+      </c>
+      <c r="B289" t="s">
+        <v>437</v>
+      </c>
+      <c r="C289" t="s">
+        <v>64</v>
+      </c>
+      <c r="D289" t="s">
+        <v>968</v>
+      </c>
+      <c r="E289" t="s">
+        <v>965</v>
+      </c>
+      <c r="F289" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>136</v>
+      </c>
+      <c r="B290" t="s">
+        <v>437</v>
+      </c>
+      <c r="C290" t="s">
+        <v>64</v>
+      </c>
+      <c r="D290" t="s">
+        <v>969</v>
+      </c>
+      <c r="E290" t="s">
+        <v>940</v>
+      </c>
+      <c r="F290" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>136</v>
+      </c>
+      <c r="B291" t="s">
+        <v>437</v>
+      </c>
+      <c r="C291" t="s">
+        <v>64</v>
+      </c>
+      <c r="D291" t="s">
+        <v>971</v>
+      </c>
+      <c r="E291" t="s">
+        <v>972</v>
+      </c>
+      <c r="F291" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -12427,13 +13129,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -12444,13 +13146,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -12461,13 +13163,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -12478,13 +13180,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -12495,13 +13197,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -12512,13 +13214,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -12529,13 +13231,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -12546,13 +13248,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -12563,13 +13265,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -12593,13 +13295,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12608,18 +13310,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12628,18 +13330,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>925</v>
+        <v>979</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -12648,18 +13350,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>980</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12668,18 +13370,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>927</v>
+        <v>981</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12688,18 +13390,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>928</v>
+        <v>982</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12708,18 +13410,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>983</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -12728,18 +13430,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>930</v>
+        <v>984</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -12748,12 +13450,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -12768,7 +13470,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>922</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -208,7 +208,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-03-08</t>
+    <t>2025-03-11</t>
   </si>
   <si>
     <t>436742.04</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -208,7 +208,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-03-11</t>
+    <t>2025-03-13</t>
   </si>
   <si>
     <t>436742.04</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1008">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,2737 +208,2806 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>477758.82</t>
+  </si>
+  <si>
+    <t>72275.00</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>-48.00</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068.00</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635.00</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309.00</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250.00</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900.00</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630.00</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550.00</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330.00</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118.00</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646.00</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232.00</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575.00</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821.00</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730.00</t>
+  </si>
+  <si>
+    <t>43652.00</t>
+  </si>
+  <si>
+    <t>65785.00</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984.00</t>
+  </si>
+  <si>
+    <t>21739.00</t>
+  </si>
+  <si>
+    <t>17620.00</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917.00</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420.00</t>
+  </si>
+  <si>
+    <t>40875.00</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311.00</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880.00</t>
+  </si>
+  <si>
+    <t>17750.00</t>
+  </si>
+  <si>
+    <t>42278.00</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450.00</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465.00</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742.00</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>33390.00</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>34780.00</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664.00</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373.00</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>3820.00</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768.00</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634.00</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960.00</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511.00</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598.00</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010.00</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474.00</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498.00</t>
+  </si>
+  <si>
+    <t>39550.00</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333.00</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460.00</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811.00</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260.00</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548.00</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414.00</t>
+  </si>
+  <si>
+    <t>85205.00</t>
+  </si>
+  <si>
+    <t>22948.00</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752.00</t>
+  </si>
+  <si>
+    <t>105819.00</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618.00</t>
+  </si>
+  <si>
+    <t>107210.00</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700.00</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360.00</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194.00</t>
+  </si>
+  <si>
+    <t>64450.00</t>
+  </si>
+  <si>
+    <t>46525.00</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>48657.00</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860.00</t>
+  </si>
+  <si>
+    <t>32810.00</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254.00</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431.00</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974.00</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533.00</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771.00</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550.00</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136.00</t>
+  </si>
+  <si>
+    <t>58500.00</t>
+  </si>
+  <si>
+    <t>64880.00</t>
+  </si>
+  <si>
+    <t>28560.00</t>
+  </si>
+  <si>
+    <t>49800.00</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215.00</t>
+  </si>
+  <si>
+    <t>194205.00</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050.00</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607.00</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752.00</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920.00</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122.00</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750.00</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710.00</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350.00</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250.00</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250.00</t>
+  </si>
+  <si>
+    <t>34020.00</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050.00</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150.00</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880.00</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201.00</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550.00</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536.00</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201.00</t>
+  </si>
+  <si>
+    <t>77606.00</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880.00</t>
+  </si>
+  <si>
+    <t>10030.00</t>
+  </si>
+  <si>
+    <t>5434.00</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571.00</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474.00</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119.00</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246.00</t>
+  </si>
+  <si>
+    <t>35767.00</t>
+  </si>
+  <si>
+    <t>17714.00</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266.00</t>
+  </si>
+  <si>
+    <t>39178.00</t>
+  </si>
+  <si>
+    <t>25316.00</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987.00</t>
+  </si>
+  <si>
+    <t>21147.00</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900.00</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970.00</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990.00</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>47870.00</t>
+  </si>
+  <si>
+    <t>5670.00</t>
+  </si>
+  <si>
+    <t>15335.00</t>
+  </si>
+  <si>
+    <t>91440.00</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040.00</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510.00</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350.00</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430.00</t>
+  </si>
+  <si>
+    <t>39740.00</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310.00</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>31200.00</t>
+  </si>
+  <si>
+    <t>34240.00</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264.00</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700.00</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540.00</t>
+  </si>
+  <si>
+    <t>41060.00</t>
+  </si>
+  <si>
+    <t>49156.00</t>
+  </si>
+  <si>
+    <t>48114.00</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250.00</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950.00</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>118530.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076.00</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364.00</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172.00</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982.00</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905.00</t>
+  </si>
+  <si>
+    <t>121062.00</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358.00</t>
+  </si>
+  <si>
+    <t>117540.00</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935.00</t>
+  </si>
+  <si>
+    <t>96721.00</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244.00</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401.00</t>
+  </si>
+  <si>
+    <t>19234.00</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311.00</t>
+  </si>
+  <si>
+    <t>26391.00</t>
+  </si>
+  <si>
+    <t>15155.00</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045.00</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762.00</t>
+  </si>
+  <si>
+    <t>5692.00</t>
+  </si>
+  <si>
+    <t>9280.00</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999.00</t>
+  </si>
+  <si>
+    <t>3665.00</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320.00</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370.00</t>
+  </si>
+  <si>
+    <t>31531.00</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975.00</t>
+  </si>
+  <si>
+    <t>13039.00</t>
+  </si>
+  <si>
+    <t>13717.00</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203.00</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894.00</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649.00</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079.00</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2124.00</t>
+  </si>
+  <si>
+    <t>-132119.00</t>
+  </si>
+  <si>
+    <t>-173419.00</t>
+  </si>
+  <si>
+    <t>-202929.00</t>
+  </si>
+  <si>
+    <t>-216929.00</t>
+  </si>
+  <si>
+    <t>-241279.00</t>
+  </si>
+  <si>
+    <t>-244709.00</t>
+  </si>
+  <si>
+    <t>-284449.00</t>
+  </si>
+  <si>
+    <t>-344449.00</t>
+  </si>
+  <si>
+    <t>-382759.00</t>
+  </si>
+  <si>
+    <t>-407959.00</t>
+  </si>
+  <si>
+    <t>-441959.00</t>
+  </si>
+  <si>
+    <t>-476159.00</t>
+  </si>
+  <si>
+    <t>-509759.00</t>
+  </si>
+  <si>
+    <t>-540959.00</t>
+  </si>
+  <si>
+    <t>-564959.00</t>
+  </si>
+  <si>
+    <t>-599199.00</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749.00</t>
+  </si>
+  <si>
+    <t>-686289.00</t>
+  </si>
+  <si>
+    <t>-727349.00</t>
+  </si>
+  <si>
+    <t>-776505.00</t>
+  </si>
+  <si>
+    <t>-824619.00</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569.00</t>
+  </si>
+  <si>
+    <t>-982569.00</t>
+  </si>
+  <si>
+    <t>-1034569.00</t>
+  </si>
+  <si>
+    <t>-1153099.00</t>
+  </si>
+  <si>
+    <t>-1143899.00</t>
+  </si>
+  <si>
+    <t>-1069823.00</t>
+  </si>
+  <si>
+    <t>-1036459.00</t>
+  </si>
+  <si>
+    <t>-949287.00</t>
+  </si>
+  <si>
+    <t>-908305.00</t>
+  </si>
+  <si>
+    <t>-808305.00</t>
+  </si>
+  <si>
+    <t>-787400.00</t>
+  </si>
+  <si>
+    <t>-666338.00</t>
+  </si>
+  <si>
+    <t>-487980.00</t>
+  </si>
+  <si>
+    <t>-370440.00</t>
+  </si>
+  <si>
+    <t>-211505.00</t>
+  </si>
+  <si>
+    <t>-114784.00</t>
+  </si>
+  <si>
+    <t>-92540.00</t>
+  </si>
+  <si>
+    <t>-67139.00</t>
+  </si>
+  <si>
+    <t>-47905.00</t>
+  </si>
+  <si>
+    <t>-23594.00</t>
+  </si>
+  <si>
+    <t>2797.00</t>
+  </si>
+  <si>
+    <t>17952.00</t>
+  </si>
+  <si>
+    <t>41291.00</t>
+  </si>
+  <si>
+    <t>71791.00</t>
+  </si>
+  <si>
+    <t>87836.00</t>
+  </si>
+  <si>
+    <t>108598.00</t>
+  </si>
+  <si>
+    <t>114290.00</t>
+  </si>
+  <si>
+    <t>123570.00</t>
+  </si>
+  <si>
+    <t>135569.00</t>
+  </si>
+  <si>
+    <t>139234.00</t>
+  </si>
+  <si>
+    <t>147554.00</t>
+  </si>
+  <si>
+    <t>157924.00</t>
+  </si>
+  <si>
+    <t>189455.00</t>
+  </si>
+  <si>
+    <t>196430.00</t>
+  </si>
+  <si>
+    <t>209469.00</t>
+  </si>
+  <si>
+    <t>223186.00</t>
+  </si>
+  <si>
+    <t>237389.00</t>
+  </si>
+  <si>
+    <t>247283.00</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080.00</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942.00</t>
+  </si>
+  <si>
+    <t>218942.00</t>
+  </si>
+  <si>
+    <t>218895.00</t>
+  </si>
+  <si>
+    <t>195775.00</t>
+  </si>
+  <si>
+    <t>176775.00</t>
+  </si>
+  <si>
+    <t>126775.00</t>
+  </si>
+  <si>
+    <t>125775.00</t>
+  </si>
+  <si>
+    <t>105775.00</t>
+  </si>
+  <si>
+    <t>104775.00</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>4725.00</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>1953.00</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>1323.00</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>1302.00</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>1000.76</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>5209.00</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>4082.40</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>3045.00</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>3675.00</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>6574.40</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>12210.00</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>1900.30</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>682.50</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>1496.25</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>708.75</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>5220.00</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>10657.50</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>745.50</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>892.50</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>446.25</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>672.00</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>2352.00</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>2478.00</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>3074.40</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2940.00</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>1701.00</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>1023.75</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>12390.00</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>724.50</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>341.25</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2280.60</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>1297.80</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>3049.20</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>441.00</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>266336.30</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>268436.30</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>268676.30</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>271526.30</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>284231.30</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>289691.30</t>
+  </si>
+  <si>
+    <t>5460.00</t>
+  </si>
+  <si>
+    <t>293208.80</t>
+  </si>
+  <si>
+    <t>3517.50</t>
+  </si>
+  <si>
+    <t>295098.80</t>
+  </si>
+  <si>
+    <t>296610.80</t>
+  </si>
+  <si>
+    <t>1512.00</t>
+  </si>
+  <si>
+    <t>297925.70</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>1314.88</t>
+  </si>
+  <si>
+    <t>298597.70</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>716.02</t>
+  </si>
+  <si>
+    <t>299681.70</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>300681.70</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.70</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>309331.70</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>305731.70</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>7724.98</t>
+  </si>
+  <si>
+    <t>304006.70</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.70</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>307706.70</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.70</t>
+  </si>
+  <si>
+    <t>311996.70</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>313296.70</t>
+  </si>
+  <si>
+    <t>314146.70</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>1800.04</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2749.60</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>10237.50</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>10815.00</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>4011.00</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>6804.00</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>122.50</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>960.12</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>3550.40</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>5000.10</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>1732.50</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>529.20</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>5604.90</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>5338.00</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>1029.00</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>1764.00</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>3307.50</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2710.40</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>896.00</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>882.00</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>1207.50</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>262.50</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>5550.00</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>4123.00</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>4150.08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
     <t>2025-03-13</t>
   </si>
   <si>
-    <t>436742.04</t>
-  </si>
-  <si>
-    <t>72275.00</t>
-  </si>
-  <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>-48.00</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068.00</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635.00</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309.00</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000.00</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250.00</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900.00</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630.00</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550.00</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330.00</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118.00</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900.00</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646.00</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232.00</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575.00</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821.00</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730.00</t>
-  </si>
-  <si>
-    <t>43652.00</t>
-  </si>
-  <si>
-    <t>65785.00</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984.00</t>
-  </si>
-  <si>
-    <t>21739.00</t>
-  </si>
-  <si>
-    <t>17620.00</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917.00</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420.00</t>
-  </si>
-  <si>
-    <t>40875.00</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311.00</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880.00</t>
-  </si>
-  <si>
-    <t>17750.00</t>
-  </si>
-  <si>
-    <t>42278.00</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450.00</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465.00</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742.00</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>33390.00</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000.00</t>
-  </si>
-  <si>
-    <t>34780.00</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664.00</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373.00</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>3820.00</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630.00</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000.00</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768.00</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634.00</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960.00</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511.00</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598.00</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010.00</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474.00</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498.00</t>
-  </si>
-  <si>
-    <t>39550.00</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333.00</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460.00</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945.00</t>
-  </si>
-  <si>
-    <t>35000.00</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811.00</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260.00</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000.00</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548.00</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414.00</t>
-  </si>
-  <si>
-    <t>85205.00</t>
-  </si>
-  <si>
-    <t>22948.00</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752.00</t>
-  </si>
-  <si>
-    <t>105819.00</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618.00</t>
-  </si>
-  <si>
-    <t>107210.00</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700.00</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360.00</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194.00</t>
-  </si>
-  <si>
-    <t>64450.00</t>
-  </si>
-  <si>
-    <t>46525.00</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704.00</t>
-  </si>
-  <si>
-    <t>25000.00</t>
-  </si>
-  <si>
-    <t>48657.00</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200.00</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860.00</t>
-  </si>
-  <si>
-    <t>32810.00</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254.00</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431.00</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974.00</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000.00</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533.00</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771.00</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955.00</t>
-  </si>
-  <si>
-    <t>80000.00</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550.00</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136.00</t>
-  </si>
-  <si>
-    <t>58500.00</t>
-  </si>
-  <si>
-    <t>64880.00</t>
-  </si>
-  <si>
-    <t>28560.00</t>
-  </si>
-  <si>
-    <t>49800.00</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215.00</t>
-  </si>
-  <si>
-    <t>194205.00</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050.00</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607.00</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752.00</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920.00</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122.00</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750.00</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600.00</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710.00</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350.00</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250.00</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500.00</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250.00</t>
-  </si>
-  <si>
-    <t>34020.00</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050.00</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150.00</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880.00</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201.00</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550.00</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536.00</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201.00</t>
-  </si>
-  <si>
-    <t>77606.00</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880.00</t>
-  </si>
-  <si>
-    <t>10030.00</t>
-  </si>
-  <si>
-    <t>5434.00</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525.00</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571.00</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474.00</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119.00</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246.00</t>
-  </si>
-  <si>
-    <t>35767.00</t>
-  </si>
-  <si>
-    <t>17714.00</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266.00</t>
-  </si>
-  <si>
-    <t>39178.00</t>
-  </si>
-  <si>
-    <t>25316.00</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987.00</t>
-  </si>
-  <si>
-    <t>21147.00</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900.00</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970.00</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990.00</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860.00</t>
-  </si>
-  <si>
-    <t>47870.00</t>
-  </si>
-  <si>
-    <t>5670.00</t>
-  </si>
-  <si>
-    <t>15335.00</t>
-  </si>
-  <si>
-    <t>91440.00</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040.00</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300.00</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510.00</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350.00</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430.00</t>
-  </si>
-  <si>
-    <t>39740.00</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310.00</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200.00</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200.00</t>
-  </si>
-  <si>
-    <t>33600.00</t>
-  </si>
-  <si>
-    <t>31200.00</t>
-  </si>
-  <si>
-    <t>34240.00</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264.00</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700.00</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540.00</t>
-  </si>
-  <si>
-    <t>41060.00</t>
-  </si>
-  <si>
-    <t>49156.00</t>
-  </si>
-  <si>
-    <t>48114.00</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250.00</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950.00</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000.00</t>
-  </si>
-  <si>
-    <t>118530.00</t>
-  </si>
-  <si>
-    <t>9200.00</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076.00</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364.00</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172.00</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982.00</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905.00</t>
-  </si>
-  <si>
-    <t>121062.00</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358.00</t>
-  </si>
-  <si>
-    <t>117540.00</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935.00</t>
-  </si>
-  <si>
-    <t>96721.00</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244.00</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401.00</t>
-  </si>
-  <si>
-    <t>19234.00</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311.00</t>
-  </si>
-  <si>
-    <t>26391.00</t>
-  </si>
-  <si>
-    <t>15155.00</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339.00</t>
-  </si>
-  <si>
-    <t>30500.00</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045.00</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762.00</t>
-  </si>
-  <si>
-    <t>5692.00</t>
-  </si>
-  <si>
-    <t>9280.00</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999.00</t>
-  </si>
-  <si>
-    <t>3665.00</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320.00</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370.00</t>
-  </si>
-  <si>
-    <t>31531.00</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975.00</t>
-  </si>
-  <si>
-    <t>13039.00</t>
-  </si>
-  <si>
-    <t>13717.00</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203.00</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894.00</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500.00</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649.00</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079.00</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>980.00</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>990.00</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>960.00</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>1520.00</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>2750.00</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>2124.00</t>
-  </si>
-  <si>
-    <t>-132119.00</t>
-  </si>
-  <si>
-    <t>-173419.00</t>
-  </si>
-  <si>
-    <t>-202929.00</t>
-  </si>
-  <si>
-    <t>-216929.00</t>
-  </si>
-  <si>
-    <t>-241279.00</t>
-  </si>
-  <si>
-    <t>-244709.00</t>
-  </si>
-  <si>
-    <t>-284449.00</t>
-  </si>
-  <si>
-    <t>-344449.00</t>
-  </si>
-  <si>
-    <t>-382759.00</t>
-  </si>
-  <si>
-    <t>-407959.00</t>
-  </si>
-  <si>
-    <t>-441959.00</t>
-  </si>
-  <si>
-    <t>-476159.00</t>
-  </si>
-  <si>
-    <t>-509759.00</t>
-  </si>
-  <si>
-    <t>-540959.00</t>
-  </si>
-  <si>
-    <t>-564959.00</t>
-  </si>
-  <si>
-    <t>-599199.00</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749.00</t>
-  </si>
-  <si>
-    <t>-686289.00</t>
-  </si>
-  <si>
-    <t>-727349.00</t>
-  </si>
-  <si>
-    <t>-776505.00</t>
-  </si>
-  <si>
-    <t>-824619.00</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569.00</t>
-  </si>
-  <si>
-    <t>-982569.00</t>
-  </si>
-  <si>
-    <t>-1034569.00</t>
-  </si>
-  <si>
-    <t>-1153099.00</t>
-  </si>
-  <si>
-    <t>-1143899.00</t>
-  </si>
-  <si>
-    <t>-1069823.00</t>
-  </si>
-  <si>
-    <t>-1036459.00</t>
-  </si>
-  <si>
-    <t>-949287.00</t>
-  </si>
-  <si>
-    <t>-908305.00</t>
-  </si>
-  <si>
-    <t>-808305.00</t>
-  </si>
-  <si>
-    <t>-787400.00</t>
-  </si>
-  <si>
-    <t>-666338.00</t>
-  </si>
-  <si>
-    <t>-487980.00</t>
-  </si>
-  <si>
-    <t>-370440.00</t>
-  </si>
-  <si>
-    <t>-211505.00</t>
-  </si>
-  <si>
-    <t>-114784.00</t>
-  </si>
-  <si>
-    <t>-92540.00</t>
-  </si>
-  <si>
-    <t>-67139.00</t>
-  </si>
-  <si>
-    <t>-47905.00</t>
-  </si>
-  <si>
-    <t>-23594.00</t>
-  </si>
-  <si>
-    <t>2797.00</t>
-  </si>
-  <si>
-    <t>17952.00</t>
-  </si>
-  <si>
-    <t>41291.00</t>
-  </si>
-  <si>
-    <t>71791.00</t>
-  </si>
-  <si>
-    <t>87836.00</t>
-  </si>
-  <si>
-    <t>108598.00</t>
-  </si>
-  <si>
-    <t>114290.00</t>
-  </si>
-  <si>
-    <t>123570.00</t>
-  </si>
-  <si>
-    <t>135569.00</t>
-  </si>
-  <si>
-    <t>139234.00</t>
-  </si>
-  <si>
-    <t>147554.00</t>
-  </si>
-  <si>
-    <t>157924.00</t>
-  </si>
-  <si>
-    <t>189455.00</t>
-  </si>
-  <si>
-    <t>196430.00</t>
-  </si>
-  <si>
-    <t>209469.00</t>
-  </si>
-  <si>
-    <t>223186.00</t>
-  </si>
-  <si>
-    <t>237389.00</t>
-  </si>
-  <si>
-    <t>247283.00</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080.00</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942.00</t>
-  </si>
-  <si>
-    <t>218942.00</t>
-  </si>
-  <si>
-    <t>218895.00</t>
-  </si>
-  <si>
-    <t>195775.00</t>
-  </si>
-  <si>
-    <t>176775.00</t>
-  </si>
-  <si>
-    <t>126775.00</t>
-  </si>
-  <si>
-    <t>125775.00</t>
-  </si>
-  <si>
-    <t>105775.00</t>
-  </si>
-  <si>
-    <t>104775.00</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>4725.00</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>4300.00</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>670.00</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>1440.00</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>2200.00</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>2250.00</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>2240.00</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>4200.00</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>1890.00</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>1953.00</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>1323.00</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>1302.00</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>1000.76</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>5250.00</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>5209.00</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>4082.40</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>5400.00</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>1650.00</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>1700.00</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>1040.00</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>3045.00</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>3675.00</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>6574.40</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>3450.00</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>3900.00</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>12210.00</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>1300.00</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>1460.00</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>1900.30</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>682.50</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>1496.25</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>708.75</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>840.00</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>1360.00</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>2300.00</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>2700.00</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>5220.00</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>440.00</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>2960.00</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>10657.50</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>1092.00</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>378.00</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>745.50</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>892.50</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>446.25</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>672.00</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>2352.00</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>1155.00</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>2478.00</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>3600.00</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>1750.00</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>1200.00</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>3074.40</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2940.00</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>1701.00</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>2310.00</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>3150.00</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>1023.75</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>12390.00</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>2205.00</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>724.50</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>341.25</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>2280.60</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>1297.80</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>3049.20</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>861.00</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>441.00</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>920.00</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>320.00</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>6400.00</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>7200.00</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>4800.00</t>
-  </si>
-  <si>
-    <t>266336.30</t>
-  </si>
-  <si>
-    <t>8400.00</t>
-  </si>
-  <si>
-    <t>268436.30</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>2100.00</t>
-  </si>
-  <si>
-    <t>268676.30</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>271526.30</t>
-  </si>
-  <si>
-    <t>2850.00</t>
-  </si>
-  <si>
-    <t>284231.30</t>
-  </si>
-  <si>
-    <t>12705.00</t>
-  </si>
-  <si>
-    <t>289691.30</t>
-  </si>
-  <si>
-    <t>5460.00</t>
-  </si>
-  <si>
-    <t>293208.80</t>
-  </si>
-  <si>
-    <t>3517.50</t>
-  </si>
-  <si>
-    <t>295098.80</t>
-  </si>
-  <si>
-    <t>296610.80</t>
-  </si>
-  <si>
-    <t>1512.00</t>
-  </si>
-  <si>
-    <t>297925.70</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>1314.88</t>
-  </si>
-  <si>
-    <t>298597.70</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>716.02</t>
-  </si>
-  <si>
-    <t>299681.70</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>1800.00</t>
-  </si>
-  <si>
-    <t>300681.70</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.70</t>
-  </si>
-  <si>
-    <t>2800.00</t>
-  </si>
-  <si>
-    <t>309331.70</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>5850.00</t>
-  </si>
-  <si>
-    <t>305731.70</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>7724.98</t>
-  </si>
-  <si>
-    <t>304006.70</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.70</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>307706.70</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.70</t>
-  </si>
-  <si>
-    <t>311996.70</t>
-  </si>
-  <si>
-    <t>2640.00</t>
-  </si>
-  <si>
-    <t>313296.70</t>
-  </si>
-  <si>
-    <t>314146.70</t>
-  </si>
-  <si>
-    <t>850.00</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>1800.04</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>2749.60</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>235.00</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>10237.50</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>10815.00</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>15120.00</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>4011.00</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>6804.00</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>122.50</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>960.12</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>245.00</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>3550.40</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>5000.10</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>1375.00</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>1732.50</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>529.20</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>5604.90</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>5338.00</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>1029.00</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>1764.00</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>3307.50</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>4400.00</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>1850.00</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>1600.00</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>570.00</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>1350.00</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>2710.40</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>896.00</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>4650.00</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>882.00</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>1207.50</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>262.50</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>9900.00</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>5550.00</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>6150.00</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>2150.00</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>370.00</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>3815.00</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>1320.00</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>1150.00</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>1680.00</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>476498.80</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>1883.70</t>
+  </si>
+  <si>
+    <t>477758.80</t>
+  </si>
+  <si>
+    <t>1260.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7288,7 +7357,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13112,6 +13181,206 @@
       </c>
       <c r="F291" t="s">
         <v>889</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>136</v>
+      </c>
+      <c r="B292" t="s">
+        <v>437</v>
+      </c>
+      <c r="C292" t="s">
+        <v>64</v>
+      </c>
+      <c r="D292" t="s">
+        <v>973</v>
+      </c>
+      <c r="E292" t="s">
+        <v>974</v>
+      </c>
+      <c r="F292" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>136</v>
+      </c>
+      <c r="B293" t="s">
+        <v>437</v>
+      </c>
+      <c r="C293" t="s">
+        <v>64</v>
+      </c>
+      <c r="D293" t="s">
+        <v>976</v>
+      </c>
+      <c r="E293" t="s">
+        <v>977</v>
+      </c>
+      <c r="F293" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>136</v>
+      </c>
+      <c r="B294" t="s">
+        <v>437</v>
+      </c>
+      <c r="C294" t="s">
+        <v>64</v>
+      </c>
+      <c r="D294" t="s">
+        <v>979</v>
+      </c>
+      <c r="E294" t="s">
+        <v>977</v>
+      </c>
+      <c r="F294" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>136</v>
+      </c>
+      <c r="B295" t="s">
+        <v>437</v>
+      </c>
+      <c r="C295" t="s">
+        <v>64</v>
+      </c>
+      <c r="D295" t="s">
+        <v>980</v>
+      </c>
+      <c r="E295" t="s">
+        <v>977</v>
+      </c>
+      <c r="F295" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>237</v>
+      </c>
+      <c r="B296" t="s">
+        <v>437</v>
+      </c>
+      <c r="C296" t="s">
+        <v>64</v>
+      </c>
+      <c r="D296" t="s">
+        <v>982</v>
+      </c>
+      <c r="E296" t="s">
+        <v>983</v>
+      </c>
+      <c r="F296" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>237</v>
+      </c>
+      <c r="B297" t="s">
+        <v>437</v>
+      </c>
+      <c r="C297" t="s">
+        <v>64</v>
+      </c>
+      <c r="D297" t="s">
+        <v>984</v>
+      </c>
+      <c r="E297" t="s">
+        <v>983</v>
+      </c>
+      <c r="F297" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>136</v>
+      </c>
+      <c r="B298" t="s">
+        <v>437</v>
+      </c>
+      <c r="C298" t="s">
+        <v>64</v>
+      </c>
+      <c r="D298" t="s">
+        <v>986</v>
+      </c>
+      <c r="E298" t="s">
+        <v>987</v>
+      </c>
+      <c r="F298" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>136</v>
+      </c>
+      <c r="B299" t="s">
+        <v>437</v>
+      </c>
+      <c r="C299" t="s">
+        <v>64</v>
+      </c>
+      <c r="D299" t="s">
+        <v>989</v>
+      </c>
+      <c r="E299" t="s">
+        <v>987</v>
+      </c>
+      <c r="F299" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>136</v>
+      </c>
+      <c r="B300" t="s">
+        <v>437</v>
+      </c>
+      <c r="C300" t="s">
+        <v>64</v>
+      </c>
+      <c r="D300" t="s">
+        <v>991</v>
+      </c>
+      <c r="E300" t="s">
+        <v>992</v>
+      </c>
+      <c r="F300" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>136</v>
+      </c>
+      <c r="B301" t="s">
+        <v>437</v>
+      </c>
+      <c r="C301" t="s">
+        <v>64</v>
+      </c>
+      <c r="D301" t="s">
+        <v>994</v>
+      </c>
+      <c r="E301" t="s">
+        <v>974</v>
+      </c>
+      <c r="F301" t="s">
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -13129,13 +13398,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -13146,13 +13415,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -13163,13 +13432,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -13180,13 +13449,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -13197,13 +13466,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -13214,13 +13483,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -13231,13 +13500,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -13248,13 +13517,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -13265,13 +13534,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -13295,13 +13564,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13310,18 +13579,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>978</v>
+        <v>1001</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13330,18 +13599,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13350,18 +13619,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>980</v>
+        <v>1003</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13370,18 +13639,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13390,18 +13659,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>982</v>
+        <v>1005</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13410,18 +13679,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13430,18 +13699,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13450,12 +13719,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -13470,7 +13739,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1011">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,10 +208,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
-    <t>477758.82</t>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>484358.82</t>
   </si>
   <si>
     <t>72275.00</t>
@@ -3008,6 +3008,15 @@
   </si>
   <si>
     <t>1260.00</t>
+  </si>
+  <si>
+    <t>484358.80</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>6600.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7357,7 +7366,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13381,6 +13390,26 @@
       </c>
       <c r="F301" t="s">
         <v>995</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>136</v>
+      </c>
+      <c r="B302" t="s">
+        <v>437</v>
+      </c>
+      <c r="C302" t="s">
+        <v>64</v>
+      </c>
+      <c r="D302" t="s">
+        <v>996</v>
+      </c>
+      <c r="E302" t="s">
+        <v>997</v>
+      </c>
+      <c r="F302" t="s">
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -13398,13 +13427,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -13415,13 +13444,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -13432,13 +13461,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -13449,13 +13478,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -13466,13 +13495,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -13483,13 +13512,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -13500,13 +13529,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -13517,13 +13546,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -13534,13 +13563,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -13564,13 +13593,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13579,18 +13608,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13599,18 +13628,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13619,18 +13648,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13639,18 +13668,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13659,18 +13688,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13679,18 +13708,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13699,18 +13728,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13719,12 +13748,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -13739,7 +13768,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1021">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,2815 +208,2845 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>505193.82</t>
+  </si>
+  <si>
+    <t>72275.00</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>-48.00</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068.00</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635.00</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309.00</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250.00</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900.00</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630.00</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550.00</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330.00</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118.00</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646.00</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232.00</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575.00</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821.00</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730.00</t>
+  </si>
+  <si>
+    <t>43652.00</t>
+  </si>
+  <si>
+    <t>65785.00</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984.00</t>
+  </si>
+  <si>
+    <t>21739.00</t>
+  </si>
+  <si>
+    <t>17620.00</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917.00</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420.00</t>
+  </si>
+  <si>
+    <t>40875.00</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311.00</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880.00</t>
+  </si>
+  <si>
+    <t>17750.00</t>
+  </si>
+  <si>
+    <t>42278.00</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450.00</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465.00</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742.00</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>33390.00</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>34780.00</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664.00</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373.00</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>3820.00</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768.00</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634.00</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960.00</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511.00</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598.00</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010.00</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474.00</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498.00</t>
+  </si>
+  <si>
+    <t>39550.00</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333.00</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460.00</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811.00</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260.00</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548.00</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414.00</t>
+  </si>
+  <si>
+    <t>85205.00</t>
+  </si>
+  <si>
+    <t>22948.00</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752.00</t>
+  </si>
+  <si>
+    <t>105819.00</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618.00</t>
+  </si>
+  <si>
+    <t>107210.00</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700.00</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360.00</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194.00</t>
+  </si>
+  <si>
+    <t>64450.00</t>
+  </si>
+  <si>
+    <t>46525.00</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>48657.00</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860.00</t>
+  </si>
+  <si>
+    <t>32810.00</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254.00</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431.00</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974.00</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533.00</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771.00</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550.00</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136.00</t>
+  </si>
+  <si>
+    <t>58500.00</t>
+  </si>
+  <si>
+    <t>64880.00</t>
+  </si>
+  <si>
+    <t>28560.00</t>
+  </si>
+  <si>
+    <t>49800.00</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215.00</t>
+  </si>
+  <si>
+    <t>194205.00</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050.00</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607.00</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752.00</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920.00</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122.00</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750.00</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710.00</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350.00</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250.00</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250.00</t>
+  </si>
+  <si>
+    <t>34020.00</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050.00</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150.00</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880.00</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201.00</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550.00</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536.00</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201.00</t>
+  </si>
+  <si>
+    <t>77606.00</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880.00</t>
+  </si>
+  <si>
+    <t>10030.00</t>
+  </si>
+  <si>
+    <t>5434.00</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571.00</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474.00</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119.00</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246.00</t>
+  </si>
+  <si>
+    <t>35767.00</t>
+  </si>
+  <si>
+    <t>17714.00</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266.00</t>
+  </si>
+  <si>
+    <t>39178.00</t>
+  </si>
+  <si>
+    <t>25316.00</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987.00</t>
+  </si>
+  <si>
+    <t>21147.00</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900.00</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970.00</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990.00</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>47870.00</t>
+  </si>
+  <si>
+    <t>5670.00</t>
+  </si>
+  <si>
+    <t>15335.00</t>
+  </si>
+  <si>
+    <t>91440.00</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430.00</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040.00</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510.00</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350.00</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430.00</t>
+  </si>
+  <si>
+    <t>39740.00</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310.00</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>31200.00</t>
+  </si>
+  <si>
+    <t>34240.00</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264.00</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700.00</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540.00</t>
+  </si>
+  <si>
+    <t>41060.00</t>
+  </si>
+  <si>
+    <t>49156.00</t>
+  </si>
+  <si>
+    <t>48114.00</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250.00</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950.00</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>118530.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076.00</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364.00</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172.00</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982.00</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905.00</t>
+  </si>
+  <si>
+    <t>121062.00</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358.00</t>
+  </si>
+  <si>
+    <t>117540.00</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935.00</t>
+  </si>
+  <si>
+    <t>96721.00</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244.00</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401.00</t>
+  </si>
+  <si>
+    <t>19234.00</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311.00</t>
+  </si>
+  <si>
+    <t>26391.00</t>
+  </si>
+  <si>
+    <t>15155.00</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045.00</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762.00</t>
+  </si>
+  <si>
+    <t>5692.00</t>
+  </si>
+  <si>
+    <t>9280.00</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999.00</t>
+  </si>
+  <si>
+    <t>3665.00</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320.00</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370.00</t>
+  </si>
+  <si>
+    <t>31531.00</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975.00</t>
+  </si>
+  <si>
+    <t>13039.00</t>
+  </si>
+  <si>
+    <t>13717.00</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203.00</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894.00</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649.00</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079.00</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2124.00</t>
+  </si>
+  <si>
+    <t>-132119.00</t>
+  </si>
+  <si>
+    <t>-173419.00</t>
+  </si>
+  <si>
+    <t>-202929.00</t>
+  </si>
+  <si>
+    <t>-216929.00</t>
+  </si>
+  <si>
+    <t>-241279.00</t>
+  </si>
+  <si>
+    <t>-244709.00</t>
+  </si>
+  <si>
+    <t>-284449.00</t>
+  </si>
+  <si>
+    <t>-344449.00</t>
+  </si>
+  <si>
+    <t>-382759.00</t>
+  </si>
+  <si>
+    <t>-407959.00</t>
+  </si>
+  <si>
+    <t>-441959.00</t>
+  </si>
+  <si>
+    <t>-476159.00</t>
+  </si>
+  <si>
+    <t>-509759.00</t>
+  </si>
+  <si>
+    <t>-540959.00</t>
+  </si>
+  <si>
+    <t>-564959.00</t>
+  </si>
+  <si>
+    <t>-599199.00</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749.00</t>
+  </si>
+  <si>
+    <t>-686289.00</t>
+  </si>
+  <si>
+    <t>-727349.00</t>
+  </si>
+  <si>
+    <t>-776505.00</t>
+  </si>
+  <si>
+    <t>-824619.00</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569.00</t>
+  </si>
+  <si>
+    <t>-982569.00</t>
+  </si>
+  <si>
+    <t>-1034569.00</t>
+  </si>
+  <si>
+    <t>-1153099.00</t>
+  </si>
+  <si>
+    <t>-1143899.00</t>
+  </si>
+  <si>
+    <t>-1069823.00</t>
+  </si>
+  <si>
+    <t>-1036459.00</t>
+  </si>
+  <si>
+    <t>-949287.00</t>
+  </si>
+  <si>
+    <t>-908305.00</t>
+  </si>
+  <si>
+    <t>-808305.00</t>
+  </si>
+  <si>
+    <t>-787400.00</t>
+  </si>
+  <si>
+    <t>-666338.00</t>
+  </si>
+  <si>
+    <t>-487980.00</t>
+  </si>
+  <si>
+    <t>-370440.00</t>
+  </si>
+  <si>
+    <t>-211505.00</t>
+  </si>
+  <si>
+    <t>-114784.00</t>
+  </si>
+  <si>
+    <t>-92540.00</t>
+  </si>
+  <si>
+    <t>-67139.00</t>
+  </si>
+  <si>
+    <t>-47905.00</t>
+  </si>
+  <si>
+    <t>-23594.00</t>
+  </si>
+  <si>
+    <t>2797.00</t>
+  </si>
+  <si>
+    <t>17952.00</t>
+  </si>
+  <si>
+    <t>41291.00</t>
+  </si>
+  <si>
+    <t>71791.00</t>
+  </si>
+  <si>
+    <t>87836.00</t>
+  </si>
+  <si>
+    <t>108598.00</t>
+  </si>
+  <si>
+    <t>114290.00</t>
+  </si>
+  <si>
+    <t>123570.00</t>
+  </si>
+  <si>
+    <t>135569.00</t>
+  </si>
+  <si>
+    <t>139234.00</t>
+  </si>
+  <si>
+    <t>147554.00</t>
+  </si>
+  <si>
+    <t>157924.00</t>
+  </si>
+  <si>
+    <t>189455.00</t>
+  </si>
+  <si>
+    <t>196430.00</t>
+  </si>
+  <si>
+    <t>209469.00</t>
+  </si>
+  <si>
+    <t>223186.00</t>
+  </si>
+  <si>
+    <t>237389.00</t>
+  </si>
+  <si>
+    <t>247283.00</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080.00</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942.00</t>
+  </si>
+  <si>
+    <t>218942.00</t>
+  </si>
+  <si>
+    <t>218895.00</t>
+  </si>
+  <si>
+    <t>195775.00</t>
+  </si>
+  <si>
+    <t>176775.00</t>
+  </si>
+  <si>
+    <t>126775.00</t>
+  </si>
+  <si>
+    <t>125775.00</t>
+  </si>
+  <si>
+    <t>105775.00</t>
+  </si>
+  <si>
+    <t>104775.00</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>4725.00</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>1953.00</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>1323.00</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>1302.00</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>1000.76</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>5209.00</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>4082.40</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>3045.00</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>3675.00</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>6574.40</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>12210.00</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>1900.30</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>682.50</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>1496.25</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>708.75</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>5220.00</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>10657.50</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>745.50</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>892.50</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>446.25</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>672.00</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>2352.00</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>2478.00</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>3074.40</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2940.00</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>1701.00</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>1023.75</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>12390.00</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>724.50</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>341.25</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2280.60</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>1297.80</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>3049.20</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>441.00</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>266336.30</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>268436.30</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>268676.30</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>271526.30</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>284231.30</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>289691.30</t>
+  </si>
+  <si>
+    <t>5460.00</t>
+  </si>
+  <si>
+    <t>293208.80</t>
+  </si>
+  <si>
+    <t>3517.50</t>
+  </si>
+  <si>
+    <t>295098.80</t>
+  </si>
+  <si>
+    <t>296610.80</t>
+  </si>
+  <si>
+    <t>1512.00</t>
+  </si>
+  <si>
+    <t>297925.70</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>1314.88</t>
+  </si>
+  <si>
+    <t>298597.70</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>716.02</t>
+  </si>
+  <si>
+    <t>299681.70</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>300681.70</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.70</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>309331.70</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>305731.70</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>7724.98</t>
+  </si>
+  <si>
+    <t>304006.70</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.70</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>307706.70</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.70</t>
+  </si>
+  <si>
+    <t>311996.70</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>313296.70</t>
+  </si>
+  <si>
+    <t>314146.70</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>1800.04</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2749.60</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>10237.50</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>10815.00</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>4011.00</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>6804.00</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>122.50</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>960.12</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>3550.40</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>5000.10</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>1732.50</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>529.20</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>5604.90</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>5338.00</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>1029.00</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>1764.00</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>3307.50</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2710.40</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>896.00</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>882.00</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>1207.50</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>262.50</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>5550.00</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>4123.00</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>4150.08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>476498.80</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>1883.70</t>
+  </si>
+  <si>
+    <t>477758.80</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>484358.80</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>488558.80</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.80</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.80</t>
+  </si>
+  <si>
     <t>2025-03-28</t>
   </si>
   <si>
-    <t>484358.82</t>
-  </si>
-  <si>
-    <t>72275.00</t>
-  </si>
-  <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>-48.00</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068.00</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635.00</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309.00</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000.00</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250.00</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900.00</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630.00</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550.00</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330.00</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118.00</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900.00</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646.00</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232.00</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575.00</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821.00</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730.00</t>
-  </si>
-  <si>
-    <t>43652.00</t>
-  </si>
-  <si>
-    <t>65785.00</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984.00</t>
-  </si>
-  <si>
-    <t>21739.00</t>
-  </si>
-  <si>
-    <t>17620.00</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917.00</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420.00</t>
-  </si>
-  <si>
-    <t>40875.00</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311.00</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880.00</t>
-  </si>
-  <si>
-    <t>17750.00</t>
-  </si>
-  <si>
-    <t>42278.00</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450.00</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465.00</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742.00</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>33390.00</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000.00</t>
-  </si>
-  <si>
-    <t>34780.00</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664.00</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373.00</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>3820.00</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630.00</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000.00</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768.00</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634.00</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960.00</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511.00</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598.00</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010.00</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474.00</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498.00</t>
-  </si>
-  <si>
-    <t>39550.00</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333.00</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460.00</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945.00</t>
-  </si>
-  <si>
-    <t>35000.00</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811.00</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260.00</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000.00</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548.00</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414.00</t>
-  </si>
-  <si>
-    <t>85205.00</t>
-  </si>
-  <si>
-    <t>22948.00</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752.00</t>
-  </si>
-  <si>
-    <t>105819.00</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618.00</t>
-  </si>
-  <si>
-    <t>107210.00</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700.00</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360.00</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194.00</t>
-  </si>
-  <si>
-    <t>64450.00</t>
-  </si>
-  <si>
-    <t>46525.00</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704.00</t>
-  </si>
-  <si>
-    <t>25000.00</t>
-  </si>
-  <si>
-    <t>48657.00</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200.00</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860.00</t>
-  </si>
-  <si>
-    <t>32810.00</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254.00</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431.00</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974.00</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000.00</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533.00</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771.00</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955.00</t>
-  </si>
-  <si>
-    <t>80000.00</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550.00</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136.00</t>
-  </si>
-  <si>
-    <t>58500.00</t>
-  </si>
-  <si>
-    <t>64880.00</t>
-  </si>
-  <si>
-    <t>28560.00</t>
-  </si>
-  <si>
-    <t>49800.00</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215.00</t>
-  </si>
-  <si>
-    <t>194205.00</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050.00</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607.00</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752.00</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920.00</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122.00</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750.00</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600.00</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710.00</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350.00</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250.00</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500.00</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250.00</t>
-  </si>
-  <si>
-    <t>34020.00</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050.00</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150.00</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880.00</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201.00</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550.00</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536.00</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201.00</t>
-  </si>
-  <si>
-    <t>77606.00</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880.00</t>
-  </si>
-  <si>
-    <t>10030.00</t>
-  </si>
-  <si>
-    <t>5434.00</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525.00</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571.00</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474.00</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119.00</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246.00</t>
-  </si>
-  <si>
-    <t>35767.00</t>
-  </si>
-  <si>
-    <t>17714.00</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266.00</t>
-  </si>
-  <si>
-    <t>39178.00</t>
-  </si>
-  <si>
-    <t>25316.00</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987.00</t>
-  </si>
-  <si>
-    <t>21147.00</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900.00</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970.00</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990.00</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860.00</t>
-  </si>
-  <si>
-    <t>47870.00</t>
-  </si>
-  <si>
-    <t>5670.00</t>
-  </si>
-  <si>
-    <t>15335.00</t>
-  </si>
-  <si>
-    <t>91440.00</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430.00</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040.00</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300.00</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510.00</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350.00</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430.00</t>
-  </si>
-  <si>
-    <t>39740.00</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310.00</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200.00</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200.00</t>
-  </si>
-  <si>
-    <t>33600.00</t>
-  </si>
-  <si>
-    <t>31200.00</t>
-  </si>
-  <si>
-    <t>34240.00</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264.00</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700.00</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540.00</t>
-  </si>
-  <si>
-    <t>41060.00</t>
-  </si>
-  <si>
-    <t>49156.00</t>
-  </si>
-  <si>
-    <t>48114.00</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250.00</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950.00</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000.00</t>
-  </si>
-  <si>
-    <t>118530.00</t>
-  </si>
-  <si>
-    <t>9200.00</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076.00</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364.00</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172.00</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982.00</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905.00</t>
-  </si>
-  <si>
-    <t>121062.00</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358.00</t>
-  </si>
-  <si>
-    <t>117540.00</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935.00</t>
-  </si>
-  <si>
-    <t>96721.00</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244.00</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401.00</t>
-  </si>
-  <si>
-    <t>19234.00</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311.00</t>
-  </si>
-  <si>
-    <t>26391.00</t>
-  </si>
-  <si>
-    <t>15155.00</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339.00</t>
-  </si>
-  <si>
-    <t>30500.00</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045.00</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762.00</t>
-  </si>
-  <si>
-    <t>5692.00</t>
-  </si>
-  <si>
-    <t>9280.00</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999.00</t>
-  </si>
-  <si>
-    <t>3665.00</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320.00</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370.00</t>
-  </si>
-  <si>
-    <t>31531.00</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975.00</t>
-  </si>
-  <si>
-    <t>13039.00</t>
-  </si>
-  <si>
-    <t>13717.00</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203.00</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894.00</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500.00</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649.00</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079.00</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>980.00</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>990.00</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>960.00</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>1520.00</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>2750.00</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>2124.00</t>
-  </si>
-  <si>
-    <t>-132119.00</t>
-  </si>
-  <si>
-    <t>-173419.00</t>
-  </si>
-  <si>
-    <t>-202929.00</t>
-  </si>
-  <si>
-    <t>-216929.00</t>
-  </si>
-  <si>
-    <t>-241279.00</t>
-  </si>
-  <si>
-    <t>-244709.00</t>
-  </si>
-  <si>
-    <t>-284449.00</t>
-  </si>
-  <si>
-    <t>-344449.00</t>
-  </si>
-  <si>
-    <t>-382759.00</t>
-  </si>
-  <si>
-    <t>-407959.00</t>
-  </si>
-  <si>
-    <t>-441959.00</t>
-  </si>
-  <si>
-    <t>-476159.00</t>
-  </si>
-  <si>
-    <t>-509759.00</t>
-  </si>
-  <si>
-    <t>-540959.00</t>
-  </si>
-  <si>
-    <t>-564959.00</t>
-  </si>
-  <si>
-    <t>-599199.00</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749.00</t>
-  </si>
-  <si>
-    <t>-686289.00</t>
-  </si>
-  <si>
-    <t>-727349.00</t>
-  </si>
-  <si>
-    <t>-776505.00</t>
-  </si>
-  <si>
-    <t>-824619.00</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569.00</t>
-  </si>
-  <si>
-    <t>-982569.00</t>
-  </si>
-  <si>
-    <t>-1034569.00</t>
-  </si>
-  <si>
-    <t>-1153099.00</t>
-  </si>
-  <si>
-    <t>-1143899.00</t>
-  </si>
-  <si>
-    <t>-1069823.00</t>
-  </si>
-  <si>
-    <t>-1036459.00</t>
-  </si>
-  <si>
-    <t>-949287.00</t>
-  </si>
-  <si>
-    <t>-908305.00</t>
-  </si>
-  <si>
-    <t>-808305.00</t>
-  </si>
-  <si>
-    <t>-787400.00</t>
-  </si>
-  <si>
-    <t>-666338.00</t>
-  </si>
-  <si>
-    <t>-487980.00</t>
-  </si>
-  <si>
-    <t>-370440.00</t>
-  </si>
-  <si>
-    <t>-211505.00</t>
-  </si>
-  <si>
-    <t>-114784.00</t>
-  </si>
-  <si>
-    <t>-92540.00</t>
-  </si>
-  <si>
-    <t>-67139.00</t>
-  </si>
-  <si>
-    <t>-47905.00</t>
-  </si>
-  <si>
-    <t>-23594.00</t>
-  </si>
-  <si>
-    <t>2797.00</t>
-  </si>
-  <si>
-    <t>17952.00</t>
-  </si>
-  <si>
-    <t>41291.00</t>
-  </si>
-  <si>
-    <t>71791.00</t>
-  </si>
-  <si>
-    <t>87836.00</t>
-  </si>
-  <si>
-    <t>108598.00</t>
-  </si>
-  <si>
-    <t>114290.00</t>
-  </si>
-  <si>
-    <t>123570.00</t>
-  </si>
-  <si>
-    <t>135569.00</t>
-  </si>
-  <si>
-    <t>139234.00</t>
-  </si>
-  <si>
-    <t>147554.00</t>
-  </si>
-  <si>
-    <t>157924.00</t>
-  </si>
-  <si>
-    <t>189455.00</t>
-  </si>
-  <si>
-    <t>196430.00</t>
-  </si>
-  <si>
-    <t>209469.00</t>
-  </si>
-  <si>
-    <t>223186.00</t>
-  </si>
-  <si>
-    <t>237389.00</t>
-  </si>
-  <si>
-    <t>247283.00</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080.00</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942.00</t>
-  </si>
-  <si>
-    <t>218942.00</t>
-  </si>
-  <si>
-    <t>218895.00</t>
-  </si>
-  <si>
-    <t>195775.00</t>
-  </si>
-  <si>
-    <t>176775.00</t>
-  </si>
-  <si>
-    <t>126775.00</t>
-  </si>
-  <si>
-    <t>125775.00</t>
-  </si>
-  <si>
-    <t>105775.00</t>
-  </si>
-  <si>
-    <t>104775.00</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>4725.00</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>4300.00</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>670.00</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>1440.00</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>2200.00</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>2250.00</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>2240.00</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>4200.00</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>1890.00</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>1953.00</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>1323.00</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>1302.00</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>1000.76</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>5250.00</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>5209.00</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>4082.40</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>5400.00</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>1650.00</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>1700.00</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>1040.00</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>3045.00</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>3675.00</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>6574.40</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>3450.00</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>3900.00</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>12210.00</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>1300.00</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>1460.00</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>1900.30</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>682.50</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>1496.25</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>708.75</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>840.00</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>1360.00</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>2300.00</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>2700.00</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>5220.00</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>440.00</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>2960.00</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>10657.50</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>1092.00</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>378.00</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>745.50</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>892.50</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>446.25</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>672.00</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>2352.00</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>1155.00</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>2478.00</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>3600.00</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>1750.00</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>1200.00</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>3074.40</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2940.00</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>1701.00</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>2310.00</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>3150.00</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>1023.75</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>12390.00</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>2205.00</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>724.50</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>341.25</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>2280.60</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>1297.80</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>3049.20</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>861.00</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>441.00</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>920.00</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>320.00</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>6400.00</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>7200.00</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>4800.00</t>
-  </si>
-  <si>
-    <t>266336.30</t>
-  </si>
-  <si>
-    <t>8400.00</t>
-  </si>
-  <si>
-    <t>268436.30</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>2100.00</t>
-  </si>
-  <si>
-    <t>268676.30</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>271526.30</t>
-  </si>
-  <si>
-    <t>2850.00</t>
-  </si>
-  <si>
-    <t>284231.30</t>
-  </si>
-  <si>
-    <t>12705.00</t>
-  </si>
-  <si>
-    <t>289691.30</t>
-  </si>
-  <si>
-    <t>5460.00</t>
-  </si>
-  <si>
-    <t>293208.80</t>
-  </si>
-  <si>
-    <t>3517.50</t>
-  </si>
-  <si>
-    <t>295098.80</t>
-  </si>
-  <si>
-    <t>296610.80</t>
-  </si>
-  <si>
-    <t>1512.00</t>
-  </si>
-  <si>
-    <t>297925.70</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>1314.88</t>
-  </si>
-  <si>
-    <t>298597.70</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>716.02</t>
-  </si>
-  <si>
-    <t>299681.70</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>1800.00</t>
-  </si>
-  <si>
-    <t>300681.70</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.70</t>
-  </si>
-  <si>
-    <t>2800.00</t>
-  </si>
-  <si>
-    <t>309331.70</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>5850.00</t>
-  </si>
-  <si>
-    <t>305731.70</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>7724.98</t>
-  </si>
-  <si>
-    <t>304006.70</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.70</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>307706.70</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.70</t>
-  </si>
-  <si>
-    <t>311996.70</t>
-  </si>
-  <si>
-    <t>2640.00</t>
-  </si>
-  <si>
-    <t>313296.70</t>
-  </si>
-  <si>
-    <t>314146.70</t>
-  </si>
-  <si>
-    <t>850.00</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>1800.04</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>2749.60</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>235.00</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>10237.50</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>10815.00</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>15120.00</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>4011.00</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>6804.00</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>122.50</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>960.12</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>245.00</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>3550.40</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>5000.10</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>1375.00</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>1732.50</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>529.20</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>5604.90</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>5338.00</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>1029.00</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>1764.00</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>3307.50</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>4400.00</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>1850.00</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>1600.00</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>570.00</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>1350.00</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>2710.40</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>896.00</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>4650.00</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>882.00</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>1207.50</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>262.50</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>9900.00</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>5550.00</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>6150.00</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>2150.00</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>370.00</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>3815.00</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>1320.00</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>1150.00</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>1680.00</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>4123.00</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>4150.08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>950.00</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>3100.00</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>5600.00</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>7950.00</t>
-  </si>
-  <si>
-    <t>476498.80</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>1883.70</t>
-  </si>
-  <si>
-    <t>477758.80</t>
-  </si>
-  <si>
-    <t>1260.00</t>
-  </si>
-  <si>
-    <t>484358.80</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>6600.00</t>
+    <t>3735.00</t>
+  </si>
+  <si>
+    <t>502043.80</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.80</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7366,7 +7396,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13410,6 +13440,106 @@
       </c>
       <c r="F302" t="s">
         <v>998</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>136</v>
+      </c>
+      <c r="B303" t="s">
+        <v>437</v>
+      </c>
+      <c r="C303" t="s">
+        <v>64</v>
+      </c>
+      <c r="D303" t="s">
+        <v>999</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F303" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>136</v>
+      </c>
+      <c r="B304" t="s">
+        <v>437</v>
+      </c>
+      <c r="C304" t="s">
+        <v>64</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F304" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>136</v>
+      </c>
+      <c r="B305" t="s">
+        <v>437</v>
+      </c>
+      <c r="C305" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>136</v>
+      </c>
+      <c r="B306" t="s">
+        <v>437</v>
+      </c>
+      <c r="C306" t="s">
+        <v>64</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F306" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>136</v>
+      </c>
+      <c r="B307" t="s">
+        <v>437</v>
+      </c>
+      <c r="C307" t="s">
+        <v>64</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F307" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -13427,13 +13557,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -13444,13 +13574,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -13461,13 +13591,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -13478,13 +13608,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -13495,13 +13625,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -13512,13 +13642,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -13529,13 +13659,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -13546,13 +13676,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -13563,13 +13693,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -13593,13 +13723,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13608,18 +13738,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13628,18 +13758,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13648,18 +13778,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13668,18 +13798,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13688,18 +13818,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13708,18 +13838,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13728,18 +13858,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13748,12 +13878,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -13768,7 +13898,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1048">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,10 +208,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>505193.82</t>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>545889.64</t>
   </si>
   <si>
     <t>72275.00</t>
@@ -3047,6 +3047,87 @@
   </si>
   <si>
     <t>505193.80</t>
+  </si>
+  <si>
+    <t>506893.80</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.80</t>
+  </si>
+  <si>
+    <t>513383.80</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>4590.00</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2750.48</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>1020.34</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>6375.00</t>
+  </si>
+  <si>
+    <t>524929.60</t>
+  </si>
+  <si>
+    <t>529849.60</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>4920.00</t>
+  </si>
+  <si>
+    <t>536569.60</t>
+  </si>
+  <si>
+    <t>6720.00</t>
+  </si>
+  <si>
+    <t>540469.60</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.60</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>547589.60</t>
+  </si>
+  <si>
+    <t>120.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7396,7 +7477,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13540,6 +13621,246 @@
       </c>
       <c r="F307" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>136</v>
+      </c>
+      <c r="B308" t="s">
+        <v>437</v>
+      </c>
+      <c r="C308" t="s">
+        <v>64</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F308" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>136</v>
+      </c>
+      <c r="B309" t="s">
+        <v>437</v>
+      </c>
+      <c r="C309" t="s">
+        <v>64</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F309" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>136</v>
+      </c>
+      <c r="B310" t="s">
+        <v>437</v>
+      </c>
+      <c r="C310" t="s">
+        <v>64</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>136</v>
+      </c>
+      <c r="B311" t="s">
+        <v>437</v>
+      </c>
+      <c r="C311" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>136</v>
+      </c>
+      <c r="B312" t="s">
+        <v>437</v>
+      </c>
+      <c r="C312" t="s">
+        <v>64</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>136</v>
+      </c>
+      <c r="B313" t="s">
+        <v>437</v>
+      </c>
+      <c r="C313" t="s">
+        <v>64</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>136</v>
+      </c>
+      <c r="B314" t="s">
+        <v>437</v>
+      </c>
+      <c r="C314" t="s">
+        <v>64</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F314" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>136</v>
+      </c>
+      <c r="B315" t="s">
+        <v>437</v>
+      </c>
+      <c r="C315" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>136</v>
+      </c>
+      <c r="B316" t="s">
+        <v>437</v>
+      </c>
+      <c r="C316" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>136</v>
+      </c>
+      <c r="B317" t="s">
+        <v>437</v>
+      </c>
+      <c r="C317" t="s">
+        <v>64</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F317" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>136</v>
+      </c>
+      <c r="B318" t="s">
+        <v>437</v>
+      </c>
+      <c r="C318" t="s">
+        <v>64</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>136</v>
+      </c>
+      <c r="B319" t="s">
+        <v>437</v>
+      </c>
+      <c r="C319" t="s">
+        <v>64</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -13557,13 +13878,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -13574,13 +13895,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -13591,13 +13912,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -13608,13 +13929,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -13625,13 +13946,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -13642,13 +13963,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -13659,13 +13980,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -13676,13 +13997,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -13693,13 +14014,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1011</v>
+        <v>1038</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>1012</v>
+        <v>1039</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -13723,13 +14044,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1013</v>
+        <v>1040</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13738,18 +14059,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1014</v>
+        <v>1041</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13758,18 +14079,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13778,18 +14099,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1016</v>
+        <v>1043</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13798,18 +14119,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1017</v>
+        <v>1044</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13818,18 +14139,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1018</v>
+        <v>1045</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13838,18 +14159,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1019</v>
+        <v>1046</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13858,18 +14179,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1020</v>
+        <v>1047</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13878,12 +14199,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1011</v>
+        <v>1038</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -13898,7 +14219,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>1012</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="1065">
   <si>
     <t>car_insurance</t>
   </si>
@@ -208,10 +208,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>545889.64</t>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>568199.64</t>
   </si>
   <si>
     <t>72275.00</t>
@@ -3128,6 +3128,57 @@
   </si>
   <si>
     <t>120.00</t>
+  </si>
+  <si>
+    <t>548889.60</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.60</t>
+  </si>
+  <si>
+    <t>4320.00</t>
+  </si>
+  <si>
+    <t>558159.60</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>560659.60</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.60</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.60</t>
+  </si>
+  <si>
+    <t>566159.60</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.60</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>3540.00</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7477,7 +7528,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13861,6 +13912,166 @@
       </c>
       <c r="F319" t="s">
         <v>1035</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>136</v>
+      </c>
+      <c r="B320" t="s">
+        <v>437</v>
+      </c>
+      <c r="C320" t="s">
+        <v>64</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F320" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>136</v>
+      </c>
+      <c r="B321" t="s">
+        <v>437</v>
+      </c>
+      <c r="C321" t="s">
+        <v>64</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>136</v>
+      </c>
+      <c r="B322" t="s">
+        <v>437</v>
+      </c>
+      <c r="C322" t="s">
+        <v>64</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>136</v>
+      </c>
+      <c r="B323" t="s">
+        <v>437</v>
+      </c>
+      <c r="C323" t="s">
+        <v>64</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F323" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>136</v>
+      </c>
+      <c r="B324" t="s">
+        <v>437</v>
+      </c>
+      <c r="C324" t="s">
+        <v>64</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F324" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>136</v>
+      </c>
+      <c r="B325" t="s">
+        <v>437</v>
+      </c>
+      <c r="C325" t="s">
+        <v>64</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F325" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>136</v>
+      </c>
+      <c r="B326" t="s">
+        <v>437</v>
+      </c>
+      <c r="C326" t="s">
+        <v>64</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F326" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>136</v>
+      </c>
+      <c r="B327" t="s">
+        <v>437</v>
+      </c>
+      <c r="C327" t="s">
+        <v>64</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -13878,13 +14089,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D1" t="s">
         <v>335</v>
@@ -13895,13 +14106,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>
@@ -13912,13 +14123,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -13929,13 +14140,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D4" t="s">
         <v>335</v>
@@ -13946,13 +14157,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -13963,13 +14174,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -13980,13 +14191,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D7" t="s">
         <v>335</v>
@@ -13997,13 +14208,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="D8" t="s">
         <v>335</v>
@@ -14014,13 +14225,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>1039</v>
+        <v>1056</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -14044,13 +14255,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>1040</v>
+        <v>1057</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14059,18 +14270,18 @@
         <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14079,18 +14290,18 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14099,18 +14310,18 @@
         <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14119,18 +14330,18 @@
         <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14139,18 +14350,18 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14159,18 +14370,18 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14179,18 +14390,18 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14199,12 +14410,12 @@
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -14219,7 +14430,7 @@
         <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>1039</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-06-03</t>
+    <t>2025-06-06</t>
   </si>
   <si>
     <t>643634.989</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="944">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,10 +207,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>643634.989</t>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>654276.989</t>
   </si>
   <si>
     <t>utkarsh</t>
@@ -2797,6 +2797,27 @@
   </si>
   <si>
     <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6461,7 +6482,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12534,6 +12555,91 @@
       </c>
       <c r="E357" t="s">
         <v>913</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>145</v>
+      </c>
+      <c r="B358" t="s">
+        <v>435</v>
+      </c>
+      <c r="C358" t="s">
+        <v>521</v>
+      </c>
+      <c r="D358" t="s">
+        <v>924</v>
+      </c>
+      <c r="E358" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>145</v>
+      </c>
+      <c r="B359" t="s">
+        <v>435</v>
+      </c>
+      <c r="C359" t="s">
+        <v>521</v>
+      </c>
+      <c r="D359" t="s">
+        <v>926</v>
+      </c>
+      <c r="E359" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>145</v>
+      </c>
+      <c r="B360" t="s">
+        <v>435</v>
+      </c>
+      <c r="C360" t="s">
+        <v>521</v>
+      </c>
+      <c r="D360" t="s">
+        <v>928</v>
+      </c>
+      <c r="E360" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>145</v>
+      </c>
+      <c r="B361" t="s">
+        <v>435</v>
+      </c>
+      <c r="C361" t="s">
+        <v>521</v>
+      </c>
+      <c r="D361" t="s">
+        <v>929</v>
+      </c>
+      <c r="E361" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>145</v>
+      </c>
+      <c r="B362" t="s">
+        <v>435</v>
+      </c>
+      <c r="C362" t="s">
+        <v>521</v>
+      </c>
+      <c r="D362" t="s">
+        <v>61</v>
+      </c>
+      <c r="E362" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -12551,13 +12657,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -12565,13 +12671,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -12579,13 +12685,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -12593,13 +12699,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -12607,13 +12713,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -12621,13 +12727,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -12635,13 +12741,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -12649,13 +12755,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -12663,13 +12769,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -12690,13 +12796,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12707,13 +12813,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12724,13 +12830,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -12741,13 +12847,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12758,13 +12864,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12775,13 +12881,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12792,13 +12898,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -12809,13 +12915,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -12826,13 +12932,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="951">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2617 +207,2638 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
     <t>2025-06-16</t>
   </si>
   <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6482,7 +6503,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12636,10 +12657,78 @@
         <v>521</v>
       </c>
       <c r="D362" t="s">
+        <v>930</v>
+      </c>
+      <c r="E362" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>145</v>
+      </c>
+      <c r="B363" t="s">
+        <v>435</v>
+      </c>
+      <c r="C363" t="s">
+        <v>521</v>
+      </c>
+      <c r="D363" t="s">
+        <v>932</v>
+      </c>
+      <c r="E363" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>145</v>
+      </c>
+      <c r="B364" t="s">
+        <v>435</v>
+      </c>
+      <c r="C364" t="s">
+        <v>521</v>
+      </c>
+      <c r="D364" t="s">
+        <v>934</v>
+      </c>
+      <c r="E364" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>145</v>
+      </c>
+      <c r="B365" t="s">
+        <v>435</v>
+      </c>
+      <c r="C365" t="s">
+        <v>521</v>
+      </c>
+      <c r="D365" t="s">
+        <v>936</v>
+      </c>
+      <c r="E365" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>145</v>
+      </c>
+      <c r="B366" t="s">
+        <v>435</v>
+      </c>
+      <c r="C366" t="s">
+        <v>521</v>
+      </c>
+      <c r="D366" t="s">
         <v>61</v>
       </c>
-      <c r="E362" t="s">
-        <v>930</v>
+      <c r="E366" t="s">
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -12657,13 +12746,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -12671,13 +12760,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -12685,13 +12774,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -12699,13 +12788,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -12713,13 +12802,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -12727,13 +12816,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -12741,13 +12830,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -12755,13 +12844,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -12769,13 +12858,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -12796,13 +12885,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12813,13 +12902,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12830,13 +12919,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -12847,13 +12936,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12864,13 +12953,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12881,13 +12970,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12898,13 +12987,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -12915,13 +13004,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -12932,13 +13021,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="956">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2638 +207,2653 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-06-27</t>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
   </si>
   <si>
     <t>662853.4265</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6503,7 +6518,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12725,10 +12740,78 @@
         <v>521</v>
       </c>
       <c r="D366" t="s">
-        <v>61</v>
+        <v>938</v>
       </c>
       <c r="E366" t="s">
         <v>937</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>145</v>
+      </c>
+      <c r="B367" t="s">
+        <v>435</v>
+      </c>
+      <c r="C367" t="s">
+        <v>521</v>
+      </c>
+      <c r="D367" t="s">
+        <v>939</v>
+      </c>
+      <c r="E367" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>145</v>
+      </c>
+      <c r="B368" t="s">
+        <v>435</v>
+      </c>
+      <c r="C368" t="s">
+        <v>521</v>
+      </c>
+      <c r="D368" t="s">
+        <v>940</v>
+      </c>
+      <c r="E368" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>145</v>
+      </c>
+      <c r="B369" t="s">
+        <v>435</v>
+      </c>
+      <c r="C369" t="s">
+        <v>521</v>
+      </c>
+      <c r="D369" t="s">
+        <v>942</v>
+      </c>
+      <c r="E369" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>145</v>
+      </c>
+      <c r="B370" t="s">
+        <v>435</v>
+      </c>
+      <c r="C370" t="s">
+        <v>521</v>
+      </c>
+      <c r="D370" t="s">
+        <v>61</v>
+      </c>
+      <c r="E370" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -12746,13 +12829,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -12760,13 +12843,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -12774,13 +12857,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -12788,13 +12871,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -12802,13 +12885,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -12816,13 +12899,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -12830,13 +12913,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -12844,13 +12927,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -12858,13 +12941,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -12885,13 +12968,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12902,13 +12985,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12919,13 +13002,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -12936,13 +13019,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -12953,13 +13036,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -12970,13 +13053,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -12987,13 +13070,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13004,13 +13087,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13021,13 +13104,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="964">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2653 +207,2677 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-06-28</t>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
   </si>
   <si>
     <t>669073.6765</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6518,7 +6542,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12808,10 +12832,112 @@
         <v>521</v>
       </c>
       <c r="D370" t="s">
-        <v>61</v>
+        <v>943</v>
       </c>
       <c r="E370" t="s">
         <v>941</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>145</v>
+      </c>
+      <c r="B371" t="s">
+        <v>435</v>
+      </c>
+      <c r="C371" t="s">
+        <v>521</v>
+      </c>
+      <c r="D371" t="s">
+        <v>944</v>
+      </c>
+      <c r="E371" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>145</v>
+      </c>
+      <c r="B372" t="s">
+        <v>435</v>
+      </c>
+      <c r="C372" t="s">
+        <v>521</v>
+      </c>
+      <c r="D372" t="s">
+        <v>946</v>
+      </c>
+      <c r="E372" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>145</v>
+      </c>
+      <c r="B373" t="s">
+        <v>435</v>
+      </c>
+      <c r="C373" t="s">
+        <v>521</v>
+      </c>
+      <c r="D373" t="s">
+        <v>947</v>
+      </c>
+      <c r="E373" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>145</v>
+      </c>
+      <c r="B374" t="s">
+        <v>435</v>
+      </c>
+      <c r="C374" t="s">
+        <v>521</v>
+      </c>
+      <c r="D374" t="s">
+        <v>948</v>
+      </c>
+      <c r="E374" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>145</v>
+      </c>
+      <c r="B375" t="s">
+        <v>435</v>
+      </c>
+      <c r="C375" t="s">
+        <v>521</v>
+      </c>
+      <c r="D375" t="s">
+        <v>950</v>
+      </c>
+      <c r="E375" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>145</v>
+      </c>
+      <c r="B376" t="s">
+        <v>435</v>
+      </c>
+      <c r="C376" t="s">
+        <v>521</v>
+      </c>
+      <c r="D376" t="s">
+        <v>61</v>
+      </c>
+      <c r="E376" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -12829,13 +12955,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -12843,13 +12969,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -12857,13 +12983,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -12871,13 +12997,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -12885,13 +13011,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -12899,13 +13025,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -12913,13 +13039,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -12927,13 +13053,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -12941,13 +13067,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -12968,13 +13094,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12985,13 +13111,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13002,13 +13128,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13019,13 +13145,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13036,13 +13162,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13053,13 +13179,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13070,13 +13196,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13087,13 +13213,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13104,13 +13230,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="991">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2677 +207,2758 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-07-01</t>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
   </si>
   <si>
     <t>675256.1265</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6542,7 +6623,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E376"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12934,10 +13015,350 @@
         <v>521</v>
       </c>
       <c r="D376" t="s">
-        <v>61</v>
+        <v>951</v>
       </c>
       <c r="E376" t="s">
         <v>949</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>145</v>
+      </c>
+      <c r="B377" t="s">
+        <v>435</v>
+      </c>
+      <c r="C377" t="s">
+        <v>521</v>
+      </c>
+      <c r="D377" t="s">
+        <v>952</v>
+      </c>
+      <c r="E377" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>145</v>
+      </c>
+      <c r="B378" t="s">
+        <v>435</v>
+      </c>
+      <c r="C378" t="s">
+        <v>521</v>
+      </c>
+      <c r="D378" t="s">
+        <v>954</v>
+      </c>
+      <c r="E378" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>145</v>
+      </c>
+      <c r="B379" t="s">
+        <v>435</v>
+      </c>
+      <c r="C379" t="s">
+        <v>521</v>
+      </c>
+      <c r="D379" t="s">
+        <v>955</v>
+      </c>
+      <c r="E379" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>145</v>
+      </c>
+      <c r="B380" t="s">
+        <v>435</v>
+      </c>
+      <c r="C380" t="s">
+        <v>521</v>
+      </c>
+      <c r="D380" t="s">
+        <v>956</v>
+      </c>
+      <c r="E380" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>145</v>
+      </c>
+      <c r="B381" t="s">
+        <v>435</v>
+      </c>
+      <c r="C381" t="s">
+        <v>521</v>
+      </c>
+      <c r="D381" t="s">
+        <v>957</v>
+      </c>
+      <c r="E381" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>145</v>
+      </c>
+      <c r="B382" t="s">
+        <v>435</v>
+      </c>
+      <c r="C382" t="s">
+        <v>521</v>
+      </c>
+      <c r="D382" t="s">
+        <v>959</v>
+      </c>
+      <c r="E382" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>145</v>
+      </c>
+      <c r="B383" t="s">
+        <v>435</v>
+      </c>
+      <c r="C383" t="s">
+        <v>521</v>
+      </c>
+      <c r="D383" t="s">
+        <v>961</v>
+      </c>
+      <c r="E383" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>145</v>
+      </c>
+      <c r="B384" t="s">
+        <v>435</v>
+      </c>
+      <c r="C384" t="s">
+        <v>521</v>
+      </c>
+      <c r="D384" t="s">
+        <v>962</v>
+      </c>
+      <c r="E384" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>145</v>
+      </c>
+      <c r="B385" t="s">
+        <v>435</v>
+      </c>
+      <c r="C385" t="s">
+        <v>521</v>
+      </c>
+      <c r="D385" t="s">
+        <v>963</v>
+      </c>
+      <c r="E385" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>145</v>
+      </c>
+      <c r="B386" t="s">
+        <v>435</v>
+      </c>
+      <c r="C386" t="s">
+        <v>521</v>
+      </c>
+      <c r="D386" t="s">
+        <v>964</v>
+      </c>
+      <c r="E386" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>145</v>
+      </c>
+      <c r="B387" t="s">
+        <v>435</v>
+      </c>
+      <c r="C387" t="s">
+        <v>521</v>
+      </c>
+      <c r="D387" t="s">
+        <v>966</v>
+      </c>
+      <c r="E387" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>630</v>
+      </c>
+      <c r="B388" t="s">
+        <v>522</v>
+      </c>
+      <c r="C388" t="s">
+        <v>521</v>
+      </c>
+      <c r="D388" t="s">
+        <v>967</v>
+      </c>
+      <c r="E388" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>630</v>
+      </c>
+      <c r="B389" t="s">
+        <v>522</v>
+      </c>
+      <c r="C389" t="s">
+        <v>521</v>
+      </c>
+      <c r="D389" t="s">
+        <v>969</v>
+      </c>
+      <c r="E389" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>145</v>
+      </c>
+      <c r="B390" t="s">
+        <v>435</v>
+      </c>
+      <c r="C390" t="s">
+        <v>521</v>
+      </c>
+      <c r="D390" t="s">
+        <v>970</v>
+      </c>
+      <c r="E390" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>145</v>
+      </c>
+      <c r="B391" t="s">
+        <v>435</v>
+      </c>
+      <c r="C391" t="s">
+        <v>521</v>
+      </c>
+      <c r="D391" t="s">
+        <v>971</v>
+      </c>
+      <c r="E391" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>145</v>
+      </c>
+      <c r="B392" t="s">
+        <v>435</v>
+      </c>
+      <c r="C392" t="s">
+        <v>521</v>
+      </c>
+      <c r="D392" t="s">
+        <v>972</v>
+      </c>
+      <c r="E392" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>145</v>
+      </c>
+      <c r="B393" t="s">
+        <v>435</v>
+      </c>
+      <c r="C393" t="s">
+        <v>521</v>
+      </c>
+      <c r="D393" t="s">
+        <v>974</v>
+      </c>
+      <c r="E393" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>145</v>
+      </c>
+      <c r="B394" t="s">
+        <v>435</v>
+      </c>
+      <c r="C394" t="s">
+        <v>521</v>
+      </c>
+      <c r="D394" t="s">
+        <v>975</v>
+      </c>
+      <c r="E394" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>145</v>
+      </c>
+      <c r="B395" t="s">
+        <v>435</v>
+      </c>
+      <c r="C395" t="s">
+        <v>521</v>
+      </c>
+      <c r="D395" t="s">
+        <v>976</v>
+      </c>
+      <c r="E395" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>145</v>
+      </c>
+      <c r="B396" t="s">
+        <v>435</v>
+      </c>
+      <c r="C396" t="s">
+        <v>521</v>
+      </c>
+      <c r="D396" t="s">
+        <v>61</v>
+      </c>
+      <c r="E396" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -12955,13 +13376,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -12969,13 +13390,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -12983,13 +13404,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -12997,13 +13418,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -13011,13 +13432,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -13025,13 +13446,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -13039,13 +13460,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -13053,13 +13474,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -13067,13 +13488,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>954</v>
+        <v>981</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -13094,13 +13515,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13111,13 +13532,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13128,13 +13549,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13145,13 +13566,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13162,13 +13583,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13179,13 +13600,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13196,13 +13617,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13213,13 +13634,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>962</v>
+        <v>989</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13230,13 +13651,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="998">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2758 +207,2779 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-07-22</t>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
   </si>
   <si>
     <t>705218.311458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6623,7 +6644,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13355,10 +13376,78 @@
         <v>521</v>
       </c>
       <c r="D396" t="s">
-        <v>61</v>
+        <v>978</v>
       </c>
       <c r="E396" t="s">
         <v>977</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>145</v>
+      </c>
+      <c r="B397" t="s">
+        <v>435</v>
+      </c>
+      <c r="C397" t="s">
+        <v>521</v>
+      </c>
+      <c r="D397" t="s">
+        <v>979</v>
+      </c>
+      <c r="E397" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>145</v>
+      </c>
+      <c r="B398" t="s">
+        <v>435</v>
+      </c>
+      <c r="C398" t="s">
+        <v>521</v>
+      </c>
+      <c r="D398" t="s">
+        <v>981</v>
+      </c>
+      <c r="E398" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>145</v>
+      </c>
+      <c r="B399" t="s">
+        <v>435</v>
+      </c>
+      <c r="C399" t="s">
+        <v>521</v>
+      </c>
+      <c r="D399" t="s">
+        <v>983</v>
+      </c>
+      <c r="E399" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>145</v>
+      </c>
+      <c r="B400" t="s">
+        <v>435</v>
+      </c>
+      <c r="C400" t="s">
+        <v>521</v>
+      </c>
+      <c r="D400" t="s">
+        <v>61</v>
+      </c>
+      <c r="E400" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -13376,13 +13465,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -13390,13 +13479,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -13404,13 +13493,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -13418,13 +13507,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -13432,13 +13521,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -13446,13 +13535,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -13460,13 +13549,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -13474,13 +13563,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -13488,13 +13577,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -13515,13 +13604,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13532,13 +13621,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13549,13 +13638,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13566,13 +13655,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13583,13 +13672,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13600,13 +13689,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13617,13 +13706,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13634,13 +13723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13651,13 +13740,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1026">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2779 +207,2863 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-07-29</t>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
   </si>
   <si>
     <t>715474.811458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
     <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6644,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E422"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13444,10 +13528,384 @@
         <v>521</v>
       </c>
       <c r="D400" t="s">
+        <v>984</v>
+      </c>
+      <c r="E400" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>145</v>
+      </c>
+      <c r="B401" t="s">
+        <v>435</v>
+      </c>
+      <c r="C401" t="s">
+        <v>521</v>
+      </c>
+      <c r="D401" t="s">
+        <v>986</v>
+      </c>
+      <c r="E401" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>893</v>
+      </c>
+      <c r="B402" t="s">
+        <v>435</v>
+      </c>
+      <c r="C402" t="s">
+        <v>521</v>
+      </c>
+      <c r="D402" t="s">
+        <v>988</v>
+      </c>
+      <c r="E402" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>893</v>
+      </c>
+      <c r="B403" t="s">
+        <v>435</v>
+      </c>
+      <c r="C403" t="s">
+        <v>521</v>
+      </c>
+      <c r="D403" t="s">
+        <v>990</v>
+      </c>
+      <c r="E403" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>893</v>
+      </c>
+      <c r="B404" t="s">
+        <v>435</v>
+      </c>
+      <c r="C404" t="s">
+        <v>521</v>
+      </c>
+      <c r="D404" t="s">
+        <v>991</v>
+      </c>
+      <c r="E404" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>893</v>
+      </c>
+      <c r="B405" t="s">
+        <v>435</v>
+      </c>
+      <c r="C405" t="s">
+        <v>521</v>
+      </c>
+      <c r="D405" t="s">
+        <v>992</v>
+      </c>
+      <c r="E405" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>893</v>
+      </c>
+      <c r="B406" t="s">
+        <v>435</v>
+      </c>
+      <c r="C406" t="s">
+        <v>521</v>
+      </c>
+      <c r="D406" t="s">
+        <v>993</v>
+      </c>
+      <c r="E406" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>893</v>
+      </c>
+      <c r="B407" t="s">
+        <v>435</v>
+      </c>
+      <c r="C407" t="s">
+        <v>521</v>
+      </c>
+      <c r="D407" t="s">
+        <v>994</v>
+      </c>
+      <c r="E407" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>145</v>
+      </c>
+      <c r="B408" t="s">
+        <v>435</v>
+      </c>
+      <c r="C408" t="s">
+        <v>521</v>
+      </c>
+      <c r="D408" t="s">
+        <v>995</v>
+      </c>
+      <c r="E408" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>145</v>
+      </c>
+      <c r="B409" t="s">
+        <v>435</v>
+      </c>
+      <c r="C409" t="s">
+        <v>521</v>
+      </c>
+      <c r="D409" t="s">
+        <v>997</v>
+      </c>
+      <c r="E409" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>145</v>
+      </c>
+      <c r="B410" t="s">
+        <v>435</v>
+      </c>
+      <c r="C410" t="s">
+        <v>521</v>
+      </c>
+      <c r="D410" t="s">
+        <v>998</v>
+      </c>
+      <c r="E410" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>145</v>
+      </c>
+      <c r="B411" t="s">
+        <v>435</v>
+      </c>
+      <c r="C411" t="s">
+        <v>521</v>
+      </c>
+      <c r="D411" t="s">
+        <v>999</v>
+      </c>
+      <c r="E411" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>145</v>
+      </c>
+      <c r="B412" t="s">
+        <v>435</v>
+      </c>
+      <c r="C412" t="s">
+        <v>521</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E412" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>145</v>
+      </c>
+      <c r="B413" t="s">
+        <v>435</v>
+      </c>
+      <c r="C413" t="s">
+        <v>521</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E413" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>145</v>
+      </c>
+      <c r="B414" t="s">
+        <v>435</v>
+      </c>
+      <c r="C414" t="s">
+        <v>521</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>145</v>
+      </c>
+      <c r="B415" t="s">
+        <v>435</v>
+      </c>
+      <c r="C415" t="s">
+        <v>521</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>145</v>
+      </c>
+      <c r="B416" t="s">
+        <v>435</v>
+      </c>
+      <c r="C416" t="s">
+        <v>521</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>145</v>
+      </c>
+      <c r="B417" t="s">
+        <v>435</v>
+      </c>
+      <c r="C417" t="s">
+        <v>521</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>145</v>
+      </c>
+      <c r="B418" t="s">
+        <v>435</v>
+      </c>
+      <c r="C418" t="s">
+        <v>521</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>145</v>
+      </c>
+      <c r="B419" t="s">
+        <v>435</v>
+      </c>
+      <c r="C419" t="s">
+        <v>521</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>145</v>
+      </c>
+      <c r="B420" t="s">
+        <v>435</v>
+      </c>
+      <c r="C420" t="s">
+        <v>521</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>145</v>
+      </c>
+      <c r="B421" t="s">
+        <v>435</v>
+      </c>
+      <c r="C421" t="s">
+        <v>521</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>145</v>
+      </c>
+      <c r="B422" t="s">
+        <v>435</v>
+      </c>
+      <c r="C422" t="s">
+        <v>521</v>
+      </c>
+      <c r="D422" t="s">
         <v>61</v>
       </c>
-      <c r="E400" t="s">
-        <v>984</v>
+      <c r="E422" t="s">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -13465,13 +13923,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -13479,13 +13937,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -13493,13 +13951,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -13507,13 +13965,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -13521,13 +13979,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -13535,13 +13993,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -13549,13 +14007,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -13563,13 +14021,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -13577,13 +14035,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -13604,13 +14062,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -13621,13 +14079,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -13638,13 +14096,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -13655,13 +14113,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -13672,13 +14130,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -13689,13 +14147,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -13706,13 +14164,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -13723,13 +14181,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -13740,13 +14198,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="1037">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2863 +207,2896 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-08-26</t>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>812186.581458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
   </si>
   <si>
     <t>808636.981458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
     <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6728,7 +6761,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E422"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13902,10 +13935,146 @@
         <v>521</v>
       </c>
       <c r="D422" t="s">
-        <v>61</v>
+        <v>1012</v>
       </c>
       <c r="E422" t="s">
-        <v>1012</v>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>630</v>
+      </c>
+      <c r="B423" t="s">
+        <v>522</v>
+      </c>
+      <c r="C423" t="s">
+        <v>521</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>145</v>
+      </c>
+      <c r="B424" t="s">
+        <v>435</v>
+      </c>
+      <c r="C424" t="s">
+        <v>521</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>145</v>
+      </c>
+      <c r="B425" t="s">
+        <v>435</v>
+      </c>
+      <c r="C425" t="s">
+        <v>521</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>145</v>
+      </c>
+      <c r="B426" t="s">
+        <v>435</v>
+      </c>
+      <c r="C426" t="s">
+        <v>521</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>145</v>
+      </c>
+      <c r="B427" t="s">
+        <v>435</v>
+      </c>
+      <c r="C427" t="s">
+        <v>521</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>145</v>
+      </c>
+      <c r="B428" t="s">
+        <v>435</v>
+      </c>
+      <c r="C428" t="s">
+        <v>521</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>145</v>
+      </c>
+      <c r="B429" t="s">
+        <v>435</v>
+      </c>
+      <c r="C429" t="s">
+        <v>521</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>145</v>
+      </c>
+      <c r="B430" t="s">
+        <v>435</v>
+      </c>
+      <c r="C430" t="s">
+        <v>521</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -13923,13 +14092,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -13937,13 +14106,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -13951,13 +14120,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -13965,13 +14134,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -13979,13 +14148,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -13993,13 +14162,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -14007,13 +14176,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -14021,13 +14190,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -14035,13 +14204,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -14062,13 +14231,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14079,13 +14248,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14096,13 +14265,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14113,13 +14282,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14130,13 +14299,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14147,13 +14316,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14164,13 +14333,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14181,13 +14350,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14198,13 +14367,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1048">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,10 +207,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
-    <t>812186.581458</t>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
   </si>
   <si>
     <t>utkarsh</t>
@@ -3097,6 +3097,39 @@
   </si>
   <si>
     <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6761,7 +6794,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14075,6 +14108,159 @@
       </c>
       <c r="E430" t="s">
         <v>1019</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>145</v>
+      </c>
+      <c r="B431" t="s">
+        <v>435</v>
+      </c>
+      <c r="C431" t="s">
+        <v>521</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>145</v>
+      </c>
+      <c r="B432" t="s">
+        <v>435</v>
+      </c>
+      <c r="C432" t="s">
+        <v>521</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>145</v>
+      </c>
+      <c r="B433" t="s">
+        <v>435</v>
+      </c>
+      <c r="C433" t="s">
+        <v>521</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>145</v>
+      </c>
+      <c r="B434" t="s">
+        <v>435</v>
+      </c>
+      <c r="C434" t="s">
+        <v>521</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>145</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+      <c r="C435" t="s">
+        <v>521</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>145</v>
+      </c>
+      <c r="B436" t="s">
+        <v>435</v>
+      </c>
+      <c r="C436" t="s">
+        <v>521</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>145</v>
+      </c>
+      <c r="B437" t="s">
+        <v>435</v>
+      </c>
+      <c r="C437" t="s">
+        <v>521</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>145</v>
+      </c>
+      <c r="B438" t="s">
+        <v>435</v>
+      </c>
+      <c r="C438" t="s">
+        <v>521</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>145</v>
+      </c>
+      <c r="B439" t="s">
+        <v>435</v>
+      </c>
+      <c r="C439" t="s">
+        <v>521</v>
+      </c>
+      <c r="D439" t="s">
+        <v>61</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -14092,13 +14278,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -14106,13 +14292,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -14120,13 +14306,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -14134,13 +14320,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -14148,13 +14334,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -14162,13 +14348,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -14176,13 +14362,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -14190,13 +14376,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -14204,13 +14390,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -14231,13 +14417,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14248,13 +14434,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14265,13 +14451,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14282,13 +14468,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14299,13 +14485,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14316,13 +14502,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14333,13 +14519,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14350,13 +14536,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14367,13 +14553,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1051">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2929 +207,2938 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-09-16</t>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
   </si>
   <si>
     <t>839378.709458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6794,7 +6803,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E441"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14257,9 +14266,43 @@
         <v>521</v>
       </c>
       <c r="D439" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>145</v>
+      </c>
+      <c r="B440" t="s">
+        <v>435</v>
+      </c>
+      <c r="C440" t="s">
+        <v>521</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>145</v>
+      </c>
+      <c r="B441" t="s">
+        <v>435</v>
+      </c>
+      <c r="C441" t="s">
+        <v>521</v>
+      </c>
+      <c r="D441" t="s">
         <v>61</v>
       </c>
-      <c r="E439" t="s">
+      <c r="E441" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -14278,13 +14321,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -14292,13 +14335,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -14306,13 +14349,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -14320,13 +14363,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -14334,13 +14377,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -14348,13 +14391,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -14362,13 +14405,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -14376,13 +14419,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -14390,13 +14433,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -14417,13 +14460,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14434,13 +14477,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14451,13 +14494,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14468,13 +14511,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14485,13 +14528,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14502,13 +14545,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14519,13 +14562,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14536,13 +14579,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14553,13 +14596,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1058">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,2938 +207,2959 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-09-23</t>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>851178.709458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6803,7 +6824,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E441"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14300,10 +14321,78 @@
         <v>521</v>
       </c>
       <c r="D441" t="s">
-        <v>61</v>
+        <v>1038</v>
       </c>
       <c r="E441" t="s">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>145</v>
+      </c>
+      <c r="B442" t="s">
+        <v>435</v>
+      </c>
+      <c r="C442" t="s">
+        <v>521</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>145</v>
+      </c>
+      <c r="B443" t="s">
+        <v>435</v>
+      </c>
+      <c r="C443" t="s">
+        <v>521</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>145</v>
+      </c>
+      <c r="B444" t="s">
+        <v>435</v>
+      </c>
+      <c r="C444" t="s">
+        <v>521</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>145</v>
+      </c>
+      <c r="B445" t="s">
+        <v>435</v>
+      </c>
+      <c r="C445" t="s">
+        <v>521</v>
+      </c>
+      <c r="D445" t="s">
+        <v>61</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -14321,13 +14410,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -14335,13 +14424,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -14349,13 +14438,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -14363,13 +14452,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -14377,13 +14466,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -14391,13 +14480,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -14405,13 +14494,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -14419,13 +14508,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -14433,13 +14522,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -14460,13 +14549,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14477,13 +14566,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14494,13 +14583,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14511,13 +14600,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14528,13 +14617,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14545,13 +14634,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14562,13 +14651,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14579,13 +14668,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14596,13 +14685,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-09-30</t>
+    <t>2025-10-22</t>
   </si>
   <si>
     <t>863866.209458</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1086">
   <si>
     <t>car_insurance</t>
   </si>
@@ -210,2956 +210,3040 @@
     <t>2025-10-22</t>
   </si>
   <si>
+    <t>863143.649168</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
     <t>863866.209458</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6824,7 +6908,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E472"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14389,10 +14473,469 @@
         <v>521</v>
       </c>
       <c r="D445" t="s">
-        <v>61</v>
+        <v>1045</v>
       </c>
       <c r="E445" t="s">
         <v>1044</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>690</v>
+      </c>
+      <c r="B446" t="s">
+        <v>522</v>
+      </c>
+      <c r="C446" t="s">
+        <v>521</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>690</v>
+      </c>
+      <c r="B447" t="s">
+        <v>522</v>
+      </c>
+      <c r="C447" t="s">
+        <v>521</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>690</v>
+      </c>
+      <c r="B448" t="s">
+        <v>522</v>
+      </c>
+      <c r="C448" t="s">
+        <v>521</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>690</v>
+      </c>
+      <c r="B449" t="s">
+        <v>522</v>
+      </c>
+      <c r="C449" t="s">
+        <v>521</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>690</v>
+      </c>
+      <c r="B450" t="s">
+        <v>522</v>
+      </c>
+      <c r="C450" t="s">
+        <v>521</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>690</v>
+      </c>
+      <c r="B451" t="s">
+        <v>522</v>
+      </c>
+      <c r="C451" t="s">
+        <v>521</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>690</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C452" t="s">
+        <v>521</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>690</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C453" t="s">
+        <v>521</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>690</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C454" t="s">
+        <v>521</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>690</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C455" t="s">
+        <v>521</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>690</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C456" t="s">
+        <v>521</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>690</v>
+      </c>
+      <c r="B457" t="s">
+        <v>522</v>
+      </c>
+      <c r="C457" t="s">
+        <v>521</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>690</v>
+      </c>
+      <c r="B458" t="s">
+        <v>522</v>
+      </c>
+      <c r="C458" t="s">
+        <v>521</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>690</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C459" t="s">
+        <v>521</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>690</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C460" t="s">
+        <v>521</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>690</v>
+      </c>
+      <c r="B461" t="s">
+        <v>522</v>
+      </c>
+      <c r="C461" t="s">
+        <v>521</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>690</v>
+      </c>
+      <c r="B462" t="s">
+        <v>522</v>
+      </c>
+      <c r="C462" t="s">
+        <v>521</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>690</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C463" t="s">
+        <v>521</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>690</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C464" t="s">
+        <v>521</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>690</v>
+      </c>
+      <c r="B465" t="s">
+        <v>522</v>
+      </c>
+      <c r="C465" t="s">
+        <v>521</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>690</v>
+      </c>
+      <c r="B466" t="s">
+        <v>522</v>
+      </c>
+      <c r="C466" t="s">
+        <v>521</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>690</v>
+      </c>
+      <c r="B467" t="s">
+        <v>522</v>
+      </c>
+      <c r="C467" t="s">
+        <v>521</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>690</v>
+      </c>
+      <c r="B468" t="s">
+        <v>522</v>
+      </c>
+      <c r="C468" t="s">
+        <v>521</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>690</v>
+      </c>
+      <c r="B469" t="s">
+        <v>522</v>
+      </c>
+      <c r="C469" t="s">
+        <v>521</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>690</v>
+      </c>
+      <c r="B470" t="s">
+        <v>522</v>
+      </c>
+      <c r="C470" t="s">
+        <v>521</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>690</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C471" t="s">
+        <v>521</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>690</v>
+      </c>
+      <c r="B472" t="s">
+        <v>522</v>
+      </c>
+      <c r="C472" t="s">
+        <v>521</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -14410,13 +14953,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -14424,13 +14967,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -14438,13 +14981,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -14452,13 +14995,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -14466,13 +15009,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -14480,13 +15023,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -14494,13 +15037,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -14508,13 +15051,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -14522,13 +15065,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -14549,13 +15092,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -14566,13 +15109,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -14583,13 +15126,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -14600,13 +15143,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -14617,13 +15160,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -14634,13 +15177,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -14651,13 +15194,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -14668,13 +15211,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -14685,13 +15228,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="1114">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,10 +207,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
-    <t>863143.649168</t>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
   </si>
   <si>
     <t>utkarsh</t>
@@ -3244,6 +3244,90 @@
   </si>
   <si>
     <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6908,7 +6992,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E472"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14936,6 +15020,380 @@
       </c>
       <c r="E472" t="s">
         <v>1047</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>145</v>
+      </c>
+      <c r="B473" t="s">
+        <v>435</v>
+      </c>
+      <c r="C473" t="s">
+        <v>521</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>145</v>
+      </c>
+      <c r="B474" t="s">
+        <v>435</v>
+      </c>
+      <c r="C474" t="s">
+        <v>521</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>145</v>
+      </c>
+      <c r="B475" t="s">
+        <v>435</v>
+      </c>
+      <c r="C475" t="s">
+        <v>521</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>145</v>
+      </c>
+      <c r="B476" t="s">
+        <v>435</v>
+      </c>
+      <c r="C476" t="s">
+        <v>521</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>145</v>
+      </c>
+      <c r="B477" t="s">
+        <v>435</v>
+      </c>
+      <c r="C477" t="s">
+        <v>521</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>145</v>
+      </c>
+      <c r="B478" t="s">
+        <v>435</v>
+      </c>
+      <c r="C478" t="s">
+        <v>521</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>145</v>
+      </c>
+      <c r="B479" t="s">
+        <v>435</v>
+      </c>
+      <c r="C479" t="s">
+        <v>521</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>145</v>
+      </c>
+      <c r="B480" t="s">
+        <v>435</v>
+      </c>
+      <c r="C480" t="s">
+        <v>521</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>145</v>
+      </c>
+      <c r="B481" t="s">
+        <v>435</v>
+      </c>
+      <c r="C481" t="s">
+        <v>521</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>145</v>
+      </c>
+      <c r="B482" t="s">
+        <v>435</v>
+      </c>
+      <c r="C482" t="s">
+        <v>521</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>145</v>
+      </c>
+      <c r="B483" t="s">
+        <v>435</v>
+      </c>
+      <c r="C483" t="s">
+        <v>521</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>145</v>
+      </c>
+      <c r="B484" t="s">
+        <v>435</v>
+      </c>
+      <c r="C484" t="s">
+        <v>521</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>145</v>
+      </c>
+      <c r="B485" t="s">
+        <v>435</v>
+      </c>
+      <c r="C485" t="s">
+        <v>521</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>145</v>
+      </c>
+      <c r="B486" t="s">
+        <v>435</v>
+      </c>
+      <c r="C486" t="s">
+        <v>521</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>145</v>
+      </c>
+      <c r="B487" t="s">
+        <v>435</v>
+      </c>
+      <c r="C487" t="s">
+        <v>521</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>145</v>
+      </c>
+      <c r="B488" t="s">
+        <v>435</v>
+      </c>
+      <c r="C488" t="s">
+        <v>521</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>145</v>
+      </c>
+      <c r="B489" t="s">
+        <v>435</v>
+      </c>
+      <c r="C489" t="s">
+        <v>521</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>145</v>
+      </c>
+      <c r="B490" t="s">
+        <v>435</v>
+      </c>
+      <c r="C490" t="s">
+        <v>521</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>145</v>
+      </c>
+      <c r="B491" t="s">
+        <v>435</v>
+      </c>
+      <c r="C491" t="s">
+        <v>521</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>145</v>
+      </c>
+      <c r="B492" t="s">
+        <v>435</v>
+      </c>
+      <c r="C492" t="s">
+        <v>521</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>145</v>
+      </c>
+      <c r="B493" t="s">
+        <v>435</v>
+      </c>
+      <c r="C493" t="s">
+        <v>521</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>145</v>
+      </c>
+      <c r="B494" t="s">
+        <v>435</v>
+      </c>
+      <c r="C494" t="s">
+        <v>521</v>
+      </c>
+      <c r="D494" t="s">
+        <v>61</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -14953,13 +15411,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -14967,13 +15425,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -14981,13 +15439,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -14995,13 +15453,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15009,13 +15467,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15023,13 +15481,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15037,13 +15495,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15051,13 +15509,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15065,13 +15523,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15092,13 +15550,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15109,13 +15567,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15126,13 +15584,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15143,13 +15601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15160,13 +15618,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15177,13 +15635,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1082</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15194,13 +15652,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15211,13 +15669,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1084</v>
+        <v>1112</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -15228,13 +15686,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-10-23</t>
+    <t>2025-11-04</t>
   </si>
   <si>
     <t>933215.049168</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1117">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3127 +207,3136 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-11-04</t>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
   </si>
   <si>
     <t>933215.049168</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
   </si>
   <si>
     <t>arpit</t>
@@ -6992,7 +7001,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15390,10 +15399,44 @@
         <v>521</v>
       </c>
       <c r="D494" t="s">
-        <v>61</v>
+        <v>1101</v>
       </c>
       <c r="E494" t="s">
         <v>1097</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>690</v>
+      </c>
+      <c r="B495" t="s">
+        <v>522</v>
+      </c>
+      <c r="C495" t="s">
+        <v>521</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>690</v>
+      </c>
+      <c r="B496" t="s">
+        <v>522</v>
+      </c>
+      <c r="C496" t="s">
+        <v>521</v>
+      </c>
+      <c r="D496" t="s">
+        <v>61</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -15411,13 +15454,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15425,13 +15468,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15439,13 +15482,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15453,13 +15496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15467,13 +15510,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15481,13 +15524,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15495,13 +15538,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15509,13 +15552,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15523,13 +15566,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15550,13 +15593,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15567,13 +15610,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15584,13 +15627,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15601,13 +15644,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15618,13 +15661,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15635,13 +15678,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15652,13 +15695,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15669,13 +15712,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -15686,13 +15729,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1119">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3136 +207,3142 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-11-25</t>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
   </si>
   <si>
     <t>932915.049573</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7001,7 +7007,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15433,10 +15439,27 @@
         <v>521</v>
       </c>
       <c r="D496" t="s">
-        <v>61</v>
+        <v>1104</v>
       </c>
       <c r="E496" t="s">
         <v>1103</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>630</v>
+      </c>
+      <c r="B497" t="s">
+        <v>522</v>
+      </c>
+      <c r="C497" t="s">
+        <v>521</v>
+      </c>
+      <c r="D497" t="s">
+        <v>61</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -15454,13 +15477,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15468,13 +15491,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15482,13 +15505,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15496,13 +15519,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15510,13 +15533,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15524,13 +15547,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15538,13 +15561,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15552,13 +15575,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15566,13 +15589,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15593,13 +15616,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15610,13 +15633,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15627,13 +15650,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15644,13 +15667,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15661,13 +15684,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15678,13 +15701,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15695,13 +15718,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15712,13 +15735,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -15729,13 +15752,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-12-02</t>
+    <t>2025-12-09</t>
   </si>
   <si>
     <t>929045.049573</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1137">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3142 +207,3196 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-12-09</t>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>968078.516863</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
   </si>
   <si>
     <t>929045.049573</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
     <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7007,7 +7061,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15456,10 +15510,197 @@
         <v>521</v>
       </c>
       <c r="D497" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>630</v>
+      </c>
+      <c r="B498" t="s">
+        <v>522</v>
+      </c>
+      <c r="C498" t="s">
+        <v>521</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>690</v>
+      </c>
+      <c r="B499" t="s">
+        <v>522</v>
+      </c>
+      <c r="C499" t="s">
+        <v>521</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>690</v>
+      </c>
+      <c r="B500" t="s">
+        <v>522</v>
+      </c>
+      <c r="C500" t="s">
+        <v>521</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>690</v>
+      </c>
+      <c r="B501" t="s">
+        <v>522</v>
+      </c>
+      <c r="C501" t="s">
+        <v>521</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>145</v>
+      </c>
+      <c r="B502" t="s">
+        <v>435</v>
+      </c>
+      <c r="C502" t="s">
+        <v>521</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>145</v>
+      </c>
+      <c r="B503" t="s">
+        <v>435</v>
+      </c>
+      <c r="C503" t="s">
+        <v>521</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>145</v>
+      </c>
+      <c r="B504" t="s">
+        <v>435</v>
+      </c>
+      <c r="C504" t="s">
+        <v>521</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>145</v>
+      </c>
+      <c r="B505" t="s">
+        <v>435</v>
+      </c>
+      <c r="C505" t="s">
+        <v>521</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>145</v>
+      </c>
+      <c r="B506" t="s">
+        <v>435</v>
+      </c>
+      <c r="C506" t="s">
+        <v>521</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>145</v>
+      </c>
+      <c r="B507" t="s">
+        <v>435</v>
+      </c>
+      <c r="C507" t="s">
+        <v>521</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>145</v>
+      </c>
+      <c r="B508" t="s">
+        <v>435</v>
+      </c>
+      <c r="C508" t="s">
+        <v>521</v>
+      </c>
+      <c r="D508" t="s">
         <v>61</v>
       </c>
-      <c r="E497" t="s">
-        <v>1105</v>
+      <c r="E508" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -15477,13 +15718,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15491,13 +15732,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15505,13 +15746,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15519,13 +15760,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15533,13 +15774,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15547,13 +15788,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15561,13 +15802,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15575,13 +15816,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15589,13 +15830,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15616,13 +15857,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15633,13 +15874,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15650,13 +15891,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15667,13 +15908,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15684,13 +15925,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15701,13 +15942,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15718,13 +15959,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15735,13 +15976,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -15752,13 +15993,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1139">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3196 +207,3202 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2025-12-30</t>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>970670.516863</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
   </si>
   <si>
     <t>968078.516863</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
-    <t>929045.049573</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>927819.048573</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>924819.028263</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>924583.819863</t>
-  </si>
-  <si>
-    <t>924358.216863</t>
-  </si>
-  <si>
-    <t>931318.216863</t>
-  </si>
-  <si>
-    <t>937643.216863</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>939228.716863</t>
-  </si>
-  <si>
-    <t>946486.316863</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>949745.516863</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>962918.816863</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7061,7 +7067,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E509"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15697,10 +15703,27 @@
         <v>521</v>
       </c>
       <c r="D508" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>145</v>
+      </c>
+      <c r="B509" t="s">
+        <v>435</v>
+      </c>
+      <c r="C509" t="s">
+        <v>521</v>
+      </c>
+      <c r="D509" t="s">
         <v>61</v>
       </c>
-      <c r="E508" t="s">
-        <v>1123</v>
+      <c r="E509" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -15718,13 +15741,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15732,13 +15755,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15746,13 +15769,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15760,13 +15783,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15774,13 +15797,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15788,13 +15811,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15802,13 +15825,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15816,13 +15839,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15830,13 +15853,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15857,13 +15880,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15874,13 +15897,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15891,13 +15914,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15908,13 +15931,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15925,13 +15948,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15942,13 +15965,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15959,13 +15982,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15976,13 +15999,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -15993,13 +16016,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="1152">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3202 +207,3241 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-01-06</t>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>1039741.416863</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>968078.516863</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>970670.516863</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
-    <t>929045.049573</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>927819.048573</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>924819.028263</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>924583.819863</t>
-  </si>
-  <si>
-    <t>924358.216863</t>
-  </si>
-  <si>
-    <t>931318.216863</t>
-  </si>
-  <si>
-    <t>937643.216863</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>939228.716863</t>
-  </si>
-  <si>
-    <t>946486.316863</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>949745.516863</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>962918.816863</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>968078.516863</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
     <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>973958.516863</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>980958.516863</t>
+  </si>
+  <si>
+    <t>992358.516863</t>
+  </si>
+  <si>
+    <t>995208.516863</t>
+  </si>
+  <si>
+    <t>998070.516863</t>
+  </si>
+  <si>
+    <t>1005998.016863</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>1009893.516863</t>
+  </si>
+  <si>
+    <t>1015141.416863</t>
+  </si>
+  <si>
+    <t>1033141.416863</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7067,7 +7106,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E509"/>
+  <dimension ref="A1:E519"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15720,10 +15759,180 @@
         <v>521</v>
       </c>
       <c r="D509" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>145</v>
+      </c>
+      <c r="B510" t="s">
+        <v>435</v>
+      </c>
+      <c r="C510" t="s">
+        <v>521</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>145</v>
+      </c>
+      <c r="B511" t="s">
+        <v>435</v>
+      </c>
+      <c r="C511" t="s">
+        <v>521</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>145</v>
+      </c>
+      <c r="B512" t="s">
+        <v>435</v>
+      </c>
+      <c r="C512" t="s">
+        <v>521</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>145</v>
+      </c>
+      <c r="B513" t="s">
+        <v>435</v>
+      </c>
+      <c r="C513" t="s">
+        <v>521</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>145</v>
+      </c>
+      <c r="B514" t="s">
+        <v>435</v>
+      </c>
+      <c r="C514" t="s">
+        <v>521</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>145</v>
+      </c>
+      <c r="B515" t="s">
+        <v>435</v>
+      </c>
+      <c r="C515" t="s">
+        <v>521</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>145</v>
+      </c>
+      <c r="B516" t="s">
+        <v>435</v>
+      </c>
+      <c r="C516" t="s">
+        <v>521</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>145</v>
+      </c>
+      <c r="B517" t="s">
+        <v>435</v>
+      </c>
+      <c r="C517" t="s">
+        <v>521</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>893</v>
+      </c>
+      <c r="B518" t="s">
+        <v>435</v>
+      </c>
+      <c r="C518" t="s">
+        <v>521</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>893</v>
+      </c>
+      <c r="B519" t="s">
+        <v>435</v>
+      </c>
+      <c r="C519" t="s">
+        <v>521</v>
+      </c>
+      <c r="D519" t="s">
         <v>61</v>
       </c>
-      <c r="E509" t="s">
-        <v>1125</v>
+      <c r="E519" t="s">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -15741,13 +15950,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15755,13 +15964,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15769,13 +15978,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15783,13 +15992,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -15797,13 +16006,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -15811,13 +16020,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -15825,13 +16034,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -15839,13 +16048,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -15853,13 +16062,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -15880,13 +16089,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15897,13 +16106,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15914,13 +16123,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -15931,13 +16140,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -15948,13 +16157,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -15965,13 +16174,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -15982,13 +16191,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -15999,13 +16208,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16016,13 +16225,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-01-13</t>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>1039741.416863</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-01-20</t>
+    <t>2026-01-23</t>
   </si>
   <si>
     <t>1039741.416863</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-01-23</t>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>1039741.416863</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -207,7 +207,7 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-01-27</t>
+    <t>2026-01-30</t>
   </si>
   <si>
     <t>1039741.416863</t>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="1162">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3241 +207,3271 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>1062751.416863</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>968078.516863</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>970670.516863</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>973958.516863</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>980958.516863</t>
+  </si>
+  <si>
+    <t>992358.516863</t>
+  </si>
+  <si>
+    <t>995208.516863</t>
+  </si>
+  <si>
+    <t>998070.516863</t>
+  </si>
+  <si>
+    <t>1005998.016863</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>1009893.516863</t>
+  </si>
+  <si>
+    <t>1015141.416863</t>
+  </si>
+  <si>
+    <t>1033141.416863</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>1039741.416863</t>
+  </si>
+  <si>
+    <t>1043041.416863</t>
+  </si>
+  <si>
     <t>2026-01-30</t>
   </si>
   <si>
-    <t>1039741.416863</t>
-  </si>
-  <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
-    <t>929045.049573</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>927819.048573</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>924819.028263</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>924583.819863</t>
-  </si>
-  <si>
-    <t>924358.216863</t>
-  </si>
-  <si>
-    <t>931318.216863</t>
-  </si>
-  <si>
-    <t>937643.216863</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>939228.716863</t>
-  </si>
-  <si>
-    <t>946486.316863</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>949745.516863</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>962918.816863</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>968078.516863</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>970670.516863</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>973958.516863</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>980958.516863</t>
-  </si>
-  <si>
-    <t>992358.516863</t>
-  </si>
-  <si>
-    <t>995208.516863</t>
-  </si>
-  <si>
-    <t>998070.516863</t>
-  </si>
-  <si>
-    <t>1005998.016863</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>1009893.516863</t>
-  </si>
-  <si>
-    <t>1015141.416863</t>
-  </si>
-  <si>
-    <t>1033141.416863</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
+    <t>1045441.416863</t>
+  </si>
+  <si>
+    <t>1049441.416863</t>
+  </si>
+  <si>
+    <t>1052041.416863</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>1055641.416863</t>
+  </si>
+  <si>
+    <t>1058941.416863</t>
+  </si>
+  <si>
+    <t>1062241.416863</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7106,7 +7136,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E519"/>
+  <dimension ref="A1:E527"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15929,10 +15959,146 @@
         <v>521</v>
       </c>
       <c r="D519" t="s">
-        <v>61</v>
+        <v>1139</v>
       </c>
       <c r="E519" t="s">
         <v>1138</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>145</v>
+      </c>
+      <c r="B520" t="s">
+        <v>435</v>
+      </c>
+      <c r="C520" t="s">
+        <v>521</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>145</v>
+      </c>
+      <c r="B521" t="s">
+        <v>435</v>
+      </c>
+      <c r="C521" t="s">
+        <v>521</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>145</v>
+      </c>
+      <c r="B522" t="s">
+        <v>435</v>
+      </c>
+      <c r="C522" t="s">
+        <v>521</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>145</v>
+      </c>
+      <c r="B523" t="s">
+        <v>435</v>
+      </c>
+      <c r="C523" t="s">
+        <v>521</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>145</v>
+      </c>
+      <c r="B524" t="s">
+        <v>435</v>
+      </c>
+      <c r="C524" t="s">
+        <v>521</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>145</v>
+      </c>
+      <c r="B525" t="s">
+        <v>435</v>
+      </c>
+      <c r="C525" t="s">
+        <v>521</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>145</v>
+      </c>
+      <c r="B526" t="s">
+        <v>435</v>
+      </c>
+      <c r="C526" t="s">
+        <v>521</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>145</v>
+      </c>
+      <c r="B527" t="s">
+        <v>435</v>
+      </c>
+      <c r="C527" t="s">
+        <v>521</v>
+      </c>
+      <c r="D527" t="s">
+        <v>61</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -15950,13 +16116,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -15964,13 +16130,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -15978,13 +16144,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -15992,13 +16158,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -16006,13 +16172,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -16020,13 +16186,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -16034,13 +16200,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -16048,13 +16214,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -16062,13 +16228,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -16089,13 +16255,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -16106,13 +16272,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -16123,13 +16289,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -16140,13 +16306,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -16157,13 +16323,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -16174,13 +16340,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -16191,13 +16357,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -16208,13 +16374,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16225,13 +16391,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1179">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3271 +207,3322 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-02-03</t>
+    <t>2026-02-17</t>
+  </si>
+  <si>
+    <t>1093108.066863</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>968078.516863</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>970670.516863</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>973958.516863</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>980958.516863</t>
+  </si>
+  <si>
+    <t>992358.516863</t>
+  </si>
+  <si>
+    <t>995208.516863</t>
+  </si>
+  <si>
+    <t>998070.516863</t>
+  </si>
+  <si>
+    <t>1005998.016863</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>1009893.516863</t>
+  </si>
+  <si>
+    <t>1015141.416863</t>
+  </si>
+  <si>
+    <t>1033141.416863</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>1039741.416863</t>
+  </si>
+  <si>
+    <t>1043041.416863</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>1045441.416863</t>
+  </si>
+  <si>
+    <t>1049441.416863</t>
+  </si>
+  <si>
+    <t>1052041.416863</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>1055641.416863</t>
+  </si>
+  <si>
+    <t>1058941.416863</t>
+  </si>
+  <si>
+    <t>1062241.416863</t>
   </si>
   <si>
     <t>1062751.416863</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
-    <t>929045.049573</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>927819.048573</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>924819.028263</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>924583.819863</t>
-  </si>
-  <si>
-    <t>924358.216863</t>
-  </si>
-  <si>
-    <t>931318.216863</t>
-  </si>
-  <si>
-    <t>937643.216863</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>939228.716863</t>
-  </si>
-  <si>
-    <t>946486.316863</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>949745.516863</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>962918.816863</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>968078.516863</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>970670.516863</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>973958.516863</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>980958.516863</t>
-  </si>
-  <si>
-    <t>992358.516863</t>
-  </si>
-  <si>
-    <t>995208.516863</t>
-  </si>
-  <si>
-    <t>998070.516863</t>
-  </si>
-  <si>
-    <t>1005998.016863</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>1009893.516863</t>
-  </si>
-  <si>
-    <t>1015141.416863</t>
-  </si>
-  <si>
-    <t>1033141.416863</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>1039741.416863</t>
-  </si>
-  <si>
-    <t>1043041.416863</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>1045441.416863</t>
-  </si>
-  <si>
-    <t>1049441.416863</t>
-  </si>
-  <si>
-    <t>1052041.416863</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>1055641.416863</t>
-  </si>
-  <si>
-    <t>1058941.416863</t>
-  </si>
-  <si>
-    <t>1062241.416863</t>
+    <t>1058881.416863</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>1066162.866863</t>
+  </si>
+  <si>
+    <t>1068493.866863</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>1076599.866863</t>
+  </si>
+  <si>
+    <t>1081765.866863</t>
+  </si>
+  <si>
+    <t>1083078.366863</t>
+  </si>
+  <si>
+    <t>1076628.366863</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>bhotika_marketing_group</t>
+  </si>
+  <si>
+    <t>1074228.066863</t>
+  </si>
+  <si>
+    <t>1078428.066863</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>1082628.066863</t>
+  </si>
+  <si>
+    <t>1087828.066863</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7136,7 +7187,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E527"/>
+  <dimension ref="A1:E539"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16095,10 +16146,214 @@
         <v>521</v>
       </c>
       <c r="D527" t="s">
-        <v>61</v>
+        <v>1149</v>
       </c>
       <c r="E527" t="s">
         <v>1145</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>630</v>
+      </c>
+      <c r="B528" t="s">
+        <v>522</v>
+      </c>
+      <c r="C528" t="s">
+        <v>521</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>145</v>
+      </c>
+      <c r="B529" t="s">
+        <v>435</v>
+      </c>
+      <c r="C529" t="s">
+        <v>521</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>893</v>
+      </c>
+      <c r="B530" t="s">
+        <v>435</v>
+      </c>
+      <c r="C530" t="s">
+        <v>521</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>893</v>
+      </c>
+      <c r="B531" t="s">
+        <v>435</v>
+      </c>
+      <c r="C531" t="s">
+        <v>521</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>893</v>
+      </c>
+      <c r="B532" t="s">
+        <v>435</v>
+      </c>
+      <c r="C532" t="s">
+        <v>521</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>893</v>
+      </c>
+      <c r="B533" t="s">
+        <v>435</v>
+      </c>
+      <c r="C533" t="s">
+        <v>521</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>630</v>
+      </c>
+      <c r="B534" t="s">
+        <v>522</v>
+      </c>
+      <c r="C534" t="s">
+        <v>521</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B535" t="s">
+        <v>522</v>
+      </c>
+      <c r="C535" t="s">
+        <v>521</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>145</v>
+      </c>
+      <c r="B536" t="s">
+        <v>435</v>
+      </c>
+      <c r="C536" t="s">
+        <v>521</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>145</v>
+      </c>
+      <c r="B537" t="s">
+        <v>435</v>
+      </c>
+      <c r="C537" t="s">
+        <v>521</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>145</v>
+      </c>
+      <c r="B538" t="s">
+        <v>435</v>
+      </c>
+      <c r="C538" t="s">
+        <v>521</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>145</v>
+      </c>
+      <c r="B539" t="s">
+        <v>435</v>
+      </c>
+      <c r="C539" t="s">
+        <v>521</v>
+      </c>
+      <c r="D539" t="s">
+        <v>61</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -16116,13 +16371,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -16130,13 +16385,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -16144,13 +16399,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -16158,13 +16413,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -16172,13 +16427,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -16186,13 +16441,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -16200,13 +16455,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -16214,13 +16469,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -16228,13 +16483,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -16255,13 +16510,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1153</v>
+        <v>1170</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -16272,13 +16527,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1154</v>
+        <v>1171</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -16289,13 +16544,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1155</v>
+        <v>1172</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -16306,13 +16561,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -16323,13 +16578,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -16340,13 +16595,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1158</v>
+        <v>1175</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -16357,13 +16612,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -16374,13 +16629,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1160</v>
+        <v>1177</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16391,13 +16646,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1161</v>
+        <v>1178</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="1192">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,3322 +207,3361 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-02-17</t>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>1123495.844363</t>
+  </si>
+  <si>
+    <t>utkarsh</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>pick_n_pay_store</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>55635</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>42309</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>deena_nath_and_sons</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>29250</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>gupta_dal_mills</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>21630</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>n_b_traders</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>naman_enterprises</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>raj_shree_distributors</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>ram_niwas_sarveshwar_kumar</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>29646</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>24232</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>parul_traders</t>
+  </si>
+  <si>
+    <t>18821</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>palm_tree_hotel_and_restaurent</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>43652</t>
+  </si>
+  <si>
+    <t>65785</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>55984</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>ganga_traders</t>
+  </si>
+  <si>
+    <t>28917</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>40875</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>25880</t>
+  </si>
+  <si>
+    <t>17750</t>
+  </si>
+  <si>
+    <t>42278</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>sohan_lal_shri_kishan_das</t>
+  </si>
+  <si>
+    <t>22450</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>52465</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>krishna_enterprises</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>33390</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>34780</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>sagar_and_co</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>vinod_kumar_pramod_kumar</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>33768</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>48634</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>78960</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>66511</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>82598</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>29474</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>43498</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>26333</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>amar_distributors</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>26460</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>21945</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>10811</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>22260</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>85205</t>
+  </si>
+  <si>
+    <t>22948</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>125752</t>
+  </si>
+  <si>
+    <t>105819</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>28618</t>
+  </si>
+  <si>
+    <t>107210</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>royal_marketing_group</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>26360</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>242194</t>
+  </si>
+  <si>
+    <t>64450</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>48657</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>26200</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>162431</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>250974</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>15771</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>radhey_dipartmental</t>
+  </si>
+  <si>
+    <t>15955</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>43550</t>
+  </si>
+  <si>
+    <t>maa_ganga_enterprises</t>
+  </si>
+  <si>
+    <t>26136</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>64880</t>
+  </si>
+  <si>
+    <t>28560</t>
+  </si>
+  <si>
+    <t>49800</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>194205</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>56050</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>202607</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>110752</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>148920</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>33750</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>80350</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>44083.39</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>43250</t>
+  </si>
+  <si>
+    <t>34020</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>46050</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>30150</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>26880</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>27201</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>36536</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>28201</t>
+  </si>
+  <si>
+    <t>77606</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>23880</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>5434</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>124571</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>51474</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>51119</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>26246</t>
+  </si>
+  <si>
+    <t>35767</t>
+  </si>
+  <si>
+    <t>17714</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>35266</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>25316</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>21147</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>20900</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>59970</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>47870</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>15335</t>
+  </si>
+  <si>
+    <t>91440</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>17430</t>
+  </si>
+  <si>
+    <t>royal_marketing_company</t>
+  </si>
+  <si>
+    <t>35040</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>29510</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>24350</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>38310</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>31200</t>
+  </si>
+  <si>
+    <t>34240</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>32700</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>54540</t>
+  </si>
+  <si>
+    <t>41060</t>
+  </si>
+  <si>
+    <t>49156</t>
+  </si>
+  <si>
+    <t>48114</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>chanchal_trading_company</t>
+  </si>
+  <si>
+    <t>18250</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>97950</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>118530</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>74076</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>87172</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>40982</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>20905</t>
+  </si>
+  <si>
+    <t>121062</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>178358</t>
+  </si>
+  <si>
+    <t>117540</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>158935</t>
+  </si>
+  <si>
+    <t>96721</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>22244</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>25401</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>15155</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>23339</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>16045</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>20762</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>31531</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>13717</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>14203</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>-79649</t>
+  </si>
+  <si>
+    <t>167596.95</t>
+  </si>
+  <si>
+    <t>-97079</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>168576.95</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>169566.95</t>
+  </si>
+  <si>
+    <t>170526.95</t>
+  </si>
+  <si>
+    <t>172046.95</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>174796.95</t>
+  </si>
+  <si>
+    <t>175046.95</t>
+  </si>
+  <si>
+    <t>177170.95</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>-132119</t>
+  </si>
+  <si>
+    <t>-173419</t>
+  </si>
+  <si>
+    <t>-202929</t>
+  </si>
+  <si>
+    <t>-216929</t>
+  </si>
+  <si>
+    <t>-241279</t>
+  </si>
+  <si>
+    <t>-244709</t>
+  </si>
+  <si>
+    <t>-284449</t>
+  </si>
+  <si>
+    <t>-344449</t>
+  </si>
+  <si>
+    <t>-382759</t>
+  </si>
+  <si>
+    <t>-407959</t>
+  </si>
+  <si>
+    <t>-441959</t>
+  </si>
+  <si>
+    <t>-476159</t>
+  </si>
+  <si>
+    <t>-509759</t>
+  </si>
+  <si>
+    <t>-540959</t>
+  </si>
+  <si>
+    <t>-564959</t>
+  </si>
+  <si>
+    <t>-599199</t>
+  </si>
+  <si>
+    <t>167906.95</t>
+  </si>
+  <si>
+    <t>135206.95</t>
+  </si>
+  <si>
+    <t>-631749</t>
+  </si>
+  <si>
+    <t>-686289</t>
+  </si>
+  <si>
+    <t>-727349</t>
+  </si>
+  <si>
+    <t>-776505</t>
+  </si>
+  <si>
+    <t>-824619</t>
+  </si>
+  <si>
+    <t>116956.95</t>
+  </si>
+  <si>
+    <t>36956.95</t>
+  </si>
+  <si>
+    <t>-922569</t>
+  </si>
+  <si>
+    <t>-982569</t>
+  </si>
+  <si>
+    <t>-1034569</t>
+  </si>
+  <si>
+    <t>-1153099</t>
+  </si>
+  <si>
+    <t>-1143899</t>
+  </si>
+  <si>
+    <t>-1069823</t>
+  </si>
+  <si>
+    <t>-1036459</t>
+  </si>
+  <si>
+    <t>-949287</t>
+  </si>
+  <si>
+    <t>-908305</t>
+  </si>
+  <si>
+    <t>-808305</t>
+  </si>
+  <si>
+    <t>-787400</t>
+  </si>
+  <si>
+    <t>-666338</t>
+  </si>
+  <si>
+    <t>-487980</t>
+  </si>
+  <si>
+    <t>-370440</t>
+  </si>
+  <si>
+    <t>-211505</t>
+  </si>
+  <si>
+    <t>-114784</t>
+  </si>
+  <si>
+    <t>-92540</t>
+  </si>
+  <si>
+    <t>-67139</t>
+  </si>
+  <si>
+    <t>-47905</t>
+  </si>
+  <si>
+    <t>-23594</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>17952</t>
+  </si>
+  <si>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>71791</t>
+  </si>
+  <si>
+    <t>87836</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>114290</t>
+  </si>
+  <si>
+    <t>123570</t>
+  </si>
+  <si>
+    <t>135569</t>
+  </si>
+  <si>
+    <t>139234</t>
+  </si>
+  <si>
+    <t>147554</t>
+  </si>
+  <si>
+    <t>157924</t>
+  </si>
+  <si>
+    <t>189455</t>
+  </si>
+  <si>
+    <t>196430</t>
+  </si>
+  <si>
+    <t>209469</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>237389</t>
+  </si>
+  <si>
+    <t>247283</t>
+  </si>
+  <si>
+    <t>expns</t>
+  </si>
+  <si>
+    <t>246080</t>
+  </si>
+  <si>
+    <t>36956.96</t>
+  </si>
+  <si>
+    <t>238942</t>
+  </si>
+  <si>
+    <t>218942</t>
+  </si>
+  <si>
+    <t>218895</t>
+  </si>
+  <si>
+    <t>195775</t>
+  </si>
+  <si>
+    <t>176775</t>
+  </si>
+  <si>
+    <t>126775</t>
+  </si>
+  <si>
+    <t>125775</t>
+  </si>
+  <si>
+    <t>105775</t>
+  </si>
+  <si>
+    <t>104775</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>32231.96</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>27931.96</t>
+  </si>
+  <si>
+    <t>28281.96</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>28951.96</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>30351.96</t>
+  </si>
+  <si>
+    <t>31791.96</t>
+  </si>
+  <si>
+    <t>33791.96</t>
+  </si>
+  <si>
+    <t>35991.96</t>
+  </si>
+  <si>
+    <t>38241.96</t>
+  </si>
+  <si>
+    <t>40481.96</t>
+  </si>
+  <si>
+    <t>44681.96</t>
+  </si>
+  <si>
+    <t>46571.96</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>48524.96</t>
+  </si>
+  <si>
+    <t>49847.96</t>
+  </si>
+  <si>
+    <t>51149.96</t>
+  </si>
+  <si>
+    <t>52150.72</t>
+  </si>
+  <si>
+    <t>56000.72</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>61209.72</t>
+  </si>
+  <si>
+    <t>65292.12</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>70692.12</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>72342.12</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>74042.12</t>
+  </si>
+  <si>
+    <t>77042.12</t>
+  </si>
+  <si>
+    <t>78082.12</t>
+  </si>
+  <si>
+    <t>81127.12</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>84172.12</t>
+  </si>
+  <si>
+    <t>87847.12</t>
+  </si>
+  <si>
+    <t>94421.52</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>110421.52</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>112821.52</t>
+  </si>
+  <si>
+    <t>116271.52</t>
+  </si>
+  <si>
+    <t>120171.52</t>
+  </si>
+  <si>
+    <t>132381.52</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>133181.52</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>134481.52</t>
+  </si>
+  <si>
+    <t>135941.52</t>
+  </si>
+  <si>
+    <t>134796.81</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>135479.31</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>136975.56</t>
+  </si>
+  <si>
+    <t>137684.31</t>
+  </si>
+  <si>
+    <t>138524.31</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>139364.31</t>
+  </si>
+  <si>
+    <t>140724.31</t>
+  </si>
+  <si>
+    <t>141974.31</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>144274.31</t>
+  </si>
+  <si>
+    <t>146974.31</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>151354.31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>151794.31</t>
+  </si>
+  <si>
+    <t>154754.31</t>
+  </si>
+  <si>
+    <t>156194.31</t>
+  </si>
+  <si>
+    <t>166851.81</t>
+  </si>
+  <si>
+    <t>167943.81</t>
+  </si>
+  <si>
+    <t>168321.81</t>
+  </si>
+  <si>
+    <t>169067.31</t>
+  </si>
+  <si>
+    <t>169959.81</t>
+  </si>
+  <si>
+    <t>170406.06</t>
+  </si>
+  <si>
+    <t>171078.06</t>
+  </si>
+  <si>
+    <t>173430.06</t>
+  </si>
+  <si>
+    <t>174585.06</t>
+  </si>
+  <si>
+    <t>177063.06</t>
+  </si>
+  <si>
+    <t>CITY_TRADERS</t>
+  </si>
+  <si>
+    <t>172570.56</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>174010.56</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>175760.56</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>176960.56</t>
+  </si>
+  <si>
+    <t>179260.56</t>
+  </si>
+  <si>
+    <t>182334.97</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>185274.97</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>186975.97</t>
+  </si>
+  <si>
+    <t>189285.97</t>
+  </si>
+  <si>
+    <t>192285.97</t>
+  </si>
+  <si>
+    <t>195435.97</t>
+  </si>
+  <si>
+    <t>205935.97</t>
+  </si>
+  <si>
+    <t>206959.72</t>
+  </si>
+  <si>
+    <t>219349.72</t>
+  </si>
+  <si>
+    <t>221554.72</t>
+  </si>
+  <si>
+    <t>222279.22</t>
+  </si>
+  <si>
+    <t>222725.47</t>
+  </si>
+  <si>
+    <t>223066.72</t>
+  </si>
+  <si>
+    <t>225347.31</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>223847.31</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>city_traders</t>
+  </si>
+  <si>
+    <t>220247.31</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>221545.11</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>224594.31</t>
+  </si>
+  <si>
+    <t>225455.31</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>225896.31</t>
+  </si>
+  <si>
+    <t>226796.31</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>227716.31</t>
+  </si>
+  <si>
+    <t>228966.31</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>229286.31</t>
+  </si>
+  <si>
+    <t>235286.31</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>238286.31</t>
+  </si>
+  <si>
+    <t>244686.31</t>
+  </si>
+  <si>
+    <t>251886.31</t>
+  </si>
+  <si>
+    <t>253136.31</t>
+  </si>
+  <si>
+    <t>257936.31</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>266336.3</t>
+  </si>
+  <si>
+    <t>268436.3</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>268676.3</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>271526.3</t>
+  </si>
+  <si>
+    <t>284231.3</t>
+  </si>
+  <si>
+    <t>289691.3</t>
+  </si>
+  <si>
+    <t>293208.8</t>
+  </si>
+  <si>
+    <t>295098.8</t>
+  </si>
+  <si>
+    <t>296610.8</t>
+  </si>
+  <si>
+    <t>297925.7</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>298597.7</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>297881.66</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>299681.7</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>300681.7</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>303481.7</t>
+  </si>
+  <si>
+    <t>309331.7</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>305731.7</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>298006.72</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>304006.7</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>306506.7</t>
+  </si>
+  <si>
+    <t>307706.7</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>309356.7</t>
+  </si>
+  <si>
+    <t>311996.7</t>
+  </si>
+  <si>
+    <t>313296.7</t>
+  </si>
+  <si>
+    <t>314146.7</t>
+  </si>
+  <si>
+    <t>dev_goldiee_agency</t>
+  </si>
+  <si>
+    <t>312346.66</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>Bhotika_Marketing_Group</t>
+  </si>
+  <si>
+    <t>309597.06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>311697.06</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>311627.06</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>311557.06</t>
+  </si>
+  <si>
+    <t>311322.06</t>
+  </si>
+  <si>
+    <t>301084.56</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>290269.56</t>
+  </si>
+  <si>
+    <t>275149.56</t>
+  </si>
+  <si>
+    <t>271138.56</t>
+  </si>
+  <si>
+    <t>264334.56</t>
+  </si>
+  <si>
+    <t>264194.56</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>264072.06</t>
+  </si>
+  <si>
+    <t>263837.06</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>263767.06</t>
+  </si>
+  <si>
+    <t>263697.06</t>
+  </si>
+  <si>
+    <t>263627.06</t>
+  </si>
+  <si>
+    <t>263557.06</t>
+  </si>
+  <si>
+    <t>262596.94</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>264496.94</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>265896.94</t>
+  </si>
+  <si>
+    <t>268096.94</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>268346.94</t>
+  </si>
+  <si>
+    <t>271846.94</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>272476.94</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>273106.94</t>
+  </si>
+  <si>
+    <t>273036.94</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>272966.94</t>
+  </si>
+  <si>
+    <t>272721.94</t>
+  </si>
+  <si>
+    <t>272529.94</t>
+  </si>
+  <si>
+    <t>276080.34</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>277880.34</t>
+  </si>
+  <si>
+    <t>280880.34</t>
+  </si>
+  <si>
+    <t>282130.34</t>
+  </si>
+  <si>
+    <t>289630.34</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>294630.44</t>
+  </si>
+  <si>
+    <t>297780.44</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>301230.44</t>
+  </si>
+  <si>
+    <t>306690.44</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>308065.44</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>309797.94</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>310327.12</t>
+  </si>
+  <si>
+    <t>315932.03</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>321270.03</t>
+  </si>
+  <si>
+    <t>316694.12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>318458.12</t>
+  </si>
+  <si>
+    <t>321765.62</t>
+  </si>
+  <si>
+    <t>323970.62</t>
+  </si>
+  <si>
+    <t>328370.62</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>330220.62</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>332120.62</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>334020.62</t>
+  </si>
+  <si>
+    <t>336420.62</t>
+  </si>
+  <si>
+    <t>340320.62</t>
+  </si>
+  <si>
+    <t>341520.62</t>
+  </si>
+  <si>
+    <t>343120.62</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>343690.62</t>
+  </si>
+  <si>
+    <t>345040.62</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>351040.62</t>
+  </si>
+  <si>
+    <t>353751.03</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>354647.03</t>
+  </si>
+  <si>
+    <t>361747.03</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>366397.03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>367279.03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>368161.03</t>
+  </si>
+  <si>
+    <t>369368.53</t>
+  </si>
+  <si>
+    <t>368927.53</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>369452.53</t>
+  </si>
+  <si>
+    <t>369715.03</t>
+  </si>
+  <si>
+    <t>370114.03</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>370555.03</t>
+  </si>
+  <si>
+    <t>404323.03</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>414223.03</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>409873.03</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>416023.03</t>
+  </si>
+  <si>
+    <t>418523.03</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>419923.03</t>
+  </si>
+  <si>
+    <t>420723.03</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>422873.03</t>
+  </si>
+  <si>
+    <t>424773.03</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>425143.03</t>
+  </si>
+  <si>
+    <t>428958.03</t>
+  </si>
+  <si>
+    <t>430278.03</t>
+  </si>
+  <si>
+    <t>431778.03</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>432928.03</t>
+  </si>
+  <si>
+    <t>433298.03</t>
+  </si>
+  <si>
+    <t>434978.03</t>
+  </si>
+  <si>
+    <t>436742.03</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>440865.03</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>445015.12</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>451015.12</t>
+  </si>
+  <si>
+    <t>451965.12</t>
+  </si>
+  <si>
+    <t>457965.12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>461065.12</t>
+  </si>
+  <si>
+    <t>466665.12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>474615.12</t>
+  </si>
+  <si>
+    <t>476498.8</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>477758.8</t>
+  </si>
+  <si>
+    <t>484358.8</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>488558.8</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>495158.8</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>498893.8</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>502043.8</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>505193.8</t>
+  </si>
+  <si>
+    <t>506893.8</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>508793.8</t>
+  </si>
+  <si>
+    <t>513383.8</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>516134.28</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>517154.62</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>523529.62</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>524929.6</t>
+  </si>
+  <si>
+    <t>529849.6</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>536569.6</t>
+  </si>
+  <si>
+    <t>540469.6</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>547469.6</t>
+  </si>
+  <si>
+    <t>547589.6</t>
+  </si>
+  <si>
+    <t>548889.6</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>553209.6</t>
+  </si>
+  <si>
+    <t>558159.6</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>560659.6</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>563159.6</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>564659.6</t>
+  </si>
+  <si>
+    <t>566159.6</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>569699.6</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>574739.6</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>581179.6</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>579209.6</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>577634.6</t>
+  </si>
+  <si>
+    <t>578189</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>578466.2</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>582466.2</t>
+  </si>
+  <si>
+    <t>584966.2</t>
+  </si>
+  <si>
+    <t>588466.2</t>
+  </si>
+  <si>
+    <t>m_l_enterprises</t>
+  </si>
+  <si>
+    <t>598366.2</t>
+  </si>
+  <si>
+    <t>592666.239</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>598666.239</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>604666.239</t>
+  </si>
+  <si>
+    <t>608866.239</t>
+  </si>
+  <si>
+    <t>611566.239</t>
+  </si>
+  <si>
+    <t>613816.239</t>
+  </si>
+  <si>
+    <t>616666.239</t>
+  </si>
+  <si>
+    <t>618786.239</t>
+  </si>
+  <si>
+    <t>620906.239</t>
+  </si>
+  <si>
+    <t>625306.239</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>630506.239</t>
+  </si>
+  <si>
+    <t>633906.239</t>
+  </si>
+  <si>
+    <t>635136.239</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>639556.239</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>640681.239</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>646441.239</t>
+  </si>
+  <si>
+    <t>650101.239</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>650311.239</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>651177.489</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>651754.989</t>
+  </si>
+  <si>
+    <t>646014.989</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>649854.989</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>652854.989</t>
+  </si>
+  <si>
+    <t>653394.989</t>
+  </si>
+  <si>
+    <t>654276.989</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>658276.989</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>658753.4265</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>660953.4265</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>662853.4265</t>
+  </si>
+  <si>
+    <t>663908.6765</t>
+  </si>
+  <si>
+    <t>666008.6765</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>667433.6765</t>
+  </si>
+  <si>
+    <t>669073.6765</t>
+  </si>
+  <si>
+    <t>669146.1265</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>669272.1265</t>
+  </si>
+  <si>
+    <t>669356.1265</t>
+  </si>
+  <si>
+    <t>671156.1265</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>673856.1265</t>
+  </si>
+  <si>
+    <t>675256.1265</t>
+  </si>
+  <si>
+    <t>683806.1265</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>687166.1265</t>
+  </si>
+  <si>
+    <t>689916.1265</t>
+  </si>
+  <si>
+    <t>691316.1265</t>
+  </si>
+  <si>
+    <t>692387.1265</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>692807.1265</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>693707.1265</t>
+  </si>
+  <si>
+    <t>694607.1265</t>
+  </si>
+  <si>
+    <t>695857.1265</t>
+  </si>
+  <si>
+    <t>696407.1265</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>696907.1265</t>
+  </si>
+  <si>
+    <t>692137.1265</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>689917.111458</t>
+  </si>
+  <si>
+    <t>690667.511458</t>
+  </si>
+  <si>
+    <t>690768.311458</t>
+  </si>
+  <si>
+    <t>693768.311458</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>696868.311458</t>
+  </si>
+  <si>
+    <t>699018.311458</t>
+  </si>
+  <si>
+    <t>701298.311458</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>705218.311458</t>
+  </si>
+  <si>
+    <t>705354.811458</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>711554.811458</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>713654.811458</t>
+  </si>
+  <si>
+    <t>715474.811458</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>716646.611458</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>722946.611458</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>727626.611458</t>
+  </si>
+  <si>
+    <t>740226.611458</t>
+  </si>
+  <si>
+    <t>748226.611458</t>
+  </si>
+  <si>
+    <t>752826.611458</t>
+  </si>
+  <si>
+    <t>763326.611458</t>
+  </si>
+  <si>
+    <t>768270.981458</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>769620.981458</t>
+  </si>
+  <si>
+    <t>771120.981458</t>
+  </si>
+  <si>
+    <t>772670.981458</t>
+  </si>
+  <si>
+    <t>774470.981458</t>
+  </si>
+  <si>
+    <t>776670.981458</t>
+  </si>
+  <si>
+    <t>777111.981458</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>784011.981458</t>
+  </si>
+  <si>
+    <t>790011.981458</t>
+  </si>
+  <si>
+    <t>796131.981458</t>
+  </si>
+  <si>
+    <t>805583.981458</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>808833.981458</t>
+  </si>
+  <si>
+    <t>809593.981458</t>
+  </si>
+  <si>
+    <t>806806.981458</t>
+  </si>
+  <si>
+    <t>808636.981458</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>804766.981458</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>1636366.981458</t>
+  </si>
+  <si>
+    <t>1637198.581458</t>
+  </si>
+  <si>
+    <t>1638748.581458</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>1640498.581458</t>
+  </si>
+  <si>
+    <t>1642498.581458</t>
+  </si>
+  <si>
+    <t>1643786.581458</t>
+  </si>
+  <si>
+    <t>1645074.581458</t>
+  </si>
+  <si>
+    <t>817496.581458</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>818289.541458</t>
+  </si>
+  <si>
+    <t>822452.581458</t>
+  </si>
+  <si>
+    <t>822662.149458</t>
+  </si>
+  <si>
+    <t>822916.949458</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>823902.549458</t>
+  </si>
+  <si>
+    <t>830891.349458</t>
+  </si>
+  <si>
+    <t>837161.109458</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>839378.709458</t>
+  </si>
+  <si>
+    <t>848478.709458</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>851178.709458</t>
+  </si>
+  <si>
+    <t>857213.709458</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>861398.709458</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>862212.459458</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>863866.209458</t>
+  </si>
+  <si>
+    <t>863726.208758</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>863656.208408</t>
+  </si>
+  <si>
+    <t>863586.208058</t>
+  </si>
+  <si>
+    <t>863516.207708</t>
+  </si>
+  <si>
+    <t>863281.207208</t>
+  </si>
+  <si>
+    <t>863106.634208</t>
+  </si>
+  <si>
+    <t>del p</t>
+  </si>
+  <si>
+    <t>863421.204908</t>
+  </si>
+  <si>
+    <t>863656.205408</t>
+  </si>
+  <si>
+    <t>863726.205758</t>
+  </si>
+  <si>
+    <t>863796.206108</t>
+  </si>
+  <si>
+    <t>863866.206458</t>
+  </si>
+  <si>
+    <t>863036.630708</t>
+  </si>
+  <si>
+    <t>863001.628958</t>
+  </si>
+  <si>
+    <t>863796.202958</t>
+  </si>
+  <si>
+    <t>862968.294608</t>
+  </si>
+  <si>
+    <t>862901.625908</t>
+  </si>
+  <si>
+    <t>863799.537758</t>
+  </si>
+  <si>
+    <t>862768.632908</t>
+  </si>
+  <si>
+    <t>862702.136408</t>
+  </si>
+  <si>
+    <t>862635.636338</t>
+  </si>
+  <si>
+    <t>862569.136268</t>
+  </si>
+  <si>
+    <t>862345.325618</t>
+  </si>
+  <si>
+    <t>862179.065468</t>
+  </si>
+  <si>
+    <t>863309.906168</t>
+  </si>
+  <si>
+    <t>862012.808468</t>
+  </si>
+  <si>
+    <t>864624.149168</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>865548.149168</t>
+  </si>
+  <si>
+    <t>867973.649168</t>
+  </si>
+  <si>
+    <t>871977.299168</t>
+  </si>
+  <si>
+    <t>873627.299168</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>877587.299168</t>
+  </si>
+  <si>
+    <t>882387.299168</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>886467.299168</t>
+  </si>
+  <si>
+    <t>886967.299168</t>
+  </si>
+  <si>
+    <t>895367.299168</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>895897.549168</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>896475.049168</t>
+  </si>
+  <si>
+    <t>898225.049168</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>902625.049168</t>
+  </si>
+  <si>
+    <t>905825.049168</t>
+  </si>
+  <si>
+    <t>911325.049168</t>
+  </si>
+  <si>
+    <t>915485.049168</t>
+  </si>
+  <si>
+    <t>918235.049168</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>924835.049168</t>
+  </si>
+  <si>
+    <t>927385.049168</t>
+  </si>
+  <si>
+    <t>928985.049168</t>
+  </si>
+  <si>
+    <t>933215.049168</t>
+  </si>
+  <si>
+    <t>933138.859173</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>932915.049573</t>
+  </si>
+  <si>
+    <t>929045.049573</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>927819.048573</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>924819.028263</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>924583.819863</t>
+  </si>
+  <si>
+    <t>924358.216863</t>
+  </si>
+  <si>
+    <t>931318.216863</t>
+  </si>
+  <si>
+    <t>937643.216863</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>939228.716863</t>
+  </si>
+  <si>
+    <t>946486.316863</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>949745.516863</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>962918.816863</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>968078.516863</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>970670.516863</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>973958.516863</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>980958.516863</t>
+  </si>
+  <si>
+    <t>992358.516863</t>
+  </si>
+  <si>
+    <t>995208.516863</t>
+  </si>
+  <si>
+    <t>998070.516863</t>
+  </si>
+  <si>
+    <t>1005998.016863</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>1009893.516863</t>
+  </si>
+  <si>
+    <t>1015141.416863</t>
+  </si>
+  <si>
+    <t>1033141.416863</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>1039741.416863</t>
+  </si>
+  <si>
+    <t>1043041.416863</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>1045441.416863</t>
+  </si>
+  <si>
+    <t>1049441.416863</t>
+  </si>
+  <si>
+    <t>1052041.416863</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>1055641.416863</t>
+  </si>
+  <si>
+    <t>1058941.416863</t>
+  </si>
+  <si>
+    <t>1062241.416863</t>
+  </si>
+  <si>
+    <t>1062751.416863</t>
+  </si>
+  <si>
+    <t>1058881.416863</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>1066162.866863</t>
+  </si>
+  <si>
+    <t>1068493.866863</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>1076599.866863</t>
+  </si>
+  <si>
+    <t>1081765.866863</t>
+  </si>
+  <si>
+    <t>1083078.366863</t>
+  </si>
+  <si>
+    <t>1076628.366863</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>bhotika_marketing_group</t>
+  </si>
+  <si>
+    <t>1074228.066863</t>
+  </si>
+  <si>
+    <t>1078428.066863</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>1082628.066863</t>
+  </si>
+  <si>
+    <t>1087828.066863</t>
   </si>
   <si>
     <t>1093108.066863</t>
   </si>
   <si>
-    <t>utkarsh</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>pick_n_pay_store</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>46068</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>55635</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>42309</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>deena_nath_and_sons</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>29250</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>gupta_dal_mills</t>
-  </si>
-  <si>
-    <t>42900</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>21630</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>n_b_traders</t>
-  </si>
-  <si>
-    <t>10550</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>naman_enterprises</t>
-  </si>
-  <si>
-    <t>15330</t>
-  </si>
-  <si>
-    <t>raj_shree_distributors</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>ram_niwas_sarveshwar_kumar</t>
-  </si>
-  <si>
-    <t>16900</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>24232</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>21575</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>parul_traders</t>
-  </si>
-  <si>
-    <t>18821</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>palm_tree_hotel_and_restaurent</t>
-  </si>
-  <si>
-    <t>10730</t>
-  </si>
-  <si>
-    <t>43652</t>
-  </si>
-  <si>
-    <t>65785</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>55984</t>
-  </si>
-  <si>
-    <t>21739</t>
-  </si>
-  <si>
-    <t>17620</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>ganga_traders</t>
-  </si>
-  <si>
-    <t>28917</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>6420</t>
-  </si>
-  <si>
-    <t>40875</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>25880</t>
-  </si>
-  <si>
-    <t>17750</t>
-  </si>
-  <si>
-    <t>42278</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>sohan_lal_shri_kishan_das</t>
-  </si>
-  <si>
-    <t>22450</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>52465</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>krishna_enterprises</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>33390</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>34780</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>sagar_and_co</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>vinod_kumar_pramod_kumar</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>33768</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>48634</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>78960</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>66511</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>82598</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>40010</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>29474</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>43498</t>
-  </si>
-  <si>
-    <t>39550</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>26333</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>amar_distributors</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>26460</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>21945</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>10811</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>22260</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>2020-11-05</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>2020-10-07</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>85205</t>
-  </si>
-  <si>
-    <t>22948</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>125752</t>
-  </si>
-  <si>
-    <t>105819</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>28618</t>
-  </si>
-  <si>
-    <t>107210</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>royal_marketing_group</t>
-  </si>
-  <si>
-    <t>25700</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-05</t>
-  </si>
-  <si>
-    <t>26360</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>242194</t>
-  </si>
-  <si>
-    <t>64450</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>46704</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>48657</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-  </si>
-  <si>
-    <t>haryana_palace_restaurent_and_bar_pvt_limited</t>
-  </si>
-  <si>
-    <t>6254</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>162431</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>250974</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>16533</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>15771</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>radhey_dipartmental</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>43550</t>
-  </si>
-  <si>
-    <t>maa_ganga_enterprises</t>
-  </si>
-  <si>
-    <t>26136</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>64880</t>
-  </si>
-  <si>
-    <t>28560</t>
-  </si>
-  <si>
-    <t>49800</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>56050</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>202607</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>110752</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>148920</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>31122</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>33750</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>27600</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>102710</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>80350</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>47250</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>44083.39</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>43250</t>
-  </si>
-  <si>
-    <t>34020</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>46050</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>30150</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>26880</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>2021-04-10</t>
-  </si>
-  <si>
-    <t>27201</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>36536</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>28201</t>
-  </si>
-  <si>
-    <t>77606</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>23880</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>5434</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2021-01-03</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>124571</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>51474</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>51119</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>26246</t>
-  </si>
-  <si>
-    <t>35767</t>
-  </si>
-  <si>
-    <t>17714</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>35266</t>
-  </si>
-  <si>
-    <t>39178</t>
-  </si>
-  <si>
-    <t>25316</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>8987</t>
-  </si>
-  <si>
-    <t>21147</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>20900</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>59970</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>54990</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>47870</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>15335</t>
-  </si>
-  <si>
-    <t>91440</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>17430</t>
-  </si>
-  <si>
-    <t>royal_marketing_company</t>
-  </si>
-  <si>
-    <t>35040</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>41300</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>24350</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>39740</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-08-17</t>
-  </si>
-  <si>
-    <t>38310</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>25200</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>34200</t>
-  </si>
-  <si>
-    <t>33600</t>
-  </si>
-  <si>
-    <t>31200</t>
-  </si>
-  <si>
-    <t>34240</t>
-  </si>
-  <si>
-    <t>2021-09-17</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>32700</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>54540</t>
-  </si>
-  <si>
-    <t>41060</t>
-  </si>
-  <si>
-    <t>49156</t>
-  </si>
-  <si>
-    <t>48114</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>chanchal_trading_company</t>
-  </si>
-  <si>
-    <t>18250</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>97950</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>118530</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>74076</t>
-  </si>
-  <si>
-    <t>2021-05-29</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>87172</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>40982</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>20905</t>
-  </si>
-  <si>
-    <t>121062</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>178358</t>
-  </si>
-  <si>
-    <t>117540</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>158935</t>
-  </si>
-  <si>
-    <t>96721</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>25401</t>
-  </si>
-  <si>
-    <t>19234</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>24311</t>
-  </si>
-  <si>
-    <t>26391</t>
-  </si>
-  <si>
-    <t>15155</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>23339</t>
-  </si>
-  <si>
-    <t>30500</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>16045</t>
-  </si>
-  <si>
-    <t>2021-05-22</t>
-  </si>
-  <si>
-    <t>20762</t>
-  </si>
-  <si>
-    <t>5692</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>10370</t>
-  </si>
-  <si>
-    <t>31531</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>13039</t>
-  </si>
-  <si>
-    <t>13717</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>14203</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>2021-10-04</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
-  </si>
-  <si>
-    <t>-79649</t>
-  </si>
-  <si>
-    <t>167596.95</t>
-  </si>
-  <si>
-    <t>-97079</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>168576.95</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>169566.95</t>
-  </si>
-  <si>
-    <t>170526.95</t>
-  </si>
-  <si>
-    <t>172046.95</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>174796.95</t>
-  </si>
-  <si>
-    <t>175046.95</t>
-  </si>
-  <si>
-    <t>177170.95</t>
-  </si>
-  <si>
-    <t>2021-08-19</t>
-  </si>
-  <si>
-    <t>-132119</t>
-  </si>
-  <si>
-    <t>-173419</t>
-  </si>
-  <si>
-    <t>-202929</t>
-  </si>
-  <si>
-    <t>-216929</t>
-  </si>
-  <si>
-    <t>-241279</t>
-  </si>
-  <si>
-    <t>-244709</t>
-  </si>
-  <si>
-    <t>-284449</t>
-  </si>
-  <si>
-    <t>-344449</t>
-  </si>
-  <si>
-    <t>-382759</t>
-  </si>
-  <si>
-    <t>-407959</t>
-  </si>
-  <si>
-    <t>-441959</t>
-  </si>
-  <si>
-    <t>-476159</t>
-  </si>
-  <si>
-    <t>-509759</t>
-  </si>
-  <si>
-    <t>-540959</t>
-  </si>
-  <si>
-    <t>-564959</t>
-  </si>
-  <si>
-    <t>-599199</t>
-  </si>
-  <si>
-    <t>167906.95</t>
-  </si>
-  <si>
-    <t>135206.95</t>
-  </si>
-  <si>
-    <t>-631749</t>
-  </si>
-  <si>
-    <t>-686289</t>
-  </si>
-  <si>
-    <t>-727349</t>
-  </si>
-  <si>
-    <t>-776505</t>
-  </si>
-  <si>
-    <t>-824619</t>
-  </si>
-  <si>
-    <t>116956.95</t>
-  </si>
-  <si>
-    <t>36956.95</t>
-  </si>
-  <si>
-    <t>-922569</t>
-  </si>
-  <si>
-    <t>-982569</t>
-  </si>
-  <si>
-    <t>-1034569</t>
-  </si>
-  <si>
-    <t>-1153099</t>
-  </si>
-  <si>
-    <t>-1143899</t>
-  </si>
-  <si>
-    <t>-1069823</t>
-  </si>
-  <si>
-    <t>-1036459</t>
-  </si>
-  <si>
-    <t>-949287</t>
-  </si>
-  <si>
-    <t>-908305</t>
-  </si>
-  <si>
-    <t>-808305</t>
-  </si>
-  <si>
-    <t>-787400</t>
-  </si>
-  <si>
-    <t>-666338</t>
-  </si>
-  <si>
-    <t>-487980</t>
-  </si>
-  <si>
-    <t>-370440</t>
-  </si>
-  <si>
-    <t>-211505</t>
-  </si>
-  <si>
-    <t>-114784</t>
-  </si>
-  <si>
-    <t>-92540</t>
-  </si>
-  <si>
-    <t>-67139</t>
-  </si>
-  <si>
-    <t>-47905</t>
-  </si>
-  <si>
-    <t>-23594</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>17952</t>
-  </si>
-  <si>
-    <t>41291</t>
-  </si>
-  <si>
-    <t>71791</t>
-  </si>
-  <si>
-    <t>87836</t>
-  </si>
-  <si>
-    <t>108598</t>
-  </si>
-  <si>
-    <t>114290</t>
-  </si>
-  <si>
-    <t>123570</t>
-  </si>
-  <si>
-    <t>135569</t>
-  </si>
-  <si>
-    <t>139234</t>
-  </si>
-  <si>
-    <t>147554</t>
-  </si>
-  <si>
-    <t>157924</t>
-  </si>
-  <si>
-    <t>189455</t>
-  </si>
-  <si>
-    <t>196430</t>
-  </si>
-  <si>
-    <t>209469</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
-    <t>237389</t>
-  </si>
-  <si>
-    <t>247283</t>
-  </si>
-  <si>
-    <t>expns</t>
-  </si>
-  <si>
-    <t>246080</t>
-  </si>
-  <si>
-    <t>36956.96</t>
-  </si>
-  <si>
-    <t>238942</t>
-  </si>
-  <si>
-    <t>218942</t>
-  </si>
-  <si>
-    <t>218895</t>
-  </si>
-  <si>
-    <t>195775</t>
-  </si>
-  <si>
-    <t>176775</t>
-  </si>
-  <si>
-    <t>126775</t>
-  </si>
-  <si>
-    <t>125775</t>
-  </si>
-  <si>
-    <t>105775</t>
-  </si>
-  <si>
-    <t>104775</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>32231.96</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>27931.96</t>
-  </si>
-  <si>
-    <t>28281.96</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>28951.96</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>30351.96</t>
-  </si>
-  <si>
-    <t>31791.96</t>
-  </si>
-  <si>
-    <t>33791.96</t>
-  </si>
-  <si>
-    <t>35991.96</t>
-  </si>
-  <si>
-    <t>38241.96</t>
-  </si>
-  <si>
-    <t>40481.96</t>
-  </si>
-  <si>
-    <t>44681.96</t>
-  </si>
-  <si>
-    <t>46571.96</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>48524.96</t>
-  </si>
-  <si>
-    <t>49847.96</t>
-  </si>
-  <si>
-    <t>51149.96</t>
-  </si>
-  <si>
-    <t>52150.72</t>
-  </si>
-  <si>
-    <t>56000.72</t>
-  </si>
-  <si>
-    <t>2023-12-09</t>
-  </si>
-  <si>
-    <t>61209.72</t>
-  </si>
-  <si>
-    <t>65292.12</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>70692.12</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>72342.12</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>74042.12</t>
-  </si>
-  <si>
-    <t>77042.12</t>
-  </si>
-  <si>
-    <t>78082.12</t>
-  </si>
-  <si>
-    <t>81127.12</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>84172.12</t>
-  </si>
-  <si>
-    <t>87847.12</t>
-  </si>
-  <si>
-    <t>94421.52</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>110421.52</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>112821.52</t>
-  </si>
-  <si>
-    <t>116271.52</t>
-  </si>
-  <si>
-    <t>120171.52</t>
-  </si>
-  <si>
-    <t>132381.52</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>133181.52</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>134481.52</t>
-  </si>
-  <si>
-    <t>135941.52</t>
-  </si>
-  <si>
-    <t>134796.81</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>135479.31</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>136975.56</t>
-  </si>
-  <si>
-    <t>137684.31</t>
-  </si>
-  <si>
-    <t>138524.31</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>139364.31</t>
-  </si>
-  <si>
-    <t>140724.31</t>
-  </si>
-  <si>
-    <t>141974.31</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>144274.31</t>
-  </si>
-  <si>
-    <t>146974.31</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>151354.31</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>151794.31</t>
-  </si>
-  <si>
-    <t>154754.31</t>
-  </si>
-  <si>
-    <t>156194.31</t>
-  </si>
-  <si>
-    <t>166851.81</t>
-  </si>
-  <si>
-    <t>167943.81</t>
-  </si>
-  <si>
-    <t>168321.81</t>
-  </si>
-  <si>
-    <t>169067.31</t>
-  </si>
-  <si>
-    <t>169959.81</t>
-  </si>
-  <si>
-    <t>170406.06</t>
-  </si>
-  <si>
-    <t>171078.06</t>
-  </si>
-  <si>
-    <t>173430.06</t>
-  </si>
-  <si>
-    <t>174585.06</t>
-  </si>
-  <si>
-    <t>177063.06</t>
-  </si>
-  <si>
-    <t>CITY_TRADERS</t>
-  </si>
-  <si>
-    <t>172570.56</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>174010.56</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>175760.56</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>176960.56</t>
-  </si>
-  <si>
-    <t>179260.56</t>
-  </si>
-  <si>
-    <t>182334.97</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>185274.97</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>186975.97</t>
-  </si>
-  <si>
-    <t>189285.97</t>
-  </si>
-  <si>
-    <t>192285.97</t>
-  </si>
-  <si>
-    <t>195435.97</t>
-  </si>
-  <si>
-    <t>205935.97</t>
-  </si>
-  <si>
-    <t>206959.72</t>
-  </si>
-  <si>
-    <t>219349.72</t>
-  </si>
-  <si>
-    <t>221554.72</t>
-  </si>
-  <si>
-    <t>222279.22</t>
-  </si>
-  <si>
-    <t>222725.47</t>
-  </si>
-  <si>
-    <t>223066.72</t>
-  </si>
-  <si>
-    <t>225347.31</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>223847.31</t>
-  </si>
-  <si>
-    <t>2024-07-14</t>
-  </si>
-  <si>
-    <t>city_traders</t>
-  </si>
-  <si>
-    <t>220247.31</t>
-  </si>
-  <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>221545.11</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>224594.31</t>
-  </si>
-  <si>
-    <t>225455.31</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>225896.31</t>
-  </si>
-  <si>
-    <t>226796.31</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>227716.31</t>
-  </si>
-  <si>
-    <t>228966.31</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>229286.31</t>
-  </si>
-  <si>
-    <t>235286.31</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>238286.31</t>
-  </si>
-  <si>
-    <t>244686.31</t>
-  </si>
-  <si>
-    <t>251886.31</t>
-  </si>
-  <si>
-    <t>253136.31</t>
-  </si>
-  <si>
-    <t>257936.31</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
-  </si>
-  <si>
-    <t>266336.3</t>
-  </si>
-  <si>
-    <t>268436.3</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>268676.3</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>271526.3</t>
-  </si>
-  <si>
-    <t>284231.3</t>
-  </si>
-  <si>
-    <t>289691.3</t>
-  </si>
-  <si>
-    <t>293208.8</t>
-  </si>
-  <si>
-    <t>295098.8</t>
-  </si>
-  <si>
-    <t>296610.8</t>
-  </si>
-  <si>
-    <t>297925.7</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>298597.7</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>297881.66</t>
-  </si>
-  <si>
-    <t>2024-08-10</t>
-  </si>
-  <si>
-    <t>299681.7</t>
-  </si>
-  <si>
-    <t>2024-08-25</t>
-  </si>
-  <si>
-    <t>300681.7</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>303481.7</t>
-  </si>
-  <si>
-    <t>309331.7</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>305731.7</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>298006.72</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>304006.7</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>306506.7</t>
-  </si>
-  <si>
-    <t>307706.7</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>309356.7</t>
-  </si>
-  <si>
-    <t>311996.7</t>
-  </si>
-  <si>
-    <t>313296.7</t>
-  </si>
-  <si>
-    <t>314146.7</t>
-  </si>
-  <si>
-    <t>dev_goldiee_agency</t>
-  </si>
-  <si>
-    <t>312346.66</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>Bhotika_Marketing_Group</t>
-  </si>
-  <si>
-    <t>309597.06</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>311697.06</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>311627.06</t>
-  </si>
-  <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
-    <t>311557.06</t>
-  </si>
-  <si>
-    <t>311322.06</t>
-  </si>
-  <si>
-    <t>301084.56</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
-    <t>290269.56</t>
-  </si>
-  <si>
-    <t>275149.56</t>
-  </si>
-  <si>
-    <t>271138.56</t>
-  </si>
-  <si>
-    <t>264334.56</t>
-  </si>
-  <si>
-    <t>264194.56</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>264072.06</t>
-  </si>
-  <si>
-    <t>263837.06</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>263767.06</t>
-  </si>
-  <si>
-    <t>263697.06</t>
-  </si>
-  <si>
-    <t>263627.06</t>
-  </si>
-  <si>
-    <t>263557.06</t>
-  </si>
-  <si>
-    <t>262596.94</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>264496.94</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>265896.94</t>
-  </si>
-  <si>
-    <t>268096.94</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>268346.94</t>
-  </si>
-  <si>
-    <t>271846.94</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>272476.94</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>273106.94</t>
-  </si>
-  <si>
-    <t>273036.94</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>272966.94</t>
-  </si>
-  <si>
-    <t>272721.94</t>
-  </si>
-  <si>
-    <t>272529.94</t>
-  </si>
-  <si>
-    <t>276080.34</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>277880.34</t>
-  </si>
-  <si>
-    <t>280880.34</t>
-  </si>
-  <si>
-    <t>282130.34</t>
-  </si>
-  <si>
-    <t>289630.34</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>294630.44</t>
-  </si>
-  <si>
-    <t>297780.44</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>301230.44</t>
-  </si>
-  <si>
-    <t>306690.44</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>308065.44</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>309797.94</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>310327.12</t>
-  </si>
-  <si>
-    <t>315932.03</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>321270.03</t>
-  </si>
-  <si>
-    <t>316694.12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>318458.12</t>
-  </si>
-  <si>
-    <t>321765.62</t>
-  </si>
-  <si>
-    <t>323970.62</t>
-  </si>
-  <si>
-    <t>328370.62</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>330220.62</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>332120.62</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>334020.62</t>
-  </si>
-  <si>
-    <t>336420.62</t>
-  </si>
-  <si>
-    <t>340320.62</t>
-  </si>
-  <si>
-    <t>341520.62</t>
-  </si>
-  <si>
-    <t>343120.62</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>343690.62</t>
-  </si>
-  <si>
-    <t>345040.62</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>351040.62</t>
-  </si>
-  <si>
-    <t>353751.03</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>354647.03</t>
-  </si>
-  <si>
-    <t>361747.03</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>366397.03</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>367279.03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>368161.03</t>
-  </si>
-  <si>
-    <t>369368.53</t>
-  </si>
-  <si>
-    <t>368927.53</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>369452.53</t>
-  </si>
-  <si>
-    <t>369715.03</t>
-  </si>
-  <si>
-    <t>370114.03</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>370555.03</t>
-  </si>
-  <si>
-    <t>404323.03</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>414223.03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>409873.03</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>416023.03</t>
-  </si>
-  <si>
-    <t>418523.03</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>419923.03</t>
-  </si>
-  <si>
-    <t>420723.03</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>422873.03</t>
-  </si>
-  <si>
-    <t>424773.03</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>425143.03</t>
-  </si>
-  <si>
-    <t>428958.03</t>
-  </si>
-  <si>
-    <t>430278.03</t>
-  </si>
-  <si>
-    <t>431778.03</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>432928.03</t>
-  </si>
-  <si>
-    <t>433298.03</t>
-  </si>
-  <si>
-    <t>434978.03</t>
-  </si>
-  <si>
-    <t>436742.03</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>440865.03</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>445015.12</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>451015.12</t>
-  </si>
-  <si>
-    <t>451965.12</t>
-  </si>
-  <si>
-    <t>457965.12</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>461065.12</t>
-  </si>
-  <si>
-    <t>466665.12</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>474615.12</t>
-  </si>
-  <si>
-    <t>476498.8</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>477758.8</t>
-  </si>
-  <si>
-    <t>484358.8</t>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
-    <t>488558.8</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>495158.8</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>498893.8</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>502043.8</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>505193.8</t>
-  </si>
-  <si>
-    <t>506893.8</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>508793.8</t>
-  </si>
-  <si>
-    <t>513383.8</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>516134.28</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>517154.62</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>523529.62</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>524929.6</t>
-  </si>
-  <si>
-    <t>529849.6</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>536569.6</t>
-  </si>
-  <si>
-    <t>540469.6</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>547469.6</t>
-  </si>
-  <si>
-    <t>547589.6</t>
-  </si>
-  <si>
-    <t>548889.6</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>553209.6</t>
-  </si>
-  <si>
-    <t>558159.6</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>560659.6</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>563159.6</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>564659.6</t>
-  </si>
-  <si>
-    <t>566159.6</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>569699.6</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>574739.6</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>581179.6</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>579209.6</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>577634.6</t>
-  </si>
-  <si>
-    <t>578189</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>578466.2</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>582466.2</t>
-  </si>
-  <si>
-    <t>584966.2</t>
-  </si>
-  <si>
-    <t>588466.2</t>
-  </si>
-  <si>
-    <t>m_l_enterprises</t>
-  </si>
-  <si>
-    <t>598366.2</t>
-  </si>
-  <si>
-    <t>592666.239</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>598666.239</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>604666.239</t>
-  </si>
-  <si>
-    <t>608866.239</t>
-  </si>
-  <si>
-    <t>611566.239</t>
-  </si>
-  <si>
-    <t>613816.239</t>
-  </si>
-  <si>
-    <t>616666.239</t>
-  </si>
-  <si>
-    <t>618786.239</t>
-  </si>
-  <si>
-    <t>620906.239</t>
-  </si>
-  <si>
-    <t>625306.239</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>630506.239</t>
-  </si>
-  <si>
-    <t>633906.239</t>
-  </si>
-  <si>
-    <t>635136.239</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>639556.239</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>640681.239</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>646441.239</t>
-  </si>
-  <si>
-    <t>650101.239</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>650311.239</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>651177.489</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>651754.989</t>
-  </si>
-  <si>
-    <t>646014.989</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>649854.989</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>652854.989</t>
-  </si>
-  <si>
-    <t>653394.989</t>
-  </si>
-  <si>
-    <t>654276.989</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>658276.989</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>658753.4265</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>660953.4265</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>662853.4265</t>
-  </si>
-  <si>
-    <t>663908.6765</t>
-  </si>
-  <si>
-    <t>666008.6765</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>667433.6765</t>
-  </si>
-  <si>
-    <t>669073.6765</t>
-  </si>
-  <si>
-    <t>669146.1265</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>669272.1265</t>
-  </si>
-  <si>
-    <t>669356.1265</t>
-  </si>
-  <si>
-    <t>671156.1265</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>673856.1265</t>
-  </si>
-  <si>
-    <t>675256.1265</t>
-  </si>
-  <si>
-    <t>683806.1265</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>687166.1265</t>
-  </si>
-  <si>
-    <t>689916.1265</t>
-  </si>
-  <si>
-    <t>691316.1265</t>
-  </si>
-  <si>
-    <t>692387.1265</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>692807.1265</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>693707.1265</t>
-  </si>
-  <si>
-    <t>694607.1265</t>
-  </si>
-  <si>
-    <t>695857.1265</t>
-  </si>
-  <si>
-    <t>696407.1265</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>696907.1265</t>
-  </si>
-  <si>
-    <t>692137.1265</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>689917.111458</t>
-  </si>
-  <si>
-    <t>690667.511458</t>
-  </si>
-  <si>
-    <t>690768.311458</t>
-  </si>
-  <si>
-    <t>693768.311458</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>696868.311458</t>
-  </si>
-  <si>
-    <t>699018.311458</t>
-  </si>
-  <si>
-    <t>701298.311458</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>705218.311458</t>
-  </si>
-  <si>
-    <t>705354.811458</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>711554.811458</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>713654.811458</t>
-  </si>
-  <si>
-    <t>715474.811458</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>716646.611458</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>722946.611458</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>727626.611458</t>
-  </si>
-  <si>
-    <t>740226.611458</t>
-  </si>
-  <si>
-    <t>748226.611458</t>
-  </si>
-  <si>
-    <t>752826.611458</t>
-  </si>
-  <si>
-    <t>763326.611458</t>
-  </si>
-  <si>
-    <t>768270.981458</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>769620.981458</t>
-  </si>
-  <si>
-    <t>771120.981458</t>
-  </si>
-  <si>
-    <t>772670.981458</t>
-  </si>
-  <si>
-    <t>774470.981458</t>
-  </si>
-  <si>
-    <t>776670.981458</t>
-  </si>
-  <si>
-    <t>777111.981458</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>784011.981458</t>
-  </si>
-  <si>
-    <t>790011.981458</t>
-  </si>
-  <si>
-    <t>796131.981458</t>
-  </si>
-  <si>
-    <t>805583.981458</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>808833.981458</t>
-  </si>
-  <si>
-    <t>809593.981458</t>
-  </si>
-  <si>
-    <t>806806.981458</t>
-  </si>
-  <si>
-    <t>808636.981458</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>804766.981458</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>1636366.981458</t>
-  </si>
-  <si>
-    <t>1637198.581458</t>
-  </si>
-  <si>
-    <t>1638748.581458</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>1640498.581458</t>
-  </si>
-  <si>
-    <t>1642498.581458</t>
-  </si>
-  <si>
-    <t>1643786.581458</t>
-  </si>
-  <si>
-    <t>1645074.581458</t>
-  </si>
-  <si>
-    <t>817496.581458</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>818289.541458</t>
-  </si>
-  <si>
-    <t>822452.581458</t>
-  </si>
-  <si>
-    <t>822662.149458</t>
-  </si>
-  <si>
-    <t>822916.949458</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>823902.549458</t>
-  </si>
-  <si>
-    <t>830891.349458</t>
-  </si>
-  <si>
-    <t>837161.109458</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>839378.709458</t>
-  </si>
-  <si>
-    <t>848478.709458</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>851178.709458</t>
-  </si>
-  <si>
-    <t>857213.709458</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>861398.709458</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>862212.459458</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>863866.209458</t>
-  </si>
-  <si>
-    <t>863726.208758</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>863656.208408</t>
-  </si>
-  <si>
-    <t>863586.208058</t>
-  </si>
-  <si>
-    <t>863516.207708</t>
-  </si>
-  <si>
-    <t>863281.207208</t>
-  </si>
-  <si>
-    <t>863106.634208</t>
-  </si>
-  <si>
-    <t>del p</t>
-  </si>
-  <si>
-    <t>863421.204908</t>
-  </si>
-  <si>
-    <t>863656.205408</t>
-  </si>
-  <si>
-    <t>863726.205758</t>
-  </si>
-  <si>
-    <t>863796.206108</t>
-  </si>
-  <si>
-    <t>863866.206458</t>
-  </si>
-  <si>
-    <t>863036.630708</t>
-  </si>
-  <si>
-    <t>863001.628958</t>
-  </si>
-  <si>
-    <t>863796.202958</t>
-  </si>
-  <si>
-    <t>862968.294608</t>
-  </si>
-  <si>
-    <t>862901.625908</t>
-  </si>
-  <si>
-    <t>863799.537758</t>
-  </si>
-  <si>
-    <t>862768.632908</t>
-  </si>
-  <si>
-    <t>862702.136408</t>
-  </si>
-  <si>
-    <t>862635.636338</t>
-  </si>
-  <si>
-    <t>862569.136268</t>
-  </si>
-  <si>
-    <t>862345.325618</t>
-  </si>
-  <si>
-    <t>862179.065468</t>
-  </si>
-  <si>
-    <t>863309.906168</t>
-  </si>
-  <si>
-    <t>862012.808468</t>
-  </si>
-  <si>
-    <t>864624.149168</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>865548.149168</t>
-  </si>
-  <si>
-    <t>867973.649168</t>
-  </si>
-  <si>
-    <t>871977.299168</t>
-  </si>
-  <si>
-    <t>873627.299168</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>877587.299168</t>
-  </si>
-  <si>
-    <t>882387.299168</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>886467.299168</t>
-  </si>
-  <si>
-    <t>886967.299168</t>
-  </si>
-  <si>
-    <t>895367.299168</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>895897.549168</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>896475.049168</t>
-  </si>
-  <si>
-    <t>898225.049168</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>902625.049168</t>
-  </si>
-  <si>
-    <t>905825.049168</t>
-  </si>
-  <si>
-    <t>911325.049168</t>
-  </si>
-  <si>
-    <t>915485.049168</t>
-  </si>
-  <si>
-    <t>918235.049168</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>924835.049168</t>
-  </si>
-  <si>
-    <t>927385.049168</t>
-  </si>
-  <si>
-    <t>928985.049168</t>
-  </si>
-  <si>
-    <t>933215.049168</t>
-  </si>
-  <si>
-    <t>933138.859173</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>932915.049573</t>
-  </si>
-  <si>
-    <t>929045.049573</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>927819.048573</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>924819.028263</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>924583.819863</t>
-  </si>
-  <si>
-    <t>924358.216863</t>
-  </si>
-  <si>
-    <t>931318.216863</t>
-  </si>
-  <si>
-    <t>937643.216863</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>939228.716863</t>
-  </si>
-  <si>
-    <t>946486.316863</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>949745.516863</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>962918.816863</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>968078.516863</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>970670.516863</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>973958.516863</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>980958.516863</t>
-  </si>
-  <si>
-    <t>992358.516863</t>
-  </si>
-  <si>
-    <t>995208.516863</t>
-  </si>
-  <si>
-    <t>998070.516863</t>
-  </si>
-  <si>
-    <t>1005998.016863</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>1009893.516863</t>
-  </si>
-  <si>
-    <t>1015141.416863</t>
-  </si>
-  <si>
-    <t>1033141.416863</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>1039741.416863</t>
-  </si>
-  <si>
-    <t>1043041.416863</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>1045441.416863</t>
-  </si>
-  <si>
-    <t>1049441.416863</t>
-  </si>
-  <si>
-    <t>1052041.416863</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>1055641.416863</t>
-  </si>
-  <si>
-    <t>1058941.416863</t>
-  </si>
-  <si>
-    <t>1062241.416863</t>
-  </si>
-  <si>
-    <t>1062751.416863</t>
-  </si>
-  <si>
-    <t>1058881.416863</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>1066162.866863</t>
-  </si>
-  <si>
-    <t>1068493.866863</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>1076599.866863</t>
-  </si>
-  <si>
-    <t>1081765.866863</t>
-  </si>
-  <si>
-    <t>1083078.366863</t>
-  </si>
-  <si>
-    <t>1076628.366863</t>
-  </si>
-  <si>
-    <t>2026-02-13</t>
-  </si>
-  <si>
-    <t>bhotika_marketing_group</t>
-  </si>
-  <si>
-    <t>1074228.066863</t>
-  </si>
-  <si>
-    <t>1078428.066863</t>
-  </si>
-  <si>
-    <t>2026-02-16</t>
-  </si>
-  <si>
-    <t>1082628.066863</t>
-  </si>
-  <si>
-    <t>1087828.066863</t>
+    <t>1088208.066863</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>1083408.066863</t>
+  </si>
+  <si>
+    <t>1080408.066863</t>
+  </si>
+  <si>
+    <t>1092223.559363</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>1104031.334363</t>
+  </si>
+  <si>
+    <t>1118031.334363</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>1127271.334363</t>
+  </si>
+  <si>
+    <t>1132071.334363</t>
+  </si>
+  <si>
+    <t>1135311.334363</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7187,7 +7226,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E539"/>
+  <dimension ref="A1:E548"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16350,10 +16389,163 @@
         <v>521</v>
       </c>
       <c r="D539" t="s">
-        <v>61</v>
+        <v>1166</v>
       </c>
       <c r="E539" t="s">
         <v>1163</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>90</v>
+      </c>
+      <c r="B540" t="s">
+        <v>522</v>
+      </c>
+      <c r="C540" t="s">
+        <v>521</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>90</v>
+      </c>
+      <c r="B541" t="s">
+        <v>522</v>
+      </c>
+      <c r="C541" t="s">
+        <v>521</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>90</v>
+      </c>
+      <c r="B542" t="s">
+        <v>522</v>
+      </c>
+      <c r="C542" t="s">
+        <v>521</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>145</v>
+      </c>
+      <c r="B543" t="s">
+        <v>435</v>
+      </c>
+      <c r="C543" t="s">
+        <v>521</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>145</v>
+      </c>
+      <c r="B544" t="s">
+        <v>435</v>
+      </c>
+      <c r="C544" t="s">
+        <v>521</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>145</v>
+      </c>
+      <c r="B545" t="s">
+        <v>435</v>
+      </c>
+      <c r="C545" t="s">
+        <v>521</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>145</v>
+      </c>
+      <c r="B546" t="s">
+        <v>435</v>
+      </c>
+      <c r="C546" t="s">
+        <v>521</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>145</v>
+      </c>
+      <c r="B547" t="s">
+        <v>435</v>
+      </c>
+      <c r="C547" t="s">
+        <v>521</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>145</v>
+      </c>
+      <c r="B548" t="s">
+        <v>435</v>
+      </c>
+      <c r="C548" t="s">
+        <v>521</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -16371,13 +16563,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -16385,13 +16577,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -16399,13 +16591,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -16413,13 +16605,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -16427,13 +16619,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -16441,13 +16633,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -16455,13 +16647,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -16469,13 +16661,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -16483,13 +16675,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -16510,13 +16702,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -16527,13 +16719,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -16544,13 +16736,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -16561,13 +16753,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -16578,13 +16770,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -16595,13 +16787,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -16612,13 +16804,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -16629,13 +16821,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16646,13 +16838,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>

--- a/Acc.xlsx
+++ b/Acc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1194">
   <si>
     <t>car_insurance</t>
   </si>
@@ -207,10 +207,10 @@
     <t>SHIVAM PROVISION STORE</t>
   </si>
   <si>
-    <t>2026-02-24</t>
-  </si>
-  <si>
-    <t>1123495.844363</t>
+    <t>2026-02-25</t>
+  </si>
+  <si>
+    <t>1121261.858063</t>
   </si>
   <si>
     <t>utkarsh</t>
@@ -3562,6 +3562,12 @@
   </si>
   <si>
     <t>1135311.334363</t>
+  </si>
+  <si>
+    <t>1121795.852363</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
   </si>
   <si>
     <t>arpit</t>
@@ -7226,7 +7232,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E548"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16546,6 +16552,40 @@
       </c>
       <c r="E548" t="s">
         <v>1168</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>630</v>
+      </c>
+      <c r="B549" t="s">
+        <v>522</v>
+      </c>
+      <c r="C549" t="s">
+        <v>521</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>630</v>
+      </c>
+      <c r="B550" t="s">
+        <v>522</v>
+      </c>
+      <c r="C550" t="s">
+        <v>521</v>
+      </c>
+      <c r="D550" t="s">
+        <v>61</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -16563,13 +16603,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D1" t="s">
         <v>333</v>
@@ -16577,13 +16617,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
@@ -16591,13 +16631,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
@@ -16605,13 +16645,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D4" t="s">
         <v>333</v>
@@ -16619,13 +16659,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D5" t="s">
         <v>333</v>
@@ -16633,13 +16673,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
@@ -16647,13 +16687,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D7" t="s">
         <v>333</v>
@@ -16661,13 +16701,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
@@ -16675,13 +16715,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D9" t="s">
         <v>333</v>
@@ -16702,13 +16742,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -16719,13 +16759,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -16736,13 +16776,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -16753,13 +16793,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -16770,13 +16810,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -16787,13 +16827,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -16804,13 +16844,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -16821,13 +16861,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16838,13 +16878,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
